--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,12 @@
     <t>['5', '19', '38', '45+6']</t>
   </si>
   <si>
+    <t>['41', '44', '45+4']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -920,9 +926,6 @@
   </si>
   <si>
     <t>['44']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['16']</t>
@@ -1243,10 +1246,13 @@
     <t>['3', '89']</t>
   </si>
   <si>
-    <t>['12', '19', '36', '56']</t>
+    <t>['13', '19', '36', '56']</t>
   </si>
   <si>
     <t>['23', '29', '43', '45+1']</t>
+  </si>
+  <si>
+    <t>['24', '56']</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1948,7 +1954,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ2">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2279,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2485,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2691,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2769,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
         <v>1.73</v>
@@ -3181,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3309,7 +3315,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3515,7 +3521,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3927,7 +3933,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4133,7 +4139,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4339,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4545,7 +4551,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4626,7 +4632,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4957,7 +4963,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5575,7 +5581,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5653,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5987,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6068,7 +6074,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -6399,7 +6405,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -6605,7 +6611,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6811,7 +6817,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -7095,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
         <v>1.07</v>
@@ -7223,7 +7229,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7429,7 +7435,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7507,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
         <v>1.53</v>
@@ -7635,7 +7641,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7841,7 +7847,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8047,7 +8053,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8253,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8540,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8665,7 +8671,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9283,7 +9289,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9361,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.4</v>
@@ -9695,7 +9701,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9901,7 +9907,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10107,7 +10113,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10519,7 +10525,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10600,7 +10606,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ44">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10725,7 +10731,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10806,7 +10812,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10931,7 +10937,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11215,10 +11221,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>2.02</v>
@@ -11343,7 +11349,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11755,7 +11761,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11961,7 +11967,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12167,7 +12173,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12579,7 +12585,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12785,7 +12791,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12991,7 +12997,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13069,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -13197,7 +13203,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13278,7 +13284,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13609,7 +13615,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13815,7 +13821,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14021,7 +14027,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14433,7 +14439,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14639,7 +14645,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14845,7 +14851,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14926,7 +14932,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15051,7 +15057,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15129,7 +15135,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15463,7 +15469,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15875,7 +15881,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15956,7 +15962,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ70">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -16081,7 +16087,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16368,7 +16374,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -17111,7 +17117,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17317,7 +17323,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -18013,7 +18019,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -18759,7 +18765,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19171,7 +19177,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19377,7 +19383,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19458,7 +19464,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ87">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19664,7 +19670,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.44</v>
@@ -19867,7 +19873,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89">
         <v>0.87</v>
@@ -19995,7 +20001,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20076,7 +20082,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR90">
         <v>2.13</v>
@@ -20201,7 +20207,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20613,7 +20619,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -21103,7 +21109,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.27</v>
@@ -21231,7 +21237,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21849,7 +21855,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22261,7 +22267,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22467,7 +22473,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22548,7 +22554,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR102">
         <v>1.35</v>
@@ -22673,7 +22679,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22754,7 +22760,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -22957,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ104">
         <v>0.4</v>
@@ -23085,7 +23091,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23291,7 +23297,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23575,7 +23581,7 @@
         <v>2.67</v>
       </c>
       <c r="AP107">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>2.27</v>
@@ -23909,7 +23915,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23990,7 +23996,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24115,7 +24121,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24321,7 +24327,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24733,7 +24739,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24939,7 +24945,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25351,7 +25357,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25557,7 +25563,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25969,7 +25975,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26175,7 +26181,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26381,7 +26387,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26587,7 +26593,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26665,10 +26671,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ122">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26999,7 +27005,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27205,7 +27211,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27411,7 +27417,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27489,7 +27495,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.87</v>
@@ -27617,7 +27623,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27698,7 +27704,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.42</v>
@@ -27823,7 +27829,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28029,7 +28035,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28441,7 +28447,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28647,7 +28653,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28728,7 +28734,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR132">
         <v>1.76</v>
@@ -28853,7 +28859,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29471,7 +29477,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29677,7 +29683,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29755,10 +29761,10 @@
         <v>2.14</v>
       </c>
       <c r="AP137">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -30295,7 +30301,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30707,7 +30713,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30788,7 +30794,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR142">
         <v>1.26</v>
@@ -31119,7 +31125,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31325,7 +31331,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31403,7 +31409,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -31531,7 +31537,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32024,7 +32030,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32561,7 +32567,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32973,7 +32979,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33179,7 +33185,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33591,7 +33597,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33797,7 +33803,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34003,7 +34009,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34415,7 +34421,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34621,7 +34627,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34702,7 +34708,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR161">
         <v>2.2</v>
@@ -34827,7 +34833,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35033,7 +35039,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35239,7 +35245,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35729,7 +35735,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>0.8</v>
@@ -35857,7 +35863,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36063,7 +36069,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36141,7 +36147,7 @@
         <v>1.78</v>
       </c>
       <c r="AP168">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ168">
         <v>1.73</v>
@@ -36269,7 +36275,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36350,7 +36356,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ169">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR169">
         <v>1.49</v>
@@ -36681,7 +36687,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36762,7 +36768,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR171">
         <v>1.74</v>
@@ -37299,7 +37305,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37380,7 +37386,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR174">
         <v>1.91</v>
@@ -37505,7 +37511,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37711,7 +37717,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38535,7 +38541,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38741,7 +38747,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39234,7 +39240,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR183">
         <v>1.45</v>
@@ -39359,7 +39365,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39437,7 +39443,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.4</v>
@@ -39565,7 +39571,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -40183,7 +40189,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40264,7 +40270,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR188">
         <v>1.5</v>
@@ -40389,7 +40395,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40879,7 +40885,7 @@
         <v>1.36</v>
       </c>
       <c r="AP191">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ191">
         <v>1.33</v>
@@ -41007,7 +41013,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41213,7 +41219,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41294,7 +41300,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR193">
         <v>1.45</v>
@@ -42037,7 +42043,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42449,7 +42455,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42861,7 +42867,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -42942,7 +42948,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ201">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43067,7 +43073,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43763,7 +43769,7 @@
         <v>0.73</v>
       </c>
       <c r="AP205">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43891,7 +43897,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44178,7 +44184,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ207">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR207">
         <v>2.52</v>
@@ -44303,7 +44309,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44509,7 +44515,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44715,7 +44721,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44921,7 +44927,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45333,7 +45339,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45414,7 +45420,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ213">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45539,7 +45545,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45745,7 +45751,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -45826,7 +45832,7 @@
         <v>2</v>
       </c>
       <c r="AQ215">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR215">
         <v>1.89</v>
@@ -45951,7 +45957,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46235,7 +46241,7 @@
         <v>1.17</v>
       </c>
       <c r="AP217">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ217">
         <v>1.27</v>
@@ -46363,7 +46369,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46569,7 +46575,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46775,7 +46781,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -46981,7 +46987,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47059,7 +47065,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
         <v>1.33</v>
@@ -47393,7 +47399,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47805,7 +47811,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48011,7 +48017,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48423,7 +48429,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48707,7 +48713,7 @@
         <v>1.92</v>
       </c>
       <c r="AP229">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ229">
         <v>1.6</v>
@@ -49041,7 +49047,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49122,7 +49128,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR231">
         <v>1.44</v>
@@ -49453,7 +49459,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49534,7 +49540,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ233">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR233">
         <v>1.41</v>
@@ -49659,7 +49665,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49865,7 +49871,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -49946,7 +49952,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ235">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR235">
         <v>1.83</v>
@@ -50277,7 +50283,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50689,7 +50695,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51101,7 +51107,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51513,7 +51519,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51797,7 +51803,7 @@
         <v>1.77</v>
       </c>
       <c r="AP244">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ244">
         <v>1.53</v>
@@ -51925,7 +51931,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52003,7 +52009,7 @@
         <v>2.15</v>
       </c>
       <c r="AP245">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ245">
         <v>2.27</v>
@@ -52131,7 +52137,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52337,7 +52343,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52418,7 +52424,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ247">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AR247">
         <v>1.46</v>
@@ -52543,7 +52549,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52955,7 +52961,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53242,7 +53248,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ251">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
         <v>1.51</v>
@@ -53367,7 +53373,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53448,7 +53454,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ252">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR252">
         <v>1.26</v>
@@ -53779,7 +53785,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -53985,7 +53991,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54603,7 +54609,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54809,7 +54815,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55015,7 +55021,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55221,7 +55227,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55633,7 +55639,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56045,7 +56051,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56251,7 +56257,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56457,7 +56463,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56663,7 +56669,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56819,6 +56825,624 @@
         <v>0</v>
       </c>
       <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7492080</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45767.4375</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>74</v>
+      </c>
+      <c r="H269" t="s">
+        <v>82</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269" t="s">
+        <v>96</v>
+      </c>
+      <c r="P269" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q269">
+        <v>3.2</v>
+      </c>
+      <c r="R269">
+        <v>2.2</v>
+      </c>
+      <c r="S269">
+        <v>3.25</v>
+      </c>
+      <c r="T269">
+        <v>1.4</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>2.75</v>
+      </c>
+      <c r="W269">
+        <v>1.4</v>
+      </c>
+      <c r="X269">
+        <v>8</v>
+      </c>
+      <c r="Y269">
+        <v>1.08</v>
+      </c>
+      <c r="Z269">
+        <v>2.62</v>
+      </c>
+      <c r="AA269">
+        <v>3.45</v>
+      </c>
+      <c r="AB269">
+        <v>2.77</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>9</v>
+      </c>
+      <c r="AE269">
+        <v>1.3</v>
+      </c>
+      <c r="AF269">
+        <v>3.45</v>
+      </c>
+      <c r="AG269">
+        <v>1.86</v>
+      </c>
+      <c r="AH269">
+        <v>1.95</v>
+      </c>
+      <c r="AI269">
+        <v>1.7</v>
+      </c>
+      <c r="AJ269">
+        <v>2.05</v>
+      </c>
+      <c r="AK269">
+        <v>1.45</v>
+      </c>
+      <c r="AL269">
+        <v>1.25</v>
+      </c>
+      <c r="AM269">
+        <v>1.5</v>
+      </c>
+      <c r="AN269">
+        <v>1.57</v>
+      </c>
+      <c r="AO269">
+        <v>1.5</v>
+      </c>
+      <c r="AP269">
+        <v>1.53</v>
+      </c>
+      <c r="AQ269">
+        <v>1.47</v>
+      </c>
+      <c r="AR269">
+        <v>1.48</v>
+      </c>
+      <c r="AS269">
+        <v>1.46</v>
+      </c>
+      <c r="AT269">
+        <v>2.94</v>
+      </c>
+      <c r="AU269">
+        <v>3</v>
+      </c>
+      <c r="AV269">
+        <v>6</v>
+      </c>
+      <c r="AW269">
+        <v>11</v>
+      </c>
+      <c r="AX269">
+        <v>3</v>
+      </c>
+      <c r="AY269">
+        <v>16</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>3</v>
+      </c>
+      <c r="BB269">
+        <v>9</v>
+      </c>
+      <c r="BC269">
+        <v>12</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7492076</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45767.52083333334</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>76</v>
+      </c>
+      <c r="H270" t="s">
+        <v>70</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>4</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>5</v>
+      </c>
+      <c r="O270" t="s">
+        <v>266</v>
+      </c>
+      <c r="P270" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q270">
+        <v>1.83</v>
+      </c>
+      <c r="R270">
+        <v>2.75</v>
+      </c>
+      <c r="S270">
+        <v>6</v>
+      </c>
+      <c r="T270">
+        <v>1.2</v>
+      </c>
+      <c r="U270">
+        <v>4.33</v>
+      </c>
+      <c r="V270">
+        <v>1.91</v>
+      </c>
+      <c r="W270">
+        <v>1.8</v>
+      </c>
+      <c r="X270">
+        <v>4</v>
+      </c>
+      <c r="Y270">
+        <v>1.22</v>
+      </c>
+      <c r="Z270">
+        <v>1.41</v>
+      </c>
+      <c r="AA270">
+        <v>5.6</v>
+      </c>
+      <c r="AB270">
+        <v>6.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.01</v>
+      </c>
+      <c r="AD270">
+        <v>26</v>
+      </c>
+      <c r="AE270">
+        <v>1.1</v>
+      </c>
+      <c r="AF270">
+        <v>6.5</v>
+      </c>
+      <c r="AG270">
+        <v>1.34</v>
+      </c>
+      <c r="AH270">
+        <v>3.09</v>
+      </c>
+      <c r="AI270">
+        <v>1.53</v>
+      </c>
+      <c r="AJ270">
+        <v>2.38</v>
+      </c>
+      <c r="AK270">
+        <v>1.1</v>
+      </c>
+      <c r="AL270">
+        <v>1.11</v>
+      </c>
+      <c r="AM270">
+        <v>2.95</v>
+      </c>
+      <c r="AN270">
+        <v>1.93</v>
+      </c>
+      <c r="AO270">
+        <v>1.5</v>
+      </c>
+      <c r="AP270">
+        <v>2</v>
+      </c>
+      <c r="AQ270">
+        <v>1.4</v>
+      </c>
+      <c r="AR270">
+        <v>1.68</v>
+      </c>
+      <c r="AS270">
+        <v>1.35</v>
+      </c>
+      <c r="AT270">
+        <v>3.03</v>
+      </c>
+      <c r="AU270">
+        <v>7</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>8</v>
+      </c>
+      <c r="AX270">
+        <v>3</v>
+      </c>
+      <c r="AY270">
+        <v>18</v>
+      </c>
+      <c r="AZ270">
+        <v>9</v>
+      </c>
+      <c r="BA270">
+        <v>6</v>
+      </c>
+      <c r="BB270">
+        <v>2</v>
+      </c>
+      <c r="BC270">
+        <v>8</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7492083</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45767.60416666666</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>78</v>
+      </c>
+      <c r="H271" t="s">
+        <v>85</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>2</v>
+      </c>
+      <c r="O271" t="s">
+        <v>267</v>
+      </c>
+      <c r="P271" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q271">
+        <v>5.5</v>
+      </c>
+      <c r="R271">
+        <v>2.2</v>
+      </c>
+      <c r="S271">
+        <v>2.3</v>
+      </c>
+      <c r="T271">
+        <v>1.4</v>
+      </c>
+      <c r="U271">
+        <v>2.75</v>
+      </c>
+      <c r="V271">
+        <v>3</v>
+      </c>
+      <c r="W271">
+        <v>1.36</v>
+      </c>
+      <c r="X271">
+        <v>8</v>
+      </c>
+      <c r="Y271">
+        <v>1.08</v>
+      </c>
+      <c r="Z271">
+        <v>5</v>
+      </c>
+      <c r="AA271">
+        <v>3.91</v>
+      </c>
+      <c r="AB271">
+        <v>1.73</v>
+      </c>
+      <c r="AC271">
+        <v>1.05</v>
+      </c>
+      <c r="AD271">
+        <v>9</v>
+      </c>
+      <c r="AE271">
+        <v>1.33</v>
+      </c>
+      <c r="AF271">
+        <v>3.3</v>
+      </c>
+      <c r="AG271">
+        <v>1.9</v>
+      </c>
+      <c r="AH271">
+        <v>1.9</v>
+      </c>
+      <c r="AI271">
+        <v>1.95</v>
+      </c>
+      <c r="AJ271">
+        <v>1.8</v>
+      </c>
+      <c r="AK271">
+        <v>2.15</v>
+      </c>
+      <c r="AL271">
+        <v>1.2</v>
+      </c>
+      <c r="AM271">
+        <v>1.17</v>
+      </c>
+      <c r="AN271">
+        <v>0.93</v>
+      </c>
+      <c r="AO271">
+        <v>2.29</v>
+      </c>
+      <c r="AP271">
+        <v>0.93</v>
+      </c>
+      <c r="AQ271">
+        <v>2.2</v>
+      </c>
+      <c r="AR271">
+        <v>1.39</v>
+      </c>
+      <c r="AS271">
+        <v>1.6</v>
+      </c>
+      <c r="AT271">
+        <v>2.99</v>
+      </c>
+      <c r="AU271">
+        <v>6</v>
+      </c>
+      <c r="AV271">
+        <v>5</v>
+      </c>
+      <c r="AW271">
+        <v>3</v>
+      </c>
+      <c r="AX271">
+        <v>2</v>
+      </c>
+      <c r="AY271">
+        <v>11</v>
+      </c>
+      <c r="AZ271">
+        <v>7</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>0</v>
+      </c>
+      <c r="BH271">
+        <v>0</v>
+      </c>
+      <c r="BI271">
+        <v>0</v>
+      </c>
+      <c r="BJ271">
+        <v>0</v>
+      </c>
+      <c r="BK271">
+        <v>0</v>
+      </c>
+      <c r="BL271">
+        <v>0</v>
+      </c>
+      <c r="BM271">
+        <v>0</v>
+      </c>
+      <c r="BN271">
+        <v>0</v>
+      </c>
+      <c r="BO271">
+        <v>0</v>
+      </c>
+      <c r="BP271">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,18 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['13', '45+1']</t>
+  </si>
+  <si>
+    <t>['27', '40', '84']</t>
+  </si>
+  <si>
+    <t>['61', '90']</t>
+  </si>
+  <si>
+    <t>['15', '23', '76', '90+1']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1254,6 +1266,12 @@
   <si>
     <t>['24', '56']</t>
   </si>
+  <si>
+    <t>['20', '74', '90+5']</t>
+  </si>
+  <si>
+    <t>['60', '69', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1891,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2285,7 +2303,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2363,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
         <v>0.53</v>
@@ -2491,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2697,7 +2715,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -3315,7 +3333,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3393,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ9">
         <v>2.27</v>
@@ -3521,7 +3539,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3602,7 +3620,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3933,7 +3951,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4011,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4139,7 +4157,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4217,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -4345,7 +4363,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4551,7 +4569,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4632,7 +4650,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4838,7 +4856,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4963,7 +4981,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5041,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5250,7 +5268,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5453,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5581,7 +5599,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5662,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5993,7 +6011,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6071,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>2.2</v>
@@ -6405,7 +6423,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6483,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ24">
         <v>1.47</v>
@@ -6611,7 +6629,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6817,7 +6835,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6895,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
         <v>2.27</v>
@@ -7229,7 +7247,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7435,7 +7453,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7516,7 +7534,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7641,7 +7659,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7722,7 +7740,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7847,7 +7865,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8053,7 +8071,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8259,7 +8277,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8546,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8671,7 +8689,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8749,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8955,10 +8973,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -9289,7 +9307,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9701,7 +9719,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9782,7 +9800,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9907,7 +9925,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9985,7 +10003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -10113,7 +10131,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10400,7 +10418,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.14</v>
@@ -10525,7 +10543,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10603,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ44">
         <v>2.2</v>
@@ -10731,7 +10749,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10809,7 +10827,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>1.47</v>
@@ -10937,7 +10955,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11015,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ46">
         <v>1.73</v>
@@ -11224,7 +11242,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR47">
         <v>2.02</v>
@@ -11349,7 +11367,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11427,7 +11445,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
         <v>0.53</v>
@@ -11636,7 +11654,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11761,7 +11779,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11842,7 +11860,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11967,7 +11985,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12173,7 +12191,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12254,7 +12272,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ52">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12585,7 +12603,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12791,7 +12809,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12869,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>0.87</v>
@@ -13203,7 +13221,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13281,7 +13299,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57">
         <v>1.47</v>
@@ -13487,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ58">
         <v>0.4</v>
@@ -13615,7 +13633,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13696,7 +13714,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13821,7 +13839,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14027,7 +14045,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14108,7 +14126,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -14311,7 +14329,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ62">
         <v>1.4</v>
@@ -14439,7 +14457,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14517,7 +14535,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14645,7 +14663,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14723,7 +14741,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.73</v>
@@ -14851,7 +14869,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14932,7 +14950,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15057,7 +15075,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15138,7 +15156,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15469,7 +15487,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15550,7 +15568,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ68">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15753,7 +15771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>0.53</v>
@@ -15881,7 +15899,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16087,7 +16105,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16783,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
         <v>1.4</v>
@@ -16989,7 +17007,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17117,7 +17135,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17323,7 +17341,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17401,7 +17419,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ77">
         <v>1.07</v>
@@ -17607,10 +17625,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17813,10 +17831,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -18228,7 +18246,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ81">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.64</v>
@@ -18640,7 +18658,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18765,7 +18783,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19177,7 +19195,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19258,7 +19276,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19383,7 +19401,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19670,7 +19688,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR88">
         <v>1.44</v>
@@ -20001,7 +20019,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20079,7 +20097,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>1.47</v>
@@ -20207,7 +20225,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20491,10 +20509,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.83</v>
@@ -20619,7 +20637,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20697,10 +20715,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
         <v>2.3</v>
@@ -20903,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>0.4</v>
@@ -21112,7 +21130,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -21237,7 +21255,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21315,7 +21333,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21521,7 +21539,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21855,7 +21873,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21933,10 +21951,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -22267,7 +22285,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22473,7 +22491,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22679,7 +22697,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22760,7 +22778,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -23091,7 +23109,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23297,7 +23315,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23915,7 +23933,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24121,7 +24139,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24199,7 +24217,7 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24327,7 +24345,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24405,7 +24423,7 @@
         <v>1.67</v>
       </c>
       <c r="AP111">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ111">
         <v>1.33</v>
@@ -24739,7 +24757,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24820,7 +24838,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.55</v>
@@ -24945,7 +24963,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25023,10 +25041,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
         <v>2.04</v>
@@ -25229,7 +25247,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>1.07</v>
@@ -25357,7 +25375,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25438,7 +25456,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.64</v>
@@ -25563,7 +25581,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25641,10 +25659,10 @@
         <v>2.2</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25847,10 +25865,10 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25975,7 +25993,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26181,7 +26199,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26387,7 +26405,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26593,7 +26611,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -27005,7 +27023,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27211,7 +27229,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27417,7 +27435,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27623,7 +27641,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27829,7 +27847,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -27907,7 +27925,7 @@
         <v>1.86</v>
       </c>
       <c r="AP128">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -28035,7 +28053,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28113,10 +28131,10 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.19</v>
@@ -28319,7 +28337,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28447,7 +28465,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28528,7 +28546,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.54</v>
@@ -28653,7 +28671,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28731,10 +28749,10 @@
         <v>0.83</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR132">
         <v>1.76</v>
@@ -28859,7 +28877,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29143,10 +29161,10 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
         <v>2.13</v>
@@ -29352,7 +29370,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29477,7 +29495,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29555,10 +29573,10 @@
         <v>0.33</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29683,7 +29701,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29967,7 +29985,7 @@
         <v>1.86</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ138">
         <v>1.6</v>
@@ -30301,7 +30319,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30713,7 +30731,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31125,7 +31143,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31331,7 +31349,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31537,7 +31555,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31615,10 +31633,10 @@
         <v>0.71</v>
       </c>
       <c r="AP146">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31824,7 +31842,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -32027,10 +32045,10 @@
         <v>1.14</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32233,10 +32251,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ149">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR149">
         <v>2.17</v>
@@ -32567,7 +32585,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32645,7 +32663,7 @@
         <v>1.63</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
         <v>1.33</v>
@@ -32851,7 +32869,7 @@
         <v>0.57</v>
       </c>
       <c r="AP152">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ152">
         <v>0.87</v>
@@ -32979,7 +32997,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33060,7 +33078,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ153">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
         <v>1.26</v>
@@ -33185,7 +33203,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33266,7 +33284,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33472,7 +33490,7 @@
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
         <v>1.87</v>
@@ -33597,7 +33615,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33675,7 +33693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
         <v>0.87</v>
@@ -33803,7 +33821,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34009,7 +34027,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34293,10 +34311,10 @@
         <v>0.89</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ159">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR159">
         <v>1.95</v>
@@ -34421,7 +34439,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34499,7 +34517,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ160">
         <v>1.6</v>
@@ -34627,7 +34645,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34705,10 +34723,10 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ161">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR161">
         <v>2.2</v>
@@ -34833,7 +34851,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34914,7 +34932,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ162">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
         <v>1.42</v>
@@ -35039,7 +35057,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35120,7 +35138,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
         <v>1.3</v>
@@ -35245,7 +35263,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35323,7 +35341,7 @@
         <v>0.25</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ164">
         <v>0.53</v>
@@ -35738,7 +35756,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR166">
         <v>1.56</v>
@@ -35863,7 +35881,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36069,7 +36087,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36275,7 +36293,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36687,7 +36705,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36765,7 +36783,7 @@
         <v>1.78</v>
       </c>
       <c r="AP171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ171">
         <v>1.47</v>
@@ -37180,7 +37198,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ173">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR173">
         <v>1.38</v>
@@ -37305,7 +37323,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37383,10 +37401,10 @@
         <v>0.89</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ174">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR174">
         <v>1.91</v>
@@ -37511,7 +37529,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37589,7 +37607,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ175">
         <v>0.53</v>
@@ -37717,7 +37735,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37798,7 +37816,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -38004,7 +38022,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ177">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR177">
         <v>1.23</v>
@@ -38210,7 +38228,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ178">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38541,7 +38559,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38747,7 +38765,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -38825,7 +38843,7 @@
         <v>0.78</v>
       </c>
       <c r="AP181">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ181">
         <v>0.87</v>
@@ -39031,7 +39049,7 @@
         <v>1.7</v>
       </c>
       <c r="AP182">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ182">
         <v>1.73</v>
@@ -39237,7 +39255,7 @@
         <v>2.11</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ183">
         <v>2.2</v>
@@ -39365,7 +39383,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39571,7 +39589,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39649,7 +39667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39858,7 +39876,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ186">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
         <v>1.5</v>
@@ -40064,7 +40082,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR187">
         <v>1.47</v>
@@ -40189,7 +40207,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40395,7 +40413,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40473,7 +40491,7 @@
         <v>0.1</v>
       </c>
       <c r="AP189">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ189">
         <v>0.4</v>
@@ -41013,7 +41031,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41091,7 +41109,7 @@
         <v>1.7</v>
       </c>
       <c r="AP192">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192">
         <v>1.6</v>
@@ -41219,7 +41237,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41300,7 +41318,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR193">
         <v>1.45</v>
@@ -41506,7 +41524,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41712,7 +41730,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ195">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -41915,7 +41933,7 @@
         <v>2.3</v>
       </c>
       <c r="AP196">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ196">
         <v>2.27</v>
@@ -42043,7 +42061,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42455,7 +42473,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42536,7 +42554,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ199">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR199">
         <v>1.37</v>
@@ -42867,7 +42885,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -42945,7 +42963,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ201">
         <v>2.2</v>
@@ -43073,7 +43091,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43154,7 +43172,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43563,7 +43581,7 @@
         <v>0.18</v>
       </c>
       <c r="AP204">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ204">
         <v>0.4</v>
@@ -43897,7 +43915,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43978,7 +43996,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ206">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR206">
         <v>1.45</v>
@@ -44181,7 +44199,7 @@
         <v>1.64</v>
       </c>
       <c r="AP207">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ207">
         <v>1.47</v>
@@ -44309,7 +44327,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44387,7 +44405,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ208">
         <v>1.4</v>
@@ -44515,7 +44533,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44593,7 +44611,7 @@
         <v>2.18</v>
       </c>
       <c r="AP209">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ209">
         <v>2.27</v>
@@ -44721,7 +44739,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44927,7 +44945,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45008,7 +45026,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR211">
         <v>1.27</v>
@@ -45339,7 +45357,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45420,7 +45438,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ213">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45545,7 +45563,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45626,7 +45644,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ214">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45751,7 +45769,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -45957,7 +45975,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46244,7 +46262,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR217">
         <v>1.54</v>
@@ -46369,7 +46387,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46450,7 +46468,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ218">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR218">
         <v>1.45</v>
@@ -46575,7 +46593,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46653,7 +46671,7 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ219">
         <v>1.73</v>
@@ -46781,7 +46799,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -46859,7 +46877,7 @@
         <v>0.25</v>
       </c>
       <c r="AP220">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ220">
         <v>0.4</v>
@@ -46987,7 +47005,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47068,7 +47086,7 @@
         <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR221">
         <v>1.67</v>
@@ -47271,7 +47289,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ222">
         <v>1.07</v>
@@ -47399,7 +47417,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47477,7 +47495,7 @@
         <v>1.45</v>
       </c>
       <c r="AP223">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ223">
         <v>1.4</v>
@@ -47811,7 +47829,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48017,7 +48035,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48095,10 +48113,10 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ226">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR226">
         <v>1.78</v>
@@ -48429,7 +48447,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48510,7 +48528,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR228">
         <v>1.46</v>
@@ -49047,7 +49065,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49128,7 +49146,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ231">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR231">
         <v>1.44</v>
@@ -49334,7 +49352,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR232">
         <v>1.52</v>
@@ -49459,7 +49477,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49665,7 +49683,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49871,7 +49889,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -49949,7 +49967,7 @@
         <v>2.17</v>
       </c>
       <c r="AP235">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ235">
         <v>2.2</v>
@@ -50155,7 +50173,7 @@
         <v>0.46</v>
       </c>
       <c r="AP236">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ236">
         <v>0.4</v>
@@ -50283,7 +50301,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50361,7 +50379,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ237">
         <v>1.07</v>
@@ -50567,10 +50585,10 @@
         <v>1.23</v>
       </c>
       <c r="AP238">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ238">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR238">
         <v>1.78</v>
@@ -50695,7 +50713,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -50773,10 +50791,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP239">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ239">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR239">
         <v>1.52</v>
@@ -51107,7 +51125,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51185,7 +51203,7 @@
         <v>1.54</v>
       </c>
       <c r="AP241">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ241">
         <v>1.73</v>
@@ -51519,7 +51537,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51806,7 +51824,7 @@
         <v>2</v>
       </c>
       <c r="AQ244">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR244">
         <v>1.64</v>
@@ -51931,7 +51949,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52137,7 +52155,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52343,7 +52361,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52549,7 +52567,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52630,7 +52648,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ248">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR248">
         <v>1.45</v>
@@ -52961,7 +52979,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53373,7 +53391,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53454,7 +53472,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ252">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR252">
         <v>1.26</v>
@@ -53785,7 +53803,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -53863,7 +53881,7 @@
         <v>1.21</v>
       </c>
       <c r="AP254">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ254">
         <v>1.33</v>
@@ -53991,7 +54009,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54072,7 +54090,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ255">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR255">
         <v>1.43</v>
@@ -54275,7 +54293,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ256">
         <v>1</v>
@@ -54481,10 +54499,10 @@
         <v>1.64</v>
       </c>
       <c r="AP257">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ257">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR257">
         <v>1.77</v>
@@ -54609,7 +54627,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54690,7 +54708,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR258">
         <v>1.47</v>
@@ -54815,7 +54833,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -54893,7 +54911,7 @@
         <v>0.93</v>
       </c>
       <c r="AP259">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ259">
         <v>1.07</v>
@@ -55021,7 +55039,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55099,10 +55117,10 @@
         <v>1</v>
       </c>
       <c r="AP260">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ260">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR260">
         <v>2.48</v>
@@ -55227,7 +55245,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55305,7 +55323,7 @@
         <v>1.64</v>
       </c>
       <c r="AP261">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ261">
         <v>1.73</v>
@@ -55514,7 +55532,7 @@
         <v>2</v>
       </c>
       <c r="AQ262">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR262">
         <v>1.81</v>
@@ -55639,7 +55657,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56051,7 +56069,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56257,7 +56275,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56463,7 +56481,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56669,7 +56687,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -57081,7 +57099,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57162,7 +57180,7 @@
         <v>2</v>
       </c>
       <c r="AQ270">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR270">
         <v>1.68</v>
@@ -57287,7 +57305,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57443,6 +57461,1242 @@
         <v>0</v>
       </c>
       <c r="BP271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7492085</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45772.64583333334</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>80</v>
+      </c>
+      <c r="H272" t="s">
+        <v>86</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>96</v>
+      </c>
+      <c r="P272" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q272">
+        <v>1.95</v>
+      </c>
+      <c r="R272">
+        <v>2.6</v>
+      </c>
+      <c r="S272">
+        <v>5.5</v>
+      </c>
+      <c r="T272">
+        <v>1.25</v>
+      </c>
+      <c r="U272">
+        <v>3.75</v>
+      </c>
+      <c r="V272">
+        <v>2.2</v>
+      </c>
+      <c r="W272">
+        <v>1.62</v>
+      </c>
+      <c r="X272">
+        <v>5</v>
+      </c>
+      <c r="Y272">
+        <v>1.17</v>
+      </c>
+      <c r="Z272">
+        <v>1.54</v>
+      </c>
+      <c r="AA272">
+        <v>4.8</v>
+      </c>
+      <c r="AB272">
+        <v>5.7</v>
+      </c>
+      <c r="AC272">
+        <v>2.73</v>
+      </c>
+      <c r="AD272">
+        <v>1.47</v>
+      </c>
+      <c r="AE272">
+        <v>0</v>
+      </c>
+      <c r="AF272">
+        <v>0</v>
+      </c>
+      <c r="AG272">
+        <v>1.47</v>
+      </c>
+      <c r="AH272">
+        <v>2.57</v>
+      </c>
+      <c r="AI272">
+        <v>1.67</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
+      <c r="AN272">
+        <v>1.33</v>
+      </c>
+      <c r="AO272">
+        <v>0.8</v>
+      </c>
+      <c r="AP272">
+        <v>1.25</v>
+      </c>
+      <c r="AQ272">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR272">
+        <v>1.78</v>
+      </c>
+      <c r="AS272">
+        <v>1.33</v>
+      </c>
+      <c r="AT272">
+        <v>3.11</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>3</v>
+      </c>
+      <c r="AW272">
+        <v>16</v>
+      </c>
+      <c r="AX272">
+        <v>4</v>
+      </c>
+      <c r="AY272">
+        <v>24</v>
+      </c>
+      <c r="AZ272">
+        <v>7</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>5</v>
+      </c>
+      <c r="BC272">
+        <v>11</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>0</v>
+      </c>
+      <c r="BG272">
+        <v>0</v>
+      </c>
+      <c r="BH272">
+        <v>0</v>
+      </c>
+      <c r="BI272">
+        <v>0</v>
+      </c>
+      <c r="BJ272">
+        <v>0</v>
+      </c>
+      <c r="BK272">
+        <v>0</v>
+      </c>
+      <c r="BL272">
+        <v>0</v>
+      </c>
+      <c r="BM272">
+        <v>0</v>
+      </c>
+      <c r="BN272">
+        <v>0</v>
+      </c>
+      <c r="BO272">
+        <v>0</v>
+      </c>
+      <c r="BP272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7492084</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>85</v>
+      </c>
+      <c r="H273" t="s">
+        <v>74</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>268</v>
+      </c>
+      <c r="P273" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q273">
+        <v>1.91</v>
+      </c>
+      <c r="R273">
+        <v>2.4</v>
+      </c>
+      <c r="S273">
+        <v>7.5</v>
+      </c>
+      <c r="T273">
+        <v>1.36</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
+      <c r="V273">
+        <v>2.63</v>
+      </c>
+      <c r="W273">
+        <v>1.44</v>
+      </c>
+      <c r="X273">
+        <v>7</v>
+      </c>
+      <c r="Y273">
+        <v>1.1</v>
+      </c>
+      <c r="Z273">
+        <v>1.35</v>
+      </c>
+      <c r="AA273">
+        <v>5.4</v>
+      </c>
+      <c r="AB273">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
+      <c r="AG273">
+        <v>1.81</v>
+      </c>
+      <c r="AH273">
+        <v>2.01</v>
+      </c>
+      <c r="AI273">
+        <v>2.05</v>
+      </c>
+      <c r="AJ273">
+        <v>1.7</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>2.07</v>
+      </c>
+      <c r="AO273">
+        <v>1.33</v>
+      </c>
+      <c r="AP273">
+        <v>2.13</v>
+      </c>
+      <c r="AQ273">
+        <v>1.25</v>
+      </c>
+      <c r="AR273">
+        <v>2.04</v>
+      </c>
+      <c r="AS273">
+        <v>1.09</v>
+      </c>
+      <c r="AT273">
+        <v>3.13</v>
+      </c>
+      <c r="AU273">
+        <v>6</v>
+      </c>
+      <c r="AV273">
+        <v>3</v>
+      </c>
+      <c r="AW273">
+        <v>9</v>
+      </c>
+      <c r="AX273">
+        <v>9</v>
+      </c>
+      <c r="AY273">
+        <v>19</v>
+      </c>
+      <c r="AZ273">
+        <v>15</v>
+      </c>
+      <c r="BA273">
+        <v>3</v>
+      </c>
+      <c r="BB273">
+        <v>7</v>
+      </c>
+      <c r="BC273">
+        <v>10</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7492086</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>87</v>
+      </c>
+      <c r="H274" t="s">
+        <v>75</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>3</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>269</v>
+      </c>
+      <c r="P274" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q274">
+        <v>1.62</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>8.5</v>
+      </c>
+      <c r="T274">
+        <v>1.2</v>
+      </c>
+      <c r="U274">
+        <v>4.33</v>
+      </c>
+      <c r="V274">
+        <v>1.91</v>
+      </c>
+      <c r="W274">
+        <v>1.8</v>
+      </c>
+      <c r="X274">
+        <v>4</v>
+      </c>
+      <c r="Y274">
+        <v>1.22</v>
+      </c>
+      <c r="Z274">
+        <v>1.23</v>
+      </c>
+      <c r="AA274">
+        <v>7.5</v>
+      </c>
+      <c r="AB274">
+        <v>12</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
+      <c r="AF274">
+        <v>0</v>
+      </c>
+      <c r="AG274">
+        <v>1.33</v>
+      </c>
+      <c r="AH274">
+        <v>3.15</v>
+      </c>
+      <c r="AI274">
+        <v>1.75</v>
+      </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
+      <c r="AN274">
+        <v>2.53</v>
+      </c>
+      <c r="AO274">
+        <v>1.53</v>
+      </c>
+      <c r="AP274">
+        <v>2.56</v>
+      </c>
+      <c r="AQ274">
+        <v>1.44</v>
+      </c>
+      <c r="AR274">
+        <v>2.52</v>
+      </c>
+      <c r="AS274">
+        <v>1.31</v>
+      </c>
+      <c r="AT274">
+        <v>3.83</v>
+      </c>
+      <c r="AU274">
+        <v>7</v>
+      </c>
+      <c r="AV274">
+        <v>4</v>
+      </c>
+      <c r="AW274">
+        <v>8</v>
+      </c>
+      <c r="AX274">
+        <v>5</v>
+      </c>
+      <c r="AY274">
+        <v>17</v>
+      </c>
+      <c r="AZ274">
+        <v>9</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>3</v>
+      </c>
+      <c r="BC274">
+        <v>7</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7492088</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>72</v>
+      </c>
+      <c r="H275" t="s">
+        <v>76</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>3</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>270</v>
+      </c>
+      <c r="P275" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q275">
+        <v>4.33</v>
+      </c>
+      <c r="R275">
+        <v>2.5</v>
+      </c>
+      <c r="S275">
+        <v>2.25</v>
+      </c>
+      <c r="T275">
+        <v>1.25</v>
+      </c>
+      <c r="U275">
+        <v>3.75</v>
+      </c>
+      <c r="V275">
+        <v>2.1</v>
+      </c>
+      <c r="W275">
+        <v>1.67</v>
+      </c>
+      <c r="X275">
+        <v>5</v>
+      </c>
+      <c r="Y275">
+        <v>1.17</v>
+      </c>
+      <c r="Z275">
+        <v>3.86</v>
+      </c>
+      <c r="AA275">
+        <v>4.1</v>
+      </c>
+      <c r="AB275">
+        <v>1.87</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>1.41</v>
+      </c>
+      <c r="AH275">
+        <v>2.78</v>
+      </c>
+      <c r="AI275">
+        <v>1.44</v>
+      </c>
+      <c r="AJ275">
+        <v>2.63</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
+      <c r="AN275">
+        <v>1.13</v>
+      </c>
+      <c r="AO275">
+        <v>1</v>
+      </c>
+      <c r="AP275">
+        <v>1.06</v>
+      </c>
+      <c r="AQ275">
+        <v>1.13</v>
+      </c>
+      <c r="AR275">
+        <v>1.73</v>
+      </c>
+      <c r="AS275">
+        <v>1.53</v>
+      </c>
+      <c r="AT275">
+        <v>3.26</v>
+      </c>
+      <c r="AU275">
+        <v>4</v>
+      </c>
+      <c r="AV275">
+        <v>9</v>
+      </c>
+      <c r="AW275">
+        <v>8</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>14</v>
+      </c>
+      <c r="AZ275">
+        <v>19</v>
+      </c>
+      <c r="BA275">
+        <v>2</v>
+      </c>
+      <c r="BB275">
+        <v>5</v>
+      </c>
+      <c r="BC275">
+        <v>7</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7492090</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>77</v>
+      </c>
+      <c r="H276" t="s">
+        <v>73</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>96</v>
+      </c>
+      <c r="P276" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q276">
+        <v>3</v>
+      </c>
+      <c r="R276">
+        <v>2.25</v>
+      </c>
+      <c r="S276">
+        <v>3.4</v>
+      </c>
+      <c r="T276">
+        <v>1.33</v>
+      </c>
+      <c r="U276">
+        <v>3.25</v>
+      </c>
+      <c r="V276">
+        <v>2.63</v>
+      </c>
+      <c r="W276">
+        <v>1.44</v>
+      </c>
+      <c r="X276">
+        <v>6.5</v>
+      </c>
+      <c r="Y276">
+        <v>1.11</v>
+      </c>
+      <c r="Z276">
+        <v>2.27</v>
+      </c>
+      <c r="AA276">
+        <v>3.7</v>
+      </c>
+      <c r="AB276">
+        <v>3.08</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>1.81</v>
+      </c>
+      <c r="AF276">
+        <v>2.01</v>
+      </c>
+      <c r="AG276">
+        <v>1.73</v>
+      </c>
+      <c r="AH276">
+        <v>2.05</v>
+      </c>
+      <c r="AI276">
+        <v>1.62</v>
+      </c>
+      <c r="AJ276">
+        <v>2.2</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1</v>
+      </c>
+      <c r="AO276">
+        <v>1.27</v>
+      </c>
+      <c r="AP276">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ276">
+        <v>1.38</v>
+      </c>
+      <c r="AR276">
+        <v>1.54</v>
+      </c>
+      <c r="AS276">
+        <v>1.31</v>
+      </c>
+      <c r="AT276">
+        <v>2.85</v>
+      </c>
+      <c r="AU276">
+        <v>2</v>
+      </c>
+      <c r="AV276">
+        <v>3</v>
+      </c>
+      <c r="AW276">
+        <v>8</v>
+      </c>
+      <c r="AX276">
+        <v>12</v>
+      </c>
+      <c r="AY276">
+        <v>11</v>
+      </c>
+      <c r="AZ276">
+        <v>17</v>
+      </c>
+      <c r="BA276">
+        <v>3</v>
+      </c>
+      <c r="BB276">
+        <v>2</v>
+      </c>
+      <c r="BC276">
+        <v>5</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7492092</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>81</v>
+      </c>
+      <c r="H277" t="s">
+        <v>70</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>4</v>
+      </c>
+      <c r="M277">
+        <v>3</v>
+      </c>
+      <c r="N277">
+        <v>7</v>
+      </c>
+      <c r="O277" t="s">
+        <v>271</v>
+      </c>
+      <c r="P277" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q277">
+        <v>3.4</v>
+      </c>
+      <c r="R277">
+        <v>2.4</v>
+      </c>
+      <c r="S277">
+        <v>2.75</v>
+      </c>
+      <c r="T277">
+        <v>1.25</v>
+      </c>
+      <c r="U277">
+        <v>3.75</v>
+      </c>
+      <c r="V277">
+        <v>2.2</v>
+      </c>
+      <c r="W277">
+        <v>1.62</v>
+      </c>
+      <c r="X277">
+        <v>5</v>
+      </c>
+      <c r="Y277">
+        <v>1.17</v>
+      </c>
+      <c r="Z277">
+        <v>3.07</v>
+      </c>
+      <c r="AA277">
+        <v>3.81</v>
+      </c>
+      <c r="AB277">
+        <v>2.24</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>1.43</v>
+      </c>
+      <c r="AH277">
+        <v>2.7</v>
+      </c>
+      <c r="AI277">
+        <v>1.44</v>
+      </c>
+      <c r="AJ277">
+        <v>2.63</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
+      <c r="AN277">
+        <v>0.73</v>
+      </c>
+      <c r="AO277">
+        <v>1.4</v>
+      </c>
+      <c r="AP277">
+        <v>0.88</v>
+      </c>
+      <c r="AQ277">
+        <v>1.31</v>
+      </c>
+      <c r="AR277">
+        <v>1.2</v>
+      </c>
+      <c r="AS277">
+        <v>1.34</v>
+      </c>
+      <c r="AT277">
+        <v>2.54</v>
+      </c>
+      <c r="AU277">
+        <v>12</v>
+      </c>
+      <c r="AV277">
+        <v>8</v>
+      </c>
+      <c r="AW277">
+        <v>10</v>
+      </c>
+      <c r="AX277">
+        <v>9</v>
+      </c>
+      <c r="AY277">
+        <v>26</v>
+      </c>
+      <c r="AZ277">
+        <v>19</v>
+      </c>
+      <c r="BA277">
+        <v>7</v>
+      </c>
+      <c r="BB277">
+        <v>8</v>
+      </c>
+      <c r="BC277">
+        <v>15</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="420">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1635,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3829,7 +3829,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ15">
         <v>1.31</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -7125,7 +7125,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7946,7 +7946,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>2.27</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
         <v>0.53</v>
@@ -10215,7 +10215,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR42">
         <v>1.82</v>
@@ -11654,7 +11654,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -12066,7 +12066,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -13099,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR56">
         <v>1.91</v>
@@ -15980,7 +15980,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
         <v>2.2</v>
@@ -16186,7 +16186,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ71">
         <v>2.27</v>
@@ -17425,7 +17425,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ77">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -19070,7 +19070,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
         <v>0.53</v>
@@ -19482,7 +19482,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ87">
         <v>2.2</v>
@@ -22163,7 +22163,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ100">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -23396,7 +23396,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>1.4</v>
@@ -24632,7 +24632,7 @@
         <v>1.67</v>
       </c>
       <c r="AP112">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ112">
         <v>1.73</v>
@@ -25253,7 +25253,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>2.31</v>
@@ -28343,7 +28343,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR130">
         <v>1.98</v>
@@ -28958,7 +28958,7 @@
         <v>0.71</v>
       </c>
       <c r="AP133">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -29370,7 +29370,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
         <v>0.9399999999999999</v>
@@ -32460,10 +32460,10 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.25</v>
@@ -33078,7 +33078,7 @@
         <v>0.75</v>
       </c>
       <c r="AP153">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ153">
         <v>0.9399999999999999</v>
@@ -33902,7 +33902,7 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -34111,7 +34111,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ158">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.38</v>
@@ -35138,7 +35138,7 @@
         <v>0.63</v>
       </c>
       <c r="AP163">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -37198,7 +37198,7 @@
         <v>1.56</v>
       </c>
       <c r="AP173">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ173">
         <v>1.44</v>
@@ -38022,7 +38022,7 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ177">
         <v>1.38</v>
@@ -40703,7 +40703,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ190">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR190">
         <v>1.45</v>
@@ -41524,7 +41524,7 @@
         <v>0.8</v>
       </c>
       <c r="AP194">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ194">
         <v>1.13</v>
@@ -42142,7 +42142,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ197">
         <v>0.87</v>
@@ -43381,7 +43381,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ203">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>1.46</v>
@@ -44820,7 +44820,7 @@
         <v>1.82</v>
       </c>
       <c r="AP210">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ210">
         <v>1.6</v>
@@ -45232,7 +45232,7 @@
         <v>0.91</v>
       </c>
       <c r="AP212">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ212">
         <v>0.87</v>
@@ -47295,7 +47295,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ222">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR222">
         <v>1.49</v>
@@ -49146,7 +49146,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ231">
         <v>1.31</v>
@@ -49558,7 +49558,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ233">
         <v>1.47</v>
@@ -50385,7 +50385,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ237">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>2.48</v>
@@ -53060,7 +53060,7 @@
         <v>1.31</v>
       </c>
       <c r="AP250">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ250">
         <v>1.4</v>
@@ -53266,7 +53266,7 @@
         <v>1.62</v>
       </c>
       <c r="AP251">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ251">
         <v>1.47</v>
@@ -54090,7 +54090,7 @@
         <v>1.21</v>
       </c>
       <c r="AP255">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ255">
         <v>1.25</v>
@@ -54917,7 +54917,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ259">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR259">
         <v>1.23</v>
@@ -55944,7 +55944,7 @@
         <v>0.43</v>
       </c>
       <c r="AP264">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ264">
         <v>0.4</v>
@@ -58906,6 +58906,418 @@
         <v>0</v>
       </c>
       <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7492091</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45774.4375</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>83</v>
+      </c>
+      <c r="H279" t="s">
+        <v>79</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>208</v>
+      </c>
+      <c r="P279" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q279">
+        <v>2.88</v>
+      </c>
+      <c r="R279">
+        <v>2.2</v>
+      </c>
+      <c r="S279">
+        <v>3.6</v>
+      </c>
+      <c r="T279">
+        <v>1.36</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>2.75</v>
+      </c>
+      <c r="W279">
+        <v>1.4</v>
+      </c>
+      <c r="X279">
+        <v>7</v>
+      </c>
+      <c r="Y279">
+        <v>1.1</v>
+      </c>
+      <c r="Z279">
+        <v>2.41</v>
+      </c>
+      <c r="AA279">
+        <v>3.41</v>
+      </c>
+      <c r="AB279">
+        <v>3.05</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>1.88</v>
+      </c>
+      <c r="AH279">
+        <v>1.93</v>
+      </c>
+      <c r="AI279">
+        <v>1.67</v>
+      </c>
+      <c r="AJ279">
+        <v>2.1</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>0.8</v>
+      </c>
+      <c r="AO279">
+        <v>1</v>
+      </c>
+      <c r="AP279">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ279">
+        <v>1</v>
+      </c>
+      <c r="AR279">
+        <v>1.5</v>
+      </c>
+      <c r="AS279">
+        <v>1.26</v>
+      </c>
+      <c r="AT279">
+        <v>2.76</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>2</v>
+      </c>
+      <c r="AW279">
+        <v>6</v>
+      </c>
+      <c r="AX279">
+        <v>4</v>
+      </c>
+      <c r="AY279">
+        <v>15</v>
+      </c>
+      <c r="AZ279">
+        <v>6</v>
+      </c>
+      <c r="BA279">
+        <v>10</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>14</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7492089</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45774.52083333334</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>84</v>
+      </c>
+      <c r="H280" t="s">
+        <v>78</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>96</v>
+      </c>
+      <c r="P280" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q280">
+        <v>2.5</v>
+      </c>
+      <c r="R280">
+        <v>2.25</v>
+      </c>
+      <c r="S280">
+        <v>4.33</v>
+      </c>
+      <c r="T280">
+        <v>1.36</v>
+      </c>
+      <c r="U280">
+        <v>3</v>
+      </c>
+      <c r="V280">
+        <v>2.75</v>
+      </c>
+      <c r="W280">
+        <v>1.4</v>
+      </c>
+      <c r="X280">
+        <v>7</v>
+      </c>
+      <c r="Y280">
+        <v>1.1</v>
+      </c>
+      <c r="Z280">
+        <v>1.96</v>
+      </c>
+      <c r="AA280">
+        <v>3.78</v>
+      </c>
+      <c r="AB280">
+        <v>3.82</v>
+      </c>
+      <c r="AC280">
+        <v>2.76</v>
+      </c>
+      <c r="AD280">
+        <v>1.46</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.84</v>
+      </c>
+      <c r="AH280">
+        <v>1.97</v>
+      </c>
+      <c r="AI280">
+        <v>1.7</v>
+      </c>
+      <c r="AJ280">
+        <v>2.05</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>1.27</v>
+      </c>
+      <c r="AO280">
+        <v>1.07</v>
+      </c>
+      <c r="AP280">
+        <v>1.25</v>
+      </c>
+      <c r="AQ280">
+        <v>1.06</v>
+      </c>
+      <c r="AR280">
+        <v>1.5</v>
+      </c>
+      <c r="AS280">
+        <v>1.23</v>
+      </c>
+      <c r="AT280">
+        <v>2.73</v>
+      </c>
+      <c r="AU280">
+        <v>3</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>9</v>
+      </c>
+      <c r="AX280">
+        <v>6</v>
+      </c>
+      <c r="AY280">
+        <v>15</v>
+      </c>
+      <c r="AZ280">
+        <v>15</v>
+      </c>
+      <c r="BA280">
+        <v>1</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>4</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -58040,10 +58040,10 @@
         <v>4</v>
       </c>
       <c r="BB274">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC274">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD274">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="420">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1635,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2181,7 +2181,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -6301,7 +6301,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>1.5</v>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -9391,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -12478,7 +12478,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -13511,7 +13511,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -16598,7 +16598,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
         <v>0.87</v>
@@ -17219,7 +17219,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ76">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -20306,7 +20306,7 @@
         <v>1.75</v>
       </c>
       <c r="AP91">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -20927,7 +20927,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR94">
         <v>2.18</v>
@@ -22987,7 +22987,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ104">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -24014,7 +24014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP109">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ109">
         <v>1.47</v>
@@ -26283,7 +26283,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ120">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR120">
         <v>1.27</v>
@@ -27310,7 +27310,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ125">
         <v>1.4</v>
@@ -30194,7 +30194,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30609,7 +30609,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ141">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -34108,7 +34108,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -36583,7 +36583,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ170">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR170">
         <v>1.47</v>
@@ -37816,7 +37816,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP176">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -40497,7 +40497,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ189">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -42554,7 +42554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ199">
         <v>1.44</v>
@@ -43587,7 +43587,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ204">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR204">
         <v>1.47</v>
@@ -45438,7 +45438,7 @@
         <v>1.27</v>
       </c>
       <c r="AP213">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ213">
         <v>1.31</v>
@@ -46883,7 +46883,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ220">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR220">
         <v>2.53</v>
@@ -49764,7 +49764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP234">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ234">
         <v>0.53</v>
@@ -50179,7 +50179,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ236">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR236">
         <v>2.04</v>
@@ -52442,7 +52442,7 @@
         <v>2.23</v>
       </c>
       <c r="AP247">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ247">
         <v>2.2</v>
@@ -55947,7 +55947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ264">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR264">
         <v>1.5</v>
@@ -56562,7 +56562,7 @@
         <v>2.21</v>
       </c>
       <c r="AP267">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ267">
         <v>2.27</v>
@@ -59319,6 +59319,212 @@
       </c>
       <c r="BP280">
         <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7492095</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>86</v>
+      </c>
+      <c r="H281" t="s">
+        <v>83</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281" t="s">
+        <v>96</v>
+      </c>
+      <c r="P281" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q281">
+        <v>2.88</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
+        <v>3.4</v>
+      </c>
+      <c r="T281">
+        <v>1.33</v>
+      </c>
+      <c r="U281">
+        <v>3.25</v>
+      </c>
+      <c r="V281">
+        <v>2.5</v>
+      </c>
+      <c r="W281">
+        <v>1.5</v>
+      </c>
+      <c r="X281">
+        <v>6.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.11</v>
+      </c>
+      <c r="Z281">
+        <v>2.29</v>
+      </c>
+      <c r="AA281">
+        <v>3.62</v>
+      </c>
+      <c r="AB281">
+        <v>3.11</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
+      </c>
+      <c r="AD281">
+        <v>9.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.25</v>
+      </c>
+      <c r="AF281">
+        <v>3.9</v>
+      </c>
+      <c r="AG281">
+        <v>1.67</v>
+      </c>
+      <c r="AH281">
+        <v>2.1</v>
+      </c>
+      <c r="AI281">
+        <v>1.62</v>
+      </c>
+      <c r="AJ281">
+        <v>2.2</v>
+      </c>
+      <c r="AK281">
+        <v>1.38</v>
+      </c>
+      <c r="AL281">
+        <v>1.25</v>
+      </c>
+      <c r="AM281">
+        <v>1.62</v>
+      </c>
+      <c r="AN281">
+        <v>0.67</v>
+      </c>
+      <c r="AO281">
+        <v>0.4</v>
+      </c>
+      <c r="AP281">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ281">
+        <v>0.44</v>
+      </c>
+      <c r="AR281">
+        <v>1.38</v>
+      </c>
+      <c r="AS281">
+        <v>1.26</v>
+      </c>
+      <c r="AT281">
+        <v>2.64</v>
+      </c>
+      <c r="AU281">
+        <v>4</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>8</v>
+      </c>
+      <c r="AX281">
+        <v>10</v>
+      </c>
+      <c r="AY281">
+        <v>17</v>
+      </c>
+      <c r="AZ281">
+        <v>15</v>
+      </c>
+      <c r="BA281">
+        <v>6</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>10</v>
+      </c>
+      <c r="BD281">
+        <v>1.94</v>
+      </c>
+      <c r="BE281">
+        <v>6.6</v>
+      </c>
+      <c r="BF281">
+        <v>2.38</v>
+      </c>
+      <c r="BG281">
+        <v>1.21</v>
+      </c>
+      <c r="BH281">
+        <v>3.58</v>
+      </c>
+      <c r="BI281">
+        <v>1.43</v>
+      </c>
+      <c r="BJ281">
+        <v>2.54</v>
+      </c>
+      <c r="BK281">
+        <v>1.77</v>
+      </c>
+      <c r="BL281">
+        <v>1.95</v>
+      </c>
+      <c r="BM281">
+        <v>2.23</v>
+      </c>
+      <c r="BN281">
+        <v>1.55</v>
+      </c>
+      <c r="BO281">
+        <v>2.97</v>
+      </c>
+      <c r="BP281">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="427">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,18 @@
     <t>['21', '53', '67', '71']</t>
   </si>
   <si>
+    <t>['37', '84']</t>
+  </si>
+  <si>
+    <t>['5', '32', '64', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '39', '90+4']</t>
+  </si>
+  <si>
+    <t>['3', '59', '69', '73']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1275,6 +1287,15 @@
   <si>
     <t>['60', '69', '86']</t>
   </si>
+  <si>
+    <t>['2', '15']</t>
+  </si>
+  <si>
+    <t>['43', '54', '73', '81']</t>
+  </si>
+  <si>
+    <t>['62', '63', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1635,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1894,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1972,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>2.2</v>
@@ -2178,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>0.44</v>
@@ -2306,7 +2327,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2512,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2593,7 +2614,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2718,7 +2739,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2799,7 +2820,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3208,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ8">
         <v>1.47</v>
@@ -3336,7 +3357,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3417,7 +3438,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ9">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3542,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3620,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>0.9399999999999999</v>
@@ -3826,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>1.06</v>
@@ -3954,7 +3975,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4160,7 +4181,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4241,7 +4262,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4366,7 +4387,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4447,7 +4468,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ14">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4572,7 +4593,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4984,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5602,7 +5623,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5680,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5886,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -6014,7 +6035,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6426,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6632,7 +6653,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6710,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6838,7 +6859,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6919,7 +6940,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ26">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -7250,7 +7271,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7331,7 +7352,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -7456,7 +7477,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7662,7 +7683,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7868,7 +7889,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7949,7 +7970,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR31">
         <v>0.65</v>
@@ -8074,7 +8095,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8152,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.36</v>
@@ -8280,7 +8301,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8692,7 +8713,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8773,7 +8794,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -9182,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -9310,7 +9331,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9388,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ38">
         <v>0.44</v>
@@ -9594,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9722,7 +9743,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9928,7 +9949,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10009,7 +10030,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.28</v>
@@ -10134,7 +10155,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10418,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>1.25</v>
@@ -10546,7 +10567,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10752,7 +10773,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10958,7 +10979,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11039,7 +11060,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -11370,7 +11391,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11782,7 +11803,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11860,7 +11881,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -11988,7 +12009,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12069,7 +12090,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -12194,7 +12215,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12272,7 +12293,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -12606,7 +12627,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12687,7 +12708,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ54">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12812,7 +12833,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12893,7 +12914,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>2.29</v>
@@ -13096,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13224,7 +13245,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13636,7 +13657,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13842,7 +13863,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14048,7 +14069,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14126,7 +14147,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>0.9399999999999999</v>
@@ -14335,7 +14356,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.47</v>
@@ -14460,7 +14481,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14666,7 +14687,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14747,7 +14768,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -14872,7 +14893,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -15078,7 +15099,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15362,10 +15383,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.52</v>
@@ -15490,7 +15511,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15568,7 +15589,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ68">
         <v>1.38</v>
@@ -15902,7 +15923,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16108,7 +16129,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16189,7 +16210,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ71">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR71">
         <v>1.42</v>
@@ -16392,7 +16413,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>1.47</v>
@@ -16601,7 +16622,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.3</v>
@@ -16807,7 +16828,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>2.41</v>
@@ -17138,7 +17159,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17344,7 +17365,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -18040,7 +18061,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -18452,10 +18473,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18658,7 +18679,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18786,7 +18807,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18864,10 +18885,10 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -19198,7 +19219,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19404,7 +19425,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19688,7 +19709,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1.31</v>
@@ -19897,7 +19918,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ89">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -20022,7 +20043,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20228,7 +20249,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20309,7 +20330,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -20640,7 +20661,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -21130,7 +21151,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -21258,7 +21279,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21751,7 +21772,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ98">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR98">
         <v>1.59</v>
@@ -21876,7 +21897,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22160,7 +22181,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -22288,7 +22309,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22366,7 +22387,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
         <v>0.53</v>
@@ -22494,7 +22515,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22572,7 +22593,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>2.2</v>
@@ -22700,7 +22721,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -23112,7 +23133,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23190,10 +23211,10 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -23318,7 +23339,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23399,7 +23420,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.1</v>
@@ -23602,10 +23623,10 @@
         <v>2.67</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ107">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR107">
         <v>1.93</v>
@@ -23811,7 +23832,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR108">
         <v>1.45</v>
@@ -23936,7 +23957,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24142,7 +24163,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24348,7 +24369,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24635,7 +24656,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ112">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR112">
         <v>1.23</v>
@@ -24760,7 +24781,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24966,7 +24987,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25378,7 +25399,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25456,7 +25477,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>1.13</v>
@@ -25584,7 +25605,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25996,7 +26017,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26077,7 +26098,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26202,7 +26223,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26280,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>0.44</v>
@@ -26408,7 +26429,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26489,7 +26510,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -26614,7 +26635,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26898,7 +26919,7 @@
         <v>0.33</v>
       </c>
       <c r="AP123">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>0.53</v>
@@ -27026,7 +27047,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27104,10 +27125,10 @@
         <v>1.86</v>
       </c>
       <c r="AP124">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27232,7 +27253,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27313,7 +27334,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ125">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.33</v>
@@ -27438,7 +27459,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27516,10 +27537,10 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ126">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27644,7 +27665,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27722,7 +27743,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -27850,7 +27871,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28056,7 +28077,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28468,7 +28489,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28674,7 +28695,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28880,7 +28901,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29498,7 +29519,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29704,7 +29725,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29782,7 +29803,7 @@
         <v>2.14</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ137">
         <v>2.2</v>
@@ -29991,7 +30012,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ138">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.83</v>
@@ -30322,7 +30343,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30734,7 +30755,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30812,7 +30833,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ142">
         <v>1.47</v>
@@ -31018,10 +31039,10 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR143">
         <v>1.59</v>
@@ -31146,7 +31167,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31224,10 +31245,10 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ144">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31352,7 +31373,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31433,7 +31454,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31558,7 +31579,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32588,7 +32609,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32875,7 +32896,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ152">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
         <v>2.19</v>
@@ -33000,7 +33021,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33206,7 +33227,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33284,7 +33305,7 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33618,7 +33639,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33699,7 +33720,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.22</v>
@@ -33824,7 +33845,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34030,7 +34051,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34442,7 +34463,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34523,7 +34544,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ160">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>2.29</v>
@@ -34648,7 +34669,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34854,7 +34875,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34932,7 +34953,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
         <v>1.44</v>
@@ -35060,7 +35081,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35266,7 +35287,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35553,7 +35574,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ165">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
         <v>1.46</v>
@@ -35884,7 +35905,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -35965,7 +35986,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ167">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR167">
         <v>1.56</v>
@@ -36090,7 +36111,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36168,10 +36189,10 @@
         <v>1.78</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ168">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36296,7 +36317,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36374,7 +36395,7 @@
         <v>2.25</v>
       </c>
       <c r="AP169">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ169">
         <v>2.2</v>
@@ -36580,7 +36601,7 @@
         <v>0.11</v>
       </c>
       <c r="AP170">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>0.44</v>
@@ -36708,7 +36729,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36992,7 +37013,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP172">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -37326,7 +37347,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37532,7 +37553,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37738,7 +37759,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38228,7 +38249,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178">
         <v>1.25</v>
@@ -38434,7 +38455,7 @@
         <v>1.4</v>
       </c>
       <c r="AP179">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ179">
         <v>1.25</v>
@@ -38562,7 +38583,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38643,7 +38664,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ180">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
         <v>1.83</v>
@@ -38768,7 +38789,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -38849,7 +38870,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ181">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
         <v>2.14</v>
@@ -39055,7 +39076,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ182">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR182">
         <v>2.47</v>
@@ -39386,7 +39407,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39464,10 +39485,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ184">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR184">
         <v>1.55</v>
@@ -39592,7 +39613,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -40210,7 +40231,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40288,7 +40309,7 @@
         <v>1.7</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>1.47</v>
@@ -40416,7 +40437,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40700,7 +40721,7 @@
         <v>1.2</v>
       </c>
       <c r="AP190">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ190">
         <v>1.06</v>
@@ -41034,7 +41055,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41115,7 +41136,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ192">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.88</v>
@@ -41240,7 +41261,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41318,7 +41339,7 @@
         <v>1.1</v>
       </c>
       <c r="AP193">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
         <v>1.31</v>
@@ -41730,7 +41751,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ195">
         <v>1.38</v>
@@ -41939,7 +41960,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ196">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR196">
         <v>2.06</v>
@@ -42064,7 +42085,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42145,7 +42166,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ197">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR197">
         <v>1.38</v>
@@ -42476,7 +42497,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42763,7 +42784,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ200">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR200">
         <v>1.47</v>
@@ -42888,7 +42909,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43094,7 +43115,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43172,7 +43193,7 @@
         <v>0.91</v>
       </c>
       <c r="AP202">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>1.25</v>
@@ -43790,7 +43811,7 @@
         <v>0.73</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43918,7 +43939,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43996,7 +44017,7 @@
         <v>0.64</v>
       </c>
       <c r="AP206">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ206">
         <v>0.9399999999999999</v>
@@ -44330,7 +44351,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44411,7 +44432,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ208">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.84</v>
@@ -44536,7 +44557,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44617,7 +44638,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ209">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR209">
         <v>1.85</v>
@@ -44742,7 +44763,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44823,7 +44844,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ210">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR210">
         <v>1.38</v>
@@ -44948,7 +44969,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45026,7 +45047,7 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ211">
         <v>1.13</v>
@@ -45235,7 +45256,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ212">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR212">
         <v>1.4</v>
@@ -45360,7 +45381,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45566,7 +45587,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45644,7 +45665,7 @@
         <v>1.55</v>
       </c>
       <c r="AP214">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ214">
         <v>1.44</v>
@@ -45772,7 +45793,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -45978,7 +45999,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46056,7 +46077,7 @@
         <v>0.27</v>
       </c>
       <c r="AP216">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
         <v>0.53</v>
@@ -46390,7 +46411,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46468,7 +46489,7 @@
         <v>1.67</v>
       </c>
       <c r="AP218">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ218">
         <v>1.44</v>
@@ -46596,7 +46617,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46677,7 +46698,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ219">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR219">
         <v>2.05</v>
@@ -46802,7 +46823,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47008,7 +47029,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47086,7 +47107,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ221">
         <v>1.25</v>
@@ -47420,7 +47441,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47501,7 +47522,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ223">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR223">
         <v>1.19</v>
@@ -47832,7 +47853,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48038,7 +48059,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48322,10 +48343,10 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ227">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR227">
         <v>1.25</v>
@@ -48450,7 +48471,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48737,7 +48758,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ229">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR229">
         <v>1.55</v>
@@ -48940,10 +48961,10 @@
         <v>2.25</v>
       </c>
       <c r="AP230">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR230">
         <v>1.53</v>
@@ -49068,7 +49089,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49352,7 +49373,7 @@
         <v>0.92</v>
       </c>
       <c r="AP232">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ232">
         <v>1.13</v>
@@ -49480,7 +49501,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49686,7 +49707,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49892,7 +49913,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50304,7 +50325,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50716,7 +50737,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51000,7 +51021,7 @@
         <v>1.31</v>
       </c>
       <c r="AP240">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>1.25</v>
@@ -51128,7 +51149,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51209,7 +51230,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ241">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR241">
         <v>1.25</v>
@@ -51415,7 +51436,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ242">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR242">
         <v>1.79</v>
@@ -51540,7 +51561,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51824,7 +51845,7 @@
         <v>1.77</v>
       </c>
       <c r="AP244">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ244">
         <v>1.44</v>
@@ -51952,7 +51973,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52033,7 +52054,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ245">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR245">
         <v>1.52</v>
@@ -52158,7 +52179,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52236,10 +52257,10 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ246">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR246">
         <v>1.53</v>
@@ -52364,7 +52385,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52570,7 +52591,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52982,7 +53003,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53063,7 +53084,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ250">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR250">
         <v>1.48</v>
@@ -53394,7 +53415,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53472,7 +53493,7 @@
         <v>1.54</v>
       </c>
       <c r="AP252">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ252">
         <v>1.31</v>
@@ -53678,10 +53699,10 @@
         <v>1.77</v>
       </c>
       <c r="AP253">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ253">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR253">
         <v>1.5</v>
@@ -53806,7 +53827,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54012,7 +54033,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54630,7 +54651,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54708,7 +54729,7 @@
         <v>1.14</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ258">
         <v>1.38</v>
@@ -54836,7 +54857,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55042,7 +55063,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55248,7 +55269,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55329,7 +55350,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ261">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR261">
         <v>1.8</v>
@@ -55660,7 +55681,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55741,7 +55762,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ263">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR263">
         <v>1.44</v>
@@ -56072,7 +56093,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56153,7 +56174,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ265">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR265">
         <v>1.45</v>
@@ -56278,7 +56299,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56356,7 +56377,7 @@
         <v>0.5</v>
       </c>
       <c r="AP266">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ266">
         <v>0.53</v>
@@ -56484,7 +56505,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56565,7 +56586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ267">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR267">
         <v>1.44</v>
@@ -56690,7 +56711,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56768,10 +56789,10 @@
         <v>1.43</v>
       </c>
       <c r="AP268">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ268">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR268">
         <v>1.49</v>
@@ -57102,7 +57123,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57180,7 +57201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP270">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ270">
         <v>1.31</v>
@@ -57308,7 +57329,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57386,7 +57407,7 @@
         <v>2.29</v>
       </c>
       <c r="AP271">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ271">
         <v>2.2</v>
@@ -58132,7 +58153,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58544,7 +58565,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -59525,6 +59546,1036 @@
       </c>
       <c r="BP281">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7492100</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45780.4375</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>79</v>
+      </c>
+      <c r="H282" t="s">
+        <v>84</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282">
+        <v>3</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>273</v>
+      </c>
+      <c r="P282" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q282">
+        <v>3.25</v>
+      </c>
+      <c r="R282">
+        <v>2.2</v>
+      </c>
+      <c r="S282">
+        <v>3.1</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>3</v>
+      </c>
+      <c r="V282">
+        <v>2.63</v>
+      </c>
+      <c r="W282">
+        <v>1.44</v>
+      </c>
+      <c r="X282">
+        <v>7</v>
+      </c>
+      <c r="Y282">
+        <v>1.1</v>
+      </c>
+      <c r="Z282">
+        <v>2.53</v>
+      </c>
+      <c r="AA282">
+        <v>3.62</v>
+      </c>
+      <c r="AB282">
+        <v>2.75</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>9.5</v>
+      </c>
+      <c r="AE282">
+        <v>1.28</v>
+      </c>
+      <c r="AF282">
+        <v>3.65</v>
+      </c>
+      <c r="AG282">
+        <v>1.83</v>
+      </c>
+      <c r="AH282">
+        <v>1.98</v>
+      </c>
+      <c r="AI282">
+        <v>1.67</v>
+      </c>
+      <c r="AJ282">
+        <v>2.1</v>
+      </c>
+      <c r="AK282">
+        <v>1.5</v>
+      </c>
+      <c r="AL282">
+        <v>1.25</v>
+      </c>
+      <c r="AM282">
+        <v>1.45</v>
+      </c>
+      <c r="AN282">
+        <v>1.4</v>
+      </c>
+      <c r="AO282">
+        <v>1.73</v>
+      </c>
+      <c r="AP282">
+        <v>1.38</v>
+      </c>
+      <c r="AQ282">
+        <v>1.69</v>
+      </c>
+      <c r="AR282">
+        <v>1.5</v>
+      </c>
+      <c r="AS282">
+        <v>1.29</v>
+      </c>
+      <c r="AT282">
+        <v>2.79</v>
+      </c>
+      <c r="AU282">
+        <v>8</v>
+      </c>
+      <c r="AV282">
+        <v>7</v>
+      </c>
+      <c r="AW282">
+        <v>10</v>
+      </c>
+      <c r="AX282">
+        <v>7</v>
+      </c>
+      <c r="AY282">
+        <v>22</v>
+      </c>
+      <c r="AZ282">
+        <v>16</v>
+      </c>
+      <c r="BA282">
+        <v>5</v>
+      </c>
+      <c r="BB282">
+        <v>5</v>
+      </c>
+      <c r="BC282">
+        <v>10</v>
+      </c>
+      <c r="BD282">
+        <v>1.97</v>
+      </c>
+      <c r="BE282">
+        <v>6.55</v>
+      </c>
+      <c r="BF282">
+        <v>2.34</v>
+      </c>
+      <c r="BG282">
+        <v>1.24</v>
+      </c>
+      <c r="BH282">
+        <v>3.34</v>
+      </c>
+      <c r="BI282">
+        <v>1.47</v>
+      </c>
+      <c r="BJ282">
+        <v>2.42</v>
+      </c>
+      <c r="BK282">
+        <v>1.85</v>
+      </c>
+      <c r="BL282">
+        <v>1.85</v>
+      </c>
+      <c r="BM282">
+        <v>2.34</v>
+      </c>
+      <c r="BN282">
+        <v>1.5</v>
+      </c>
+      <c r="BO282">
+        <v>3.08</v>
+      </c>
+      <c r="BP282">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7492099</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45780.4375</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>70</v>
+      </c>
+      <c r="H283" t="s">
+        <v>72</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>4</v>
+      </c>
+      <c r="M283">
+        <v>4</v>
+      </c>
+      <c r="N283">
+        <v>8</v>
+      </c>
+      <c r="O283" t="s">
+        <v>274</v>
+      </c>
+      <c r="P283" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q283">
+        <v>2.5</v>
+      </c>
+      <c r="R283">
+        <v>2.5</v>
+      </c>
+      <c r="S283">
+        <v>3.5</v>
+      </c>
+      <c r="T283">
+        <v>1.22</v>
+      </c>
+      <c r="U283">
+        <v>4</v>
+      </c>
+      <c r="V283">
+        <v>2.1</v>
+      </c>
+      <c r="W283">
+        <v>1.67</v>
+      </c>
+      <c r="X283">
+        <v>4.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.18</v>
+      </c>
+      <c r="Z283">
+        <v>2.01</v>
+      </c>
+      <c r="AA283">
+        <v>4.1</v>
+      </c>
+      <c r="AB283">
+        <v>3.45</v>
+      </c>
+      <c r="AC283">
+        <v>1.01</v>
+      </c>
+      <c r="AD283">
+        <v>15</v>
+      </c>
+      <c r="AE283">
+        <v>1.14</v>
+      </c>
+      <c r="AF283">
+        <v>5.5</v>
+      </c>
+      <c r="AG283">
+        <v>1.45</v>
+      </c>
+      <c r="AH283">
+        <v>2.63</v>
+      </c>
+      <c r="AI283">
+        <v>1.44</v>
+      </c>
+      <c r="AJ283">
+        <v>2.63</v>
+      </c>
+      <c r="AK283">
+        <v>1.36</v>
+      </c>
+      <c r="AL283">
+        <v>1.2</v>
+      </c>
+      <c r="AM283">
+        <v>1.73</v>
+      </c>
+      <c r="AN283">
+        <v>1.53</v>
+      </c>
+      <c r="AO283">
+        <v>0.87</v>
+      </c>
+      <c r="AP283">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283">
+        <v>0.88</v>
+      </c>
+      <c r="AR283">
+        <v>1.44</v>
+      </c>
+      <c r="AS283">
+        <v>1.27</v>
+      </c>
+      <c r="AT283">
+        <v>2.71</v>
+      </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
+      <c r="AV283">
+        <v>9</v>
+      </c>
+      <c r="AW283">
+        <v>5</v>
+      </c>
+      <c r="AX283">
+        <v>18</v>
+      </c>
+      <c r="AY283">
+        <v>14</v>
+      </c>
+      <c r="AZ283">
+        <v>33</v>
+      </c>
+      <c r="BA283">
+        <v>4</v>
+      </c>
+      <c r="BB283">
+        <v>7</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.77</v>
+      </c>
+      <c r="BE283">
+        <v>6.8</v>
+      </c>
+      <c r="BF283">
+        <v>2.66</v>
+      </c>
+      <c r="BG283">
+        <v>1.16</v>
+      </c>
+      <c r="BH283">
+        <v>4.15</v>
+      </c>
+      <c r="BI283">
+        <v>1.33</v>
+      </c>
+      <c r="BJ283">
+        <v>2.83</v>
+      </c>
+      <c r="BK283">
+        <v>1.6</v>
+      </c>
+      <c r="BL283">
+        <v>2.14</v>
+      </c>
+      <c r="BM283">
+        <v>2.05</v>
+      </c>
+      <c r="BN283">
+        <v>1.7</v>
+      </c>
+      <c r="BO283">
+        <v>2.6</v>
+      </c>
+      <c r="BP283">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7492101</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45780.4375</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>78</v>
+      </c>
+      <c r="H284" t="s">
+        <v>80</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>96</v>
+      </c>
+      <c r="P284" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q284">
+        <v>3.2</v>
+      </c>
+      <c r="R284">
+        <v>2.25</v>
+      </c>
+      <c r="S284">
+        <v>3.1</v>
+      </c>
+      <c r="T284">
+        <v>1.33</v>
+      </c>
+      <c r="U284">
+        <v>3.25</v>
+      </c>
+      <c r="V284">
+        <v>2.63</v>
+      </c>
+      <c r="W284">
+        <v>1.44</v>
+      </c>
+      <c r="X284">
+        <v>7</v>
+      </c>
+      <c r="Y284">
+        <v>1.1</v>
+      </c>
+      <c r="Z284">
+        <v>2.98</v>
+      </c>
+      <c r="AA284">
+        <v>3.53</v>
+      </c>
+      <c r="AB284">
+        <v>2.4</v>
+      </c>
+      <c r="AC284">
+        <v>1.05</v>
+      </c>
+      <c r="AD284">
+        <v>9.5</v>
+      </c>
+      <c r="AE284">
+        <v>1.25</v>
+      </c>
+      <c r="AF284">
+        <v>3.75</v>
+      </c>
+      <c r="AG284">
+        <v>1.8</v>
+      </c>
+      <c r="AH284">
+        <v>2.02</v>
+      </c>
+      <c r="AI284">
+        <v>1.62</v>
+      </c>
+      <c r="AJ284">
+        <v>2.2</v>
+      </c>
+      <c r="AK284">
+        <v>1.53</v>
+      </c>
+      <c r="AL284">
+        <v>1.25</v>
+      </c>
+      <c r="AM284">
+        <v>1.44</v>
+      </c>
+      <c r="AN284">
+        <v>0.93</v>
+      </c>
+      <c r="AO284">
+        <v>1.4</v>
+      </c>
+      <c r="AP284">
+        <v>0.88</v>
+      </c>
+      <c r="AQ284">
+        <v>1.5</v>
+      </c>
+      <c r="AR284">
+        <v>1.39</v>
+      </c>
+      <c r="AS284">
+        <v>1.29</v>
+      </c>
+      <c r="AT284">
+        <v>2.68</v>
+      </c>
+      <c r="AU284">
+        <v>2</v>
+      </c>
+      <c r="AV284">
+        <v>9</v>
+      </c>
+      <c r="AW284">
+        <v>5</v>
+      </c>
+      <c r="AX284">
+        <v>13</v>
+      </c>
+      <c r="AY284">
+        <v>9</v>
+      </c>
+      <c r="AZ284">
+        <v>26</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>8</v>
+      </c>
+      <c r="BD284">
+        <v>1.98</v>
+      </c>
+      <c r="BE284">
+        <v>6.5</v>
+      </c>
+      <c r="BF284">
+        <v>2.33</v>
+      </c>
+      <c r="BG284">
+        <v>1.25</v>
+      </c>
+      <c r="BH284">
+        <v>3.28</v>
+      </c>
+      <c r="BI284">
+        <v>1.49</v>
+      </c>
+      <c r="BJ284">
+        <v>2.38</v>
+      </c>
+      <c r="BK284">
+        <v>1.85</v>
+      </c>
+      <c r="BL284">
+        <v>1.85</v>
+      </c>
+      <c r="BM284">
+        <v>2.4</v>
+      </c>
+      <c r="BN284">
+        <v>1.48</v>
+      </c>
+      <c r="BO284">
+        <v>3.2</v>
+      </c>
+      <c r="BP284">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7492093</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45780.4375</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>71</v>
+      </c>
+      <c r="H285" t="s">
+        <v>87</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>3</v>
+      </c>
+      <c r="M285">
+        <v>3</v>
+      </c>
+      <c r="N285">
+        <v>6</v>
+      </c>
+      <c r="O285" t="s">
+        <v>275</v>
+      </c>
+      <c r="P285" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q285">
+        <v>4.33</v>
+      </c>
+      <c r="R285">
+        <v>2.75</v>
+      </c>
+      <c r="S285">
+        <v>2.1</v>
+      </c>
+      <c r="T285">
+        <v>1.18</v>
+      </c>
+      <c r="U285">
+        <v>4.5</v>
+      </c>
+      <c r="V285">
+        <v>1.91</v>
+      </c>
+      <c r="W285">
+        <v>1.8</v>
+      </c>
+      <c r="X285">
+        <v>4</v>
+      </c>
+      <c r="Y285">
+        <v>1.22</v>
+      </c>
+      <c r="Z285">
+        <v>4.5</v>
+      </c>
+      <c r="AA285">
+        <v>4.7</v>
+      </c>
+      <c r="AB285">
+        <v>1.66</v>
+      </c>
+      <c r="AC285">
+        <v>1.01</v>
+      </c>
+      <c r="AD285">
+        <v>26</v>
+      </c>
+      <c r="AE285">
+        <v>1.1</v>
+      </c>
+      <c r="AF285">
+        <v>6.5</v>
+      </c>
+      <c r="AG285">
+        <v>1.33</v>
+      </c>
+      <c r="AH285">
+        <v>3.15</v>
+      </c>
+      <c r="AI285">
+        <v>1.4</v>
+      </c>
+      <c r="AJ285">
+        <v>2.75</v>
+      </c>
+      <c r="AK285">
+        <v>2.2</v>
+      </c>
+      <c r="AL285">
+        <v>1.15</v>
+      </c>
+      <c r="AM285">
+        <v>1.2</v>
+      </c>
+      <c r="AN285">
+        <v>1.93</v>
+      </c>
+      <c r="AO285">
+        <v>2.27</v>
+      </c>
+      <c r="AP285">
+        <v>1.88</v>
+      </c>
+      <c r="AQ285">
+        <v>2.19</v>
+      </c>
+      <c r="AR285">
+        <v>1.55</v>
+      </c>
+      <c r="AS285">
+        <v>1.9</v>
+      </c>
+      <c r="AT285">
+        <v>3.45</v>
+      </c>
+      <c r="AU285">
+        <v>7</v>
+      </c>
+      <c r="AV285">
+        <v>7</v>
+      </c>
+      <c r="AW285">
+        <v>2</v>
+      </c>
+      <c r="AX285">
+        <v>15</v>
+      </c>
+      <c r="AY285">
+        <v>9</v>
+      </c>
+      <c r="AZ285">
+        <v>27</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>7</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>3.84</v>
+      </c>
+      <c r="BE285">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF285">
+        <v>1.38</v>
+      </c>
+      <c r="BG285">
+        <v>1.2</v>
+      </c>
+      <c r="BH285">
+        <v>3.72</v>
+      </c>
+      <c r="BI285">
+        <v>1.41</v>
+      </c>
+      <c r="BJ285">
+        <v>2.6</v>
+      </c>
+      <c r="BK285">
+        <v>1.7</v>
+      </c>
+      <c r="BL285">
+        <v>2.05</v>
+      </c>
+      <c r="BM285">
+        <v>2.17</v>
+      </c>
+      <c r="BN285">
+        <v>1.58</v>
+      </c>
+      <c r="BO285">
+        <v>2.83</v>
+      </c>
+      <c r="BP285">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7492094</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>76</v>
+      </c>
+      <c r="H286" t="s">
+        <v>77</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>276</v>
+      </c>
+      <c r="P286" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q286">
+        <v>1.73</v>
+      </c>
+      <c r="R286">
+        <v>3</v>
+      </c>
+      <c r="S286">
+        <v>6.5</v>
+      </c>
+      <c r="T286">
+        <v>1.18</v>
+      </c>
+      <c r="U286">
+        <v>4.5</v>
+      </c>
+      <c r="V286">
+        <v>1.83</v>
+      </c>
+      <c r="W286">
+        <v>1.83</v>
+      </c>
+      <c r="X286">
+        <v>3.75</v>
+      </c>
+      <c r="Y286">
+        <v>1.25</v>
+      </c>
+      <c r="Z286">
+        <v>1.39</v>
+      </c>
+      <c r="AA286">
+        <v>5.8</v>
+      </c>
+      <c r="AB286">
+        <v>7</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>26</v>
+      </c>
+      <c r="AE286">
+        <v>1.09</v>
+      </c>
+      <c r="AF286">
+        <v>7</v>
+      </c>
+      <c r="AG286">
+        <v>1.31</v>
+      </c>
+      <c r="AH286">
+        <v>3.27</v>
+      </c>
+      <c r="AI286">
+        <v>1.57</v>
+      </c>
+      <c r="AJ286">
+        <v>2.25</v>
+      </c>
+      <c r="AK286">
+        <v>1.08</v>
+      </c>
+      <c r="AL286">
+        <v>1.1</v>
+      </c>
+      <c r="AM286">
+        <v>3.25</v>
+      </c>
+      <c r="AN286">
+        <v>2</v>
+      </c>
+      <c r="AO286">
+        <v>1.6</v>
+      </c>
+      <c r="AP286">
+        <v>2.06</v>
+      </c>
+      <c r="AQ286">
+        <v>1.5</v>
+      </c>
+      <c r="AR286">
+        <v>1.69</v>
+      </c>
+      <c r="AS286">
+        <v>1.31</v>
+      </c>
+      <c r="AT286">
+        <v>3</v>
+      </c>
+      <c r="AU286">
+        <v>6</v>
+      </c>
+      <c r="AV286">
+        <v>3</v>
+      </c>
+      <c r="AW286">
+        <v>6</v>
+      </c>
+      <c r="AX286">
+        <v>9</v>
+      </c>
+      <c r="AY286">
+        <v>15</v>
+      </c>
+      <c r="AZ286">
+        <v>13</v>
+      </c>
+      <c r="BA286">
+        <v>4</v>
+      </c>
+      <c r="BB286">
+        <v>3</v>
+      </c>
+      <c r="BC286">
+        <v>7</v>
+      </c>
+      <c r="BD286">
+        <v>1.25</v>
+      </c>
+      <c r="BE286">
+        <v>11</v>
+      </c>
+      <c r="BF286">
+        <v>5.1</v>
+      </c>
+      <c r="BG286">
+        <v>1.17</v>
+      </c>
+      <c r="BH286">
+        <v>3.95</v>
+      </c>
+      <c r="BI286">
+        <v>1.35</v>
+      </c>
+      <c r="BJ286">
+        <v>2.74</v>
+      </c>
+      <c r="BK286">
+        <v>1.77</v>
+      </c>
+      <c r="BL286">
+        <v>1.95</v>
+      </c>
+      <c r="BM286">
+        <v>2.09</v>
+      </c>
+      <c r="BN286">
+        <v>1.66</v>
+      </c>
+      <c r="BO286">
+        <v>2.71</v>
+      </c>
+      <c r="BP286">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,12 @@
     <t>['3', '59', '69', '73']</t>
   </si>
   <si>
+    <t>['44', '48']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -971,9 +977,6 @@
   </si>
   <si>
     <t>['45+5', '51', '67', '72']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1295,6 +1298,12 @@
   </si>
   <si>
     <t>['62', '63', '83']</t>
+  </si>
+  <si>
+    <t>['25', '40', '51']</t>
+  </si>
+  <si>
+    <t>['82', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1924,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1996,7 +2005,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2327,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2408,7 +2417,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ4">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2533,7 +2542,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2611,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2739,7 +2748,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2817,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6">
         <v>1.69</v>
@@ -3023,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -3232,7 +3241,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3357,7 +3366,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3563,7 +3572,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3975,7 +3984,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4181,7 +4190,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4387,7 +4396,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4593,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -5005,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5623,7 +5632,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -6035,7 +6044,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6116,7 +6125,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -6319,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>0.44</v>
@@ -6447,7 +6456,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6528,7 +6537,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ24">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -6653,7 +6662,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6859,7 +6868,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -7143,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -7271,7 +7280,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7349,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.69</v>
@@ -7477,7 +7486,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7555,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
         <v>1.44</v>
@@ -7683,7 +7692,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7889,7 +7898,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8095,7 +8104,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8301,7 +8310,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8382,7 +8391,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -8713,7 +8722,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9331,7 +9340,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9743,7 +9752,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9821,7 +9830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>0.9399999999999999</v>
@@ -9949,7 +9958,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10155,7 +10164,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10233,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10567,7 +10576,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10648,7 +10657,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ44">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10773,7 +10782,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10854,7 +10863,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10979,7 +10988,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11263,7 +11272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>1.31</v>
@@ -11391,7 +11400,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11472,7 +11481,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ48">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -11803,7 +11812,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12009,7 +12018,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12215,7 +12224,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12627,7 +12636,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12833,7 +12842,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -13245,7 +13254,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13326,7 +13335,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ57">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13657,7 +13666,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13735,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13863,7 +13872,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13941,7 +13950,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -14069,7 +14078,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14481,7 +14490,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14687,7 +14696,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14893,7 +14902,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14971,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>1.31</v>
@@ -15099,7 +15108,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15177,7 +15186,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
         <v>1.13</v>
@@ -15511,7 +15520,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15798,7 +15807,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69">
         <v>2.2</v>
@@ -15923,7 +15932,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16004,7 +16013,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -16129,7 +16138,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16416,7 +16425,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -17159,7 +17168,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17365,7 +17374,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -18267,7 +18276,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18807,7 +18816,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19094,7 +19103,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR85">
         <v>0.97</v>
@@ -19219,7 +19228,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19297,7 +19306,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -19425,7 +19434,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19506,7 +19515,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ87">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19915,7 +19924,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -20043,7 +20052,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20124,7 +20133,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>2.13</v>
@@ -20249,7 +20258,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20661,7 +20670,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -21279,7 +21288,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21897,7 +21906,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22309,7 +22318,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22390,7 +22399,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.26</v>
@@ -22515,7 +22524,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22596,7 +22605,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR102">
         <v>1.35</v>
@@ -22721,7 +22730,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22799,7 +22808,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>1.31</v>
@@ -23005,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104">
         <v>0.44</v>
@@ -23133,7 +23142,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23339,7 +23348,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23829,7 +23838,7 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -23957,7 +23966,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24038,7 +24047,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24163,7 +24172,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24369,7 +24378,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24781,7 +24790,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24987,7 +24996,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25399,7 +25408,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25605,7 +25614,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26017,7 +26026,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26095,7 +26104,7 @@
         <v>2.17</v>
       </c>
       <c r="AP119">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
         <v>1.5</v>
@@ -26223,7 +26232,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26429,7 +26438,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26507,7 +26516,7 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
         <v>2.19</v>
@@ -26635,7 +26644,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26713,10 +26722,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26922,7 +26931,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -27047,7 +27056,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27253,7 +27262,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27459,7 +27468,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27665,7 +27674,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27746,7 +27755,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.42</v>
@@ -27871,7 +27880,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28077,7 +28086,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28489,7 +28498,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28695,7 +28704,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28901,7 +28910,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29519,7 +29528,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29725,7 +29734,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29806,7 +29815,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ137">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -30343,7 +30352,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30421,10 +30430,10 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ140">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30627,7 +30636,7 @@
         <v>0.13</v>
       </c>
       <c r="AP141">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
         <v>0.44</v>
@@ -30755,7 +30764,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30836,7 +30845,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ142">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.26</v>
@@ -31167,7 +31176,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31373,7 +31382,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31451,7 +31460,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>1.5</v>
@@ -31579,7 +31588,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32609,7 +32618,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -33021,7 +33030,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33227,7 +33236,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33639,7 +33648,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33845,7 +33854,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34051,7 +34060,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34463,7 +34472,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34669,7 +34678,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34875,7 +34884,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35081,7 +35090,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35287,7 +35296,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35368,7 +35377,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ164">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164">
         <v>1.34</v>
@@ -35571,7 +35580,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ165">
         <v>1.5</v>
@@ -35777,7 +35786,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ166">
         <v>0.9399999999999999</v>
@@ -35905,7 +35914,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -35983,7 +35992,7 @@
         <v>2.22</v>
       </c>
       <c r="AP167">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ167">
         <v>2.19</v>
@@ -36111,7 +36120,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36317,7 +36326,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36398,7 +36407,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR169">
         <v>1.49</v>
@@ -36729,7 +36738,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36810,7 +36819,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ171">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR171">
         <v>1.74</v>
@@ -37347,7 +37356,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37553,7 +37562,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37634,7 +37643,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ175">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR175">
         <v>2.37</v>
@@ -37759,7 +37768,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38583,7 +38592,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38789,7 +38798,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39282,7 +39291,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ183">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR183">
         <v>1.45</v>
@@ -39407,7 +39416,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39613,7 +39622,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39897,7 +39906,7 @@
         <v>0.7</v>
       </c>
       <c r="AP186">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -40103,7 +40112,7 @@
         <v>0.9</v>
       </c>
       <c r="AP187">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ187">
         <v>1.25</v>
@@ -40231,7 +40240,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40312,7 +40321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR188">
         <v>1.5</v>
@@ -40437,7 +40446,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40927,7 +40936,7 @@
         <v>1.36</v>
       </c>
       <c r="AP191">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -41055,7 +41064,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41261,7 +41270,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -42085,7 +42094,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42372,7 +42381,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR198">
         <v>1.84</v>
@@ -42497,7 +42506,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42781,7 +42790,7 @@
         <v>1.55</v>
       </c>
       <c r="AP200">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
         <v>1.69</v>
@@ -42909,7 +42918,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -42990,7 +42999,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ201">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43115,7 +43124,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43399,7 +43408,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ203">
         <v>1.06</v>
@@ -43939,7 +43948,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44226,7 +44235,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ207">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR207">
         <v>2.52</v>
@@ -44351,7 +44360,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44557,7 +44566,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44763,7 +44772,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44969,7 +44978,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45381,7 +45390,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45587,7 +45596,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45793,7 +45802,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -45874,7 +45883,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ215">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR215">
         <v>1.89</v>
@@ -45999,7 +46008,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46080,7 +46089,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR216">
         <v>1.5</v>
@@ -46283,7 +46292,7 @@
         <v>1.17</v>
       </c>
       <c r="AP217">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ217">
         <v>1.38</v>
@@ -46411,7 +46420,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46617,7 +46626,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46823,7 +46832,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47029,7 +47038,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47441,7 +47450,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47725,7 +47734,7 @@
         <v>1.33</v>
       </c>
       <c r="AP224">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ224">
         <v>1.25</v>
@@ -47853,7 +47862,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48059,7 +48068,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48471,7 +48480,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48549,7 +48558,7 @@
         <v>1.15</v>
       </c>
       <c r="AP228">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ228">
         <v>1.38</v>
@@ -48755,7 +48764,7 @@
         <v>1.92</v>
       </c>
       <c r="AP229">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ229">
         <v>1.5</v>
@@ -49089,7 +49098,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49501,7 +49510,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49582,7 +49591,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ233">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR233">
         <v>1.41</v>
@@ -49707,7 +49716,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49788,7 +49797,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ234">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR234">
         <v>1.43</v>
@@ -49913,7 +49922,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -49994,7 +50003,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ235">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR235">
         <v>1.83</v>
@@ -50325,7 +50334,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50737,7 +50746,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51149,7 +51158,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51561,7 +51570,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51639,7 +51648,7 @@
         <v>0.85</v>
       </c>
       <c r="AP243">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -51973,7 +51982,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52051,7 +52060,7 @@
         <v>2.15</v>
       </c>
       <c r="AP245">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ245">
         <v>2.19</v>
@@ -52179,7 +52188,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52385,7 +52394,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52466,7 +52475,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ247">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR247">
         <v>1.46</v>
@@ -52591,7 +52600,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52669,7 +52678,7 @@
         <v>0.85</v>
       </c>
       <c r="AP248">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ248">
         <v>1.13</v>
@@ -52875,10 +52884,10 @@
         <v>0.46</v>
       </c>
       <c r="AP249">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ249">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR249">
         <v>1.43</v>
@@ -53003,7 +53012,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53290,7 +53299,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ251">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR251">
         <v>1.51</v>
@@ -53415,7 +53424,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53827,7 +53836,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54033,7 +54042,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54651,7 +54660,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54857,7 +54866,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55063,7 +55072,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55269,7 +55278,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55681,7 +55690,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55759,7 +55768,7 @@
         <v>0.93</v>
       </c>
       <c r="AP263">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ263">
         <v>0.88</v>
@@ -56093,7 +56102,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56171,7 +56180,7 @@
         <v>1.64</v>
       </c>
       <c r="AP265">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ265">
         <v>1.5</v>
@@ -56299,7 +56308,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56380,7 +56389,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ266">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56505,7 +56514,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56711,7 +56720,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56995,10 +57004,10 @@
         <v>1.5</v>
       </c>
       <c r="AP269">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ269">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR269">
         <v>1.48</v>
@@ -57123,7 +57132,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57329,7 +57338,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57410,7 +57419,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ271">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR271">
         <v>1.39</v>
@@ -58153,7 +58162,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58565,7 +58574,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -59595,7 +59604,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59801,7 +59810,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60213,7 +60222,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60312,16 +60321,16 @@
         <v>7</v>
       </c>
       <c r="AW285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX285">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AY285">
         <v>9</v>
       </c>
       <c r="AZ285">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BA285">
         <v>2</v>
@@ -60576,6 +60585,624 @@
       </c>
       <c r="BP286">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7492097</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45781.4375</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>74</v>
+      </c>
+      <c r="H287" t="s">
+        <v>81</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287" t="s">
+        <v>234</v>
+      </c>
+      <c r="P287" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q287">
+        <v>2.4</v>
+      </c>
+      <c r="R287">
+        <v>2.25</v>
+      </c>
+      <c r="S287">
+        <v>4.5</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>2.63</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>7</v>
+      </c>
+      <c r="Y287">
+        <v>1.1</v>
+      </c>
+      <c r="Z287">
+        <v>1.85</v>
+      </c>
+      <c r="AA287">
+        <v>3.78</v>
+      </c>
+      <c r="AB287">
+        <v>4.33</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>3.7</v>
+      </c>
+      <c r="AG287">
+        <v>1.85</v>
+      </c>
+      <c r="AH287">
+        <v>1.9</v>
+      </c>
+      <c r="AI287">
+        <v>1.8</v>
+      </c>
+      <c r="AJ287">
+        <v>1.95</v>
+      </c>
+      <c r="AK287">
+        <v>1.22</v>
+      </c>
+      <c r="AL287">
+        <v>1.22</v>
+      </c>
+      <c r="AM287">
+        <v>1.91</v>
+      </c>
+      <c r="AN287">
+        <v>1.53</v>
+      </c>
+      <c r="AO287">
+        <v>0.53</v>
+      </c>
+      <c r="AP287">
+        <v>1.44</v>
+      </c>
+      <c r="AQ287">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR287">
+        <v>1.47</v>
+      </c>
+      <c r="AS287">
+        <v>1.23</v>
+      </c>
+      <c r="AT287">
+        <v>2.7</v>
+      </c>
+      <c r="AU287">
+        <v>11</v>
+      </c>
+      <c r="AV287">
+        <v>6</v>
+      </c>
+      <c r="AW287">
+        <v>17</v>
+      </c>
+      <c r="AX287">
+        <v>2</v>
+      </c>
+      <c r="AY287">
+        <v>33</v>
+      </c>
+      <c r="AZ287">
+        <v>10</v>
+      </c>
+      <c r="BA287">
+        <v>11</v>
+      </c>
+      <c r="BB287">
+        <v>0</v>
+      </c>
+      <c r="BC287">
+        <v>11</v>
+      </c>
+      <c r="BD287">
+        <v>1.5</v>
+      </c>
+      <c r="BE287">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF287">
+        <v>3.2</v>
+      </c>
+      <c r="BG287">
+        <v>1.19</v>
+      </c>
+      <c r="BH287">
+        <v>3.82</v>
+      </c>
+      <c r="BI287">
+        <v>1.39</v>
+      </c>
+      <c r="BJ287">
+        <v>2.67</v>
+      </c>
+      <c r="BK287">
+        <v>1.7</v>
+      </c>
+      <c r="BL287">
+        <v>2.05</v>
+      </c>
+      <c r="BM287">
+        <v>2.12</v>
+      </c>
+      <c r="BN287">
+        <v>1.61</v>
+      </c>
+      <c r="BO287">
+        <v>2.78</v>
+      </c>
+      <c r="BP287">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7492096</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45781.52083333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>73</v>
+      </c>
+      <c r="H288" t="s">
+        <v>85</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288" t="s">
+        <v>277</v>
+      </c>
+      <c r="P288" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q288">
+        <v>3.5</v>
+      </c>
+      <c r="R288">
+        <v>2.3</v>
+      </c>
+      <c r="S288">
+        <v>2.75</v>
+      </c>
+      <c r="T288">
+        <v>1.33</v>
+      </c>
+      <c r="U288">
+        <v>3.25</v>
+      </c>
+      <c r="V288">
+        <v>2.5</v>
+      </c>
+      <c r="W288">
+        <v>1.5</v>
+      </c>
+      <c r="X288">
+        <v>6.5</v>
+      </c>
+      <c r="Y288">
+        <v>1.11</v>
+      </c>
+      <c r="Z288">
+        <v>3.25</v>
+      </c>
+      <c r="AA288">
+        <v>3.5</v>
+      </c>
+      <c r="AB288">
+        <v>2.26</v>
+      </c>
+      <c r="AC288">
+        <v>1.05</v>
+      </c>
+      <c r="AD288">
+        <v>9.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.25</v>
+      </c>
+      <c r="AF288">
+        <v>3.95</v>
+      </c>
+      <c r="AG288">
+        <v>1.7</v>
+      </c>
+      <c r="AH288">
+        <v>2.05</v>
+      </c>
+      <c r="AI288">
+        <v>1.62</v>
+      </c>
+      <c r="AJ288">
+        <v>2.2</v>
+      </c>
+      <c r="AK288">
+        <v>1.65</v>
+      </c>
+      <c r="AL288">
+        <v>1.25</v>
+      </c>
+      <c r="AM288">
+        <v>1.36</v>
+      </c>
+      <c r="AN288">
+        <v>1.93</v>
+      </c>
+      <c r="AO288">
+        <v>2.2</v>
+      </c>
+      <c r="AP288">
+        <v>1.88</v>
+      </c>
+      <c r="AQ288">
+        <v>2.13</v>
+      </c>
+      <c r="AR288">
+        <v>1.45</v>
+      </c>
+      <c r="AS288">
+        <v>1.57</v>
+      </c>
+      <c r="AT288">
+        <v>3.02</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>4</v>
+      </c>
+      <c r="AX288">
+        <v>3</v>
+      </c>
+      <c r="AY288">
+        <v>10</v>
+      </c>
+      <c r="AZ288">
+        <v>8</v>
+      </c>
+      <c r="BA288">
+        <v>4</v>
+      </c>
+      <c r="BB288">
+        <v>1</v>
+      </c>
+      <c r="BC288">
+        <v>5</v>
+      </c>
+      <c r="BD288">
+        <v>2.6</v>
+      </c>
+      <c r="BE288">
+        <v>8.5</v>
+      </c>
+      <c r="BF288">
+        <v>1.71</v>
+      </c>
+      <c r="BG288">
+        <v>1.31</v>
+      </c>
+      <c r="BH288">
+        <v>2.92</v>
+      </c>
+      <c r="BI288">
+        <v>1.59</v>
+      </c>
+      <c r="BJ288">
+        <v>2.16</v>
+      </c>
+      <c r="BK288">
+        <v>2.05</v>
+      </c>
+      <c r="BL288">
+        <v>1.7</v>
+      </c>
+      <c r="BM288">
+        <v>2.67</v>
+      </c>
+      <c r="BN288">
+        <v>1.39</v>
+      </c>
+      <c r="BO288">
+        <v>3.58</v>
+      </c>
+      <c r="BP288">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7492098</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45781.60416666666</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>75</v>
+      </c>
+      <c r="H289" t="s">
+        <v>82</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>278</v>
+      </c>
+      <c r="P289" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q289">
+        <v>2.88</v>
+      </c>
+      <c r="R289">
+        <v>2.38</v>
+      </c>
+      <c r="S289">
+        <v>3.25</v>
+      </c>
+      <c r="T289">
+        <v>1.29</v>
+      </c>
+      <c r="U289">
+        <v>3.5</v>
+      </c>
+      <c r="V289">
+        <v>2.25</v>
+      </c>
+      <c r="W289">
+        <v>1.57</v>
+      </c>
+      <c r="X289">
+        <v>5.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.14</v>
+      </c>
+      <c r="Z289">
+        <v>2.41</v>
+      </c>
+      <c r="AA289">
+        <v>3.75</v>
+      </c>
+      <c r="AB289">
+        <v>2.83</v>
+      </c>
+      <c r="AC289">
+        <v>1.04</v>
+      </c>
+      <c r="AD289">
+        <v>10</v>
+      </c>
+      <c r="AE289">
+        <v>1.2</v>
+      </c>
+      <c r="AF289">
+        <v>4.33</v>
+      </c>
+      <c r="AG289">
+        <v>1.6</v>
+      </c>
+      <c r="AH289">
+        <v>2.2</v>
+      </c>
+      <c r="AI289">
+        <v>1.5</v>
+      </c>
+      <c r="AJ289">
+        <v>2.5</v>
+      </c>
+      <c r="AK289">
+        <v>1.42</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>1.57</v>
+      </c>
+      <c r="AN289">
+        <v>1.6</v>
+      </c>
+      <c r="AO289">
+        <v>1.47</v>
+      </c>
+      <c r="AP289">
+        <v>1.56</v>
+      </c>
+      <c r="AQ289">
+        <v>1.44</v>
+      </c>
+      <c r="AR289">
+        <v>1.49</v>
+      </c>
+      <c r="AS289">
+        <v>1.45</v>
+      </c>
+      <c r="AT289">
+        <v>2.94</v>
+      </c>
+      <c r="AU289">
+        <v>4</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>9</v>
+      </c>
+      <c r="AX289">
+        <v>6</v>
+      </c>
+      <c r="AY289">
+        <v>17</v>
+      </c>
+      <c r="AZ289">
+        <v>10</v>
+      </c>
+      <c r="BA289">
+        <v>8</v>
+      </c>
+      <c r="BB289">
+        <v>1</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>1.72</v>
+      </c>
+      <c r="BE289">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF289">
+        <v>2.56</v>
+      </c>
+      <c r="BG289">
+        <v>1.23</v>
+      </c>
+      <c r="BH289">
+        <v>3.42</v>
+      </c>
+      <c r="BI289">
+        <v>1.45</v>
+      </c>
+      <c r="BJ289">
+        <v>2.48</v>
+      </c>
+      <c r="BK289">
+        <v>1.85</v>
+      </c>
+      <c r="BL289">
+        <v>1.85</v>
+      </c>
+      <c r="BM289">
+        <v>2.3</v>
+      </c>
+      <c r="BN289">
+        <v>1.52</v>
+      </c>
+      <c r="BO289">
+        <v>3.05</v>
+      </c>
+      <c r="BP289">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -60745,13 +60745,13 @@
         <v>10</v>
       </c>
       <c r="BA287">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB287">
         <v>0</v>
       </c>
       <c r="BC287">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD287">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="432">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,9 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['1', '81']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1305,6 +1308,9 @@
   <si>
     <t>['82', '90+3']</t>
   </si>
+  <si>
+    <t>['34', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1665,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +1930,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2336,7 +2342,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2542,7 +2548,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2748,7 +2754,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -3366,7 +3372,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3572,7 +3578,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3984,7 +3990,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4190,7 +4196,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4396,7 +4402,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4602,7 +4608,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -5014,7 +5020,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5632,7 +5638,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -6044,7 +6050,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6456,7 +6462,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6662,7 +6668,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6868,7 +6874,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -7280,7 +7286,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7486,7 +7492,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7692,7 +7698,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7898,7 +7904,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8104,7 +8110,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8310,7 +8316,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8722,7 +8728,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9340,7 +9346,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9752,7 +9758,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9958,7 +9964,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10164,7 +10170,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10576,7 +10582,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10782,7 +10788,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10988,7 +10994,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11400,7 +11406,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11812,7 +11818,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12018,7 +12024,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12224,7 +12230,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12636,7 +12642,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12842,7 +12848,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -13254,7 +13260,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13666,7 +13672,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13872,7 +13878,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14078,7 +14084,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14490,7 +14496,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14696,7 +14702,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -15108,7 +15114,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15520,7 +15526,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15932,7 +15938,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16138,7 +16144,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -17168,7 +17174,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17374,7 +17380,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -18816,7 +18822,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19228,7 +19234,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19434,7 +19440,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -20052,7 +20058,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20258,7 +20264,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20670,7 +20676,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -21288,7 +21294,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21906,7 +21912,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22318,7 +22324,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22524,7 +22530,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22730,7 +22736,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -23142,7 +23148,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23348,7 +23354,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23966,7 +23972,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24172,7 +24178,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24378,7 +24384,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24790,7 +24796,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24996,7 +25002,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25408,7 +25414,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25614,7 +25620,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26026,7 +26032,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26232,7 +26238,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26438,7 +26444,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26644,7 +26650,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -27056,7 +27062,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27262,7 +27268,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27468,7 +27474,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27674,7 +27680,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27880,7 +27886,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28086,7 +28092,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28498,7 +28504,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28704,7 +28710,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28910,7 +28916,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29528,7 +29534,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29734,7 +29740,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -30352,7 +30358,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30764,7 +30770,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31176,7 +31182,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31382,7 +31388,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31588,7 +31594,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32618,7 +32624,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -33030,7 +33036,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33236,7 +33242,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33648,7 +33654,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33854,7 +33860,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34060,7 +34066,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34472,7 +34478,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34678,7 +34684,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34884,7 +34890,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35090,7 +35096,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35296,7 +35302,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35914,7 +35920,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36120,7 +36126,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36326,7 +36332,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36738,7 +36744,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -37356,7 +37362,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37562,7 +37568,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37768,7 +37774,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38592,7 +38598,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38798,7 +38804,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39416,7 +39422,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39622,7 +39628,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -40240,7 +40246,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40446,7 +40452,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -41064,7 +41070,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41270,7 +41276,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -42094,7 +42100,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42506,7 +42512,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42918,7 +42924,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43124,7 +43130,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43948,7 +43954,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44360,7 +44366,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44566,7 +44572,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44772,7 +44778,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44978,7 +44984,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45390,7 +45396,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45596,7 +45602,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45802,7 +45808,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -46008,7 +46014,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46420,7 +46426,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46626,7 +46632,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46832,7 +46838,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47038,7 +47044,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47450,7 +47456,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47862,7 +47868,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48068,7 +48074,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48480,7 +48486,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -49098,7 +49104,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49510,7 +49516,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49716,7 +49722,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49922,7 +49928,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50334,7 +50340,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50746,7 +50752,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51158,7 +51164,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51570,7 +51576,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51982,7 +51988,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52188,7 +52194,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52394,7 +52400,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52600,7 +52606,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -53012,7 +53018,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53424,7 +53430,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53836,7 +53842,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54042,7 +54048,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54660,7 +54666,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54866,7 +54872,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55072,7 +55078,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55278,7 +55284,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55690,7 +55696,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56102,7 +56108,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56308,7 +56314,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56514,7 +56520,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56720,7 +56726,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -57132,7 +57138,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57338,7 +57344,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -58162,7 +58168,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58574,7 +58580,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -59604,7 +59610,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59810,7 +59816,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60222,7 +60228,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60634,7 +60640,7 @@
         <v>234</v>
       </c>
       <c r="P287" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60840,7 +60846,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q288">
         <v>3.5</v>
@@ -61046,7 +61052,7 @@
         <v>278</v>
       </c>
       <c r="P289" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q289">
         <v>2.88</v>
@@ -61203,6 +61209,212 @@
       </c>
       <c r="BP289">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7492107</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45786.64583333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>77</v>
+      </c>
+      <c r="H290" t="s">
+        <v>72</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>279</v>
+      </c>
+      <c r="P290" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q290">
+        <v>2.63</v>
+      </c>
+      <c r="R290">
+        <v>2.4</v>
+      </c>
+      <c r="S290">
+        <v>3.4</v>
+      </c>
+      <c r="T290">
+        <v>1.25</v>
+      </c>
+      <c r="U290">
+        <v>3.75</v>
+      </c>
+      <c r="V290">
+        <v>2.25</v>
+      </c>
+      <c r="W290">
+        <v>1.57</v>
+      </c>
+      <c r="X290">
+        <v>5.5</v>
+      </c>
+      <c r="Y290">
+        <v>1.14</v>
+      </c>
+      <c r="Z290">
+        <v>1.93</v>
+      </c>
+      <c r="AA290">
+        <v>3.77</v>
+      </c>
+      <c r="AB290">
+        <v>3.47</v>
+      </c>
+      <c r="AC290">
+        <v>1.04</v>
+      </c>
+      <c r="AD290">
+        <v>10</v>
+      </c>
+      <c r="AE290">
+        <v>1.18</v>
+      </c>
+      <c r="AF290">
+        <v>4.75</v>
+      </c>
+      <c r="AG290">
+        <v>1.55</v>
+      </c>
+      <c r="AH290">
+        <v>2.3</v>
+      </c>
+      <c r="AI290">
+        <v>1.5</v>
+      </c>
+      <c r="AJ290">
+        <v>2.5</v>
+      </c>
+      <c r="AK290">
+        <v>1.35</v>
+      </c>
+      <c r="AL290">
+        <v>1.27</v>
+      </c>
+      <c r="AM290">
+        <v>1.68</v>
+      </c>
+      <c r="AN290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO290">
+        <v>0.88</v>
+      </c>
+      <c r="AP290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ290">
+        <v>0.88</v>
+      </c>
+      <c r="AR290">
+        <v>1.52</v>
+      </c>
+      <c r="AS290">
+        <v>1.36</v>
+      </c>
+      <c r="AT290">
+        <v>2.88</v>
+      </c>
+      <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>9</v>
+      </c>
+      <c r="AX290">
+        <v>10</v>
+      </c>
+      <c r="AY290">
+        <v>20</v>
+      </c>
+      <c r="AZ290">
+        <v>22</v>
+      </c>
+      <c r="BA290">
+        <v>5</v>
+      </c>
+      <c r="BB290">
+        <v>6</v>
+      </c>
+      <c r="BC290">
+        <v>11</v>
+      </c>
+      <c r="BD290">
+        <v>1.75</v>
+      </c>
+      <c r="BE290">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF290">
+        <v>2.49</v>
+      </c>
+      <c r="BG290">
+        <v>1.18</v>
+      </c>
+      <c r="BH290">
+        <v>3.84</v>
+      </c>
+      <c r="BI290">
+        <v>1.38</v>
+      </c>
+      <c r="BJ290">
+        <v>2.71</v>
+      </c>
+      <c r="BK290">
+        <v>1.69</v>
+      </c>
+      <c r="BL290">
+        <v>2.04</v>
+      </c>
+      <c r="BM290">
+        <v>2.12</v>
+      </c>
+      <c r="BN290">
+        <v>1.61</v>
+      </c>
+      <c r="BO290">
+        <v>2.74</v>
+      </c>
+      <c r="BP290">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="437">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,12 @@
     <t>['1', '81']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['31', '90']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1311,6 +1317,15 @@
   <si>
     <t>['34', '84']</t>
   </si>
+  <si>
+    <t>['45+2', '58']</t>
+  </si>
+  <si>
+    <t>['45+3', '53', '73', '90+3']</t>
+  </si>
+  <si>
+    <t>['12', '56', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1671,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1930,7 +1945,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2342,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2548,7 +2563,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2754,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -3372,7 +3387,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3578,7 +3593,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3659,7 +3674,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3862,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>1.06</v>
@@ -3990,7 +4005,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4071,7 +4086,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4196,7 +4211,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4274,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4402,7 +4417,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4608,7 +4623,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4686,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ15">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4892,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -5020,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5101,7 +5116,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5510,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5638,7 +5653,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5719,7 +5734,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ20">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -6050,7 +6065,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6462,7 +6477,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6668,7 +6683,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6874,7 +6889,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6952,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ26">
         <v>2.19</v>
@@ -7286,7 +7301,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7492,7 +7507,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7573,7 +7588,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7698,7 +7713,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7779,7 +7794,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7904,7 +7919,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7982,7 +7997,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ31">
         <v>2.19</v>
@@ -8110,7 +8125,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8188,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8316,7 +8331,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8394,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ33">
         <v>0.6899999999999999</v>
@@ -8603,7 +8618,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ34">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8728,7 +8743,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9221,7 +9236,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -9346,7 +9361,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9758,7 +9773,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9839,7 +9854,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9964,7 +9979,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10170,7 +10185,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10582,7 +10597,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10660,7 +10675,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ44">
         <v>2.13</v>
@@ -10788,7 +10803,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10866,7 +10881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10994,7 +11009,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11281,7 +11296,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR47">
         <v>2.02</v>
@@ -11406,7 +11421,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11690,10 +11705,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11818,7 +11833,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11896,7 +11911,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -12024,7 +12039,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12102,7 +12117,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -12230,7 +12245,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12311,7 +12326,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12517,7 +12532,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12642,7 +12657,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12848,7 +12863,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -13260,7 +13275,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13672,7 +13687,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13878,7 +13893,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13959,7 +13974,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR60">
         <v>1.26</v>
@@ -14084,7 +14099,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14165,7 +14180,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -14368,7 +14383,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14496,7 +14511,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14574,7 +14589,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14702,7 +14717,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14989,7 +15004,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15114,7 +15129,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15526,7 +15541,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15607,7 +15622,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ68">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15938,7 +15953,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16016,7 +16031,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70">
         <v>2.13</v>
@@ -16144,7 +16159,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16222,7 +16237,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ71">
         <v>2.19</v>
@@ -16428,7 +16443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -17046,7 +17061,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17174,7 +17189,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17380,7 +17395,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17664,10 +17679,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ78">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -18079,7 +18094,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR80">
         <v>1.88</v>
@@ -18285,7 +18300,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR81">
         <v>1.64</v>
@@ -18694,10 +18709,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18822,7 +18837,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19106,7 +19121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ85">
         <v>0.6899999999999999</v>
@@ -19234,7 +19249,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19440,7 +19455,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19518,7 +19533,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ87">
         <v>2.13</v>
@@ -19727,7 +19742,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR88">
         <v>1.44</v>
@@ -20058,7 +20073,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20264,7 +20279,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20548,7 +20563,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ92">
         <v>1.25</v>
@@ -20676,7 +20691,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20757,7 +20772,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>2.3</v>
@@ -21169,7 +21184,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -21294,7 +21309,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21375,7 +21390,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21912,7 +21927,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21990,10 +22005,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ99">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -22324,7 +22339,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22530,7 +22545,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22608,7 +22623,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>2.13</v>
@@ -22736,7 +22751,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22817,7 +22832,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -23148,7 +23163,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23354,7 +23369,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23432,7 +23447,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23972,7 +23987,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24178,7 +24193,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24384,7 +24399,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24462,10 +24477,10 @@
         <v>1.67</v>
       </c>
       <c r="AP111">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24668,7 +24683,7 @@
         <v>1.67</v>
       </c>
       <c r="AP112">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ112">
         <v>1.69</v>
@@ -24796,7 +24811,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -25002,7 +25017,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25080,10 +25095,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>2.04</v>
@@ -25414,7 +25429,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25620,7 +25635,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25701,7 +25716,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25907,7 +25922,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -26032,7 +26047,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26238,7 +26253,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26316,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120">
         <v>0.44</v>
@@ -26444,7 +26459,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26650,7 +26665,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -27062,7 +27077,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27268,7 +27283,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27474,7 +27489,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27680,7 +27695,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27886,7 +27901,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -27964,10 +27979,10 @@
         <v>1.86</v>
       </c>
       <c r="AP128">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR128">
         <v>2.15</v>
@@ -28092,7 +28107,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28170,7 +28185,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ129">
         <v>1.25</v>
@@ -28504,7 +28519,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28585,7 +28600,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR131">
         <v>1.54</v>
@@ -28710,7 +28725,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28791,7 +28806,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
         <v>1.76</v>
@@ -28916,7 +28931,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28994,7 +29009,7 @@
         <v>0.71</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -29203,7 +29218,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>2.13</v>
@@ -29406,10 +29421,10 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29534,7 +29549,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29740,7 +29755,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -30358,7 +30373,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30770,7 +30785,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31182,7 +31197,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31388,7 +31403,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31594,7 +31609,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31672,7 +31687,7 @@
         <v>0.71</v>
       </c>
       <c r="AP146">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ146">
         <v>1.13</v>
@@ -31881,7 +31896,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -32087,7 +32102,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ148">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32293,7 +32308,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ149">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR149">
         <v>2.17</v>
@@ -32496,7 +32511,7 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32624,7 +32639,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32705,7 +32720,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>1.96</v>
@@ -32908,7 +32923,7 @@
         <v>0.57</v>
       </c>
       <c r="AP152">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -33036,7 +33051,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33114,10 +33129,10 @@
         <v>0.75</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.26</v>
@@ -33242,7 +33257,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33320,7 +33335,7 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33654,7 +33669,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33732,7 +33747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ156">
         <v>0.88</v>
@@ -33860,7 +33875,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33938,10 +33953,10 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ157">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -34066,7 +34081,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34353,7 +34368,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ159">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR159">
         <v>1.95</v>
@@ -34478,7 +34493,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34556,7 +34571,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -34684,7 +34699,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34765,7 +34780,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ161">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR161">
         <v>2.2</v>
@@ -34890,7 +34905,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34968,10 +34983,10 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
         <v>1.42</v>
@@ -35096,7 +35111,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35174,7 +35189,7 @@
         <v>0.63</v>
       </c>
       <c r="AP163">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -35302,7 +35317,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35795,7 +35810,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
         <v>1.56</v>
@@ -35920,7 +35935,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36126,7 +36141,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36332,7 +36347,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36744,7 +36759,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -37234,10 +37249,10 @@
         <v>1.56</v>
       </c>
       <c r="AP173">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ173">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR173">
         <v>1.38</v>
@@ -37362,7 +37377,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37443,7 +37458,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ174">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR174">
         <v>1.91</v>
@@ -37568,7 +37583,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37646,7 +37661,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ175">
         <v>0.6899999999999999</v>
@@ -37774,7 +37789,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38058,10 +38073,10 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ177">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR177">
         <v>1.23</v>
@@ -38470,10 +38485,10 @@
         <v>1.4</v>
       </c>
       <c r="AP179">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR179">
         <v>1.41</v>
@@ -38598,7 +38613,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38804,7 +38819,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39088,7 +39103,7 @@
         <v>1.7</v>
       </c>
       <c r="AP182">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ182">
         <v>1.69</v>
@@ -39422,7 +39437,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39628,7 +39643,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39915,7 +39930,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.5</v>
@@ -40246,7 +40261,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40452,7 +40467,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40530,7 +40545,7 @@
         <v>0.1</v>
       </c>
       <c r="AP189">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ189">
         <v>0.44</v>
@@ -40945,7 +40960,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR191">
         <v>1.56</v>
@@ -41070,7 +41085,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41276,7 +41291,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41354,10 +41369,10 @@
         <v>1.1</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR193">
         <v>1.45</v>
@@ -41560,7 +41575,7 @@
         <v>0.8</v>
       </c>
       <c r="AP194">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ194">
         <v>1.13</v>
@@ -41769,7 +41784,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -42100,7 +42115,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42178,7 +42193,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ197">
         <v>0.88</v>
@@ -42512,7 +42527,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42593,7 +42608,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ199">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR199">
         <v>1.37</v>
@@ -42924,7 +42939,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43002,7 +43017,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ201">
         <v>2.13</v>
@@ -43130,7 +43145,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43954,7 +43969,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44035,7 +44050,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ206">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR206">
         <v>1.45</v>
@@ -44238,7 +44253,7 @@
         <v>1.64</v>
       </c>
       <c r="AP207">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ207">
         <v>1.44</v>
@@ -44366,7 +44381,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44572,7 +44587,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44778,7 +44793,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44856,7 +44871,7 @@
         <v>1.82</v>
       </c>
       <c r="AP210">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
         <v>1.5</v>
@@ -44984,7 +44999,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45268,7 +45283,7 @@
         <v>0.91</v>
       </c>
       <c r="AP212">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ212">
         <v>0.88</v>
@@ -45396,7 +45411,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45477,7 +45492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ213">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45602,7 +45617,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45683,7 +45698,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ214">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45808,7 +45823,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -46014,7 +46029,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46092,7 +46107,7 @@
         <v>0.27</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ216">
         <v>0.6899999999999999</v>
@@ -46301,7 +46316,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ217">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR217">
         <v>1.54</v>
@@ -46426,7 +46441,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46507,7 +46522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ218">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR218">
         <v>1.45</v>
@@ -46632,7 +46647,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46838,7 +46853,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -46916,7 +46931,7 @@
         <v>0.25</v>
       </c>
       <c r="AP220">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ220">
         <v>0.44</v>
@@ -47044,7 +47059,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47456,7 +47471,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47534,7 +47549,7 @@
         <v>1.45</v>
       </c>
       <c r="AP223">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ223">
         <v>1.5</v>
@@ -47743,7 +47758,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ224">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR224">
         <v>1.49</v>
@@ -47868,7 +47883,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48074,7 +48089,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48155,7 +48170,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ226">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR226">
         <v>1.78</v>
@@ -48486,7 +48501,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48567,7 +48582,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ228">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR228">
         <v>1.46</v>
@@ -48976,7 +48991,7 @@
         <v>2.25</v>
       </c>
       <c r="AP230">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ230">
         <v>2.19</v>
@@ -49104,7 +49119,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49182,10 +49197,10 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ231">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR231">
         <v>1.44</v>
@@ -49516,7 +49531,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49594,7 +49609,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ233">
         <v>1.44</v>
@@ -49722,7 +49737,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49928,7 +49943,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50340,7 +50355,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50418,7 +50433,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -50752,7 +50767,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -50833,7 +50848,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ239">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
         <v>1.52</v>
@@ -51039,7 +51054,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR240">
         <v>1.45</v>
@@ -51164,7 +51179,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51242,7 +51257,7 @@
         <v>1.54</v>
       </c>
       <c r="AP241">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ241">
         <v>1.69</v>
@@ -51576,7 +51591,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51863,7 +51878,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ244">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR244">
         <v>1.64</v>
@@ -51988,7 +52003,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52194,7 +52209,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52400,7 +52415,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52606,7 +52621,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -53018,7 +53033,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53096,7 +53111,7 @@
         <v>1.31</v>
       </c>
       <c r="AP250">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ250">
         <v>1.5</v>
@@ -53302,7 +53317,7 @@
         <v>1.62</v>
       </c>
       <c r="AP251">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ251">
         <v>1.44</v>
@@ -53430,7 +53445,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53511,7 +53526,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ252">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR252">
         <v>1.26</v>
@@ -53714,7 +53729,7 @@
         <v>1.77</v>
       </c>
       <c r="AP253">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ253">
         <v>1.5</v>
@@ -53842,7 +53857,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -53923,7 +53938,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ254">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR254">
         <v>1.5</v>
@@ -54048,7 +54063,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54126,7 +54141,7 @@
         <v>1.21</v>
       </c>
       <c r="AP255">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ255">
         <v>1.25</v>
@@ -54541,7 +54556,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ257">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR257">
         <v>1.77</v>
@@ -54666,7 +54681,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54747,7 +54762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ258">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR258">
         <v>1.47</v>
@@ -54872,7 +54887,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -54950,7 +54965,7 @@
         <v>0.93</v>
       </c>
       <c r="AP259">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ259">
         <v>1.06</v>
@@ -55078,7 +55093,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55156,7 +55171,7 @@
         <v>1</v>
       </c>
       <c r="AP260">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ260">
         <v>1.13</v>
@@ -55284,7 +55299,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55571,7 +55586,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ262">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR262">
         <v>1.81</v>
@@ -55696,7 +55711,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55980,7 +55995,7 @@
         <v>0.43</v>
       </c>
       <c r="AP264">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ264">
         <v>0.44</v>
@@ -56108,7 +56123,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56314,7 +56329,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56520,7 +56535,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56726,7 +56741,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56804,7 +56819,7 @@
         <v>1.43</v>
       </c>
       <c r="AP268">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ268">
         <v>1.5</v>
@@ -57138,7 +57153,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57219,7 +57234,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ270">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR270">
         <v>1.68</v>
@@ -57344,7 +57359,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57631,7 +57646,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ272">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR272">
         <v>1.78</v>
@@ -58040,10 +58055,10 @@
         <v>1.53</v>
       </c>
       <c r="AP274">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ274">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR274">
         <v>2.52</v>
@@ -58168,7 +58183,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58455,7 +58470,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ276">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR276">
         <v>1.54</v>
@@ -58580,7 +58595,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58658,10 +58673,10 @@
         <v>1.4</v>
       </c>
       <c r="AP277">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ277">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR277">
         <v>1.2</v>
@@ -58867,7 +58882,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR278">
         <v>1.83</v>
@@ -59070,7 +59085,7 @@
         <v>1</v>
       </c>
       <c r="AP279">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ279">
         <v>1</v>
@@ -59276,7 +59291,7 @@
         <v>1.07</v>
       </c>
       <c r="AP280">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ280">
         <v>1.06</v>
@@ -59610,7 +59625,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59688,7 +59703,7 @@
         <v>1.73</v>
       </c>
       <c r="AP282">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ282">
         <v>1.69</v>
@@ -59816,7 +59831,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60228,7 +60243,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60640,7 +60655,7 @@
         <v>234</v>
       </c>
       <c r="P287" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60846,7 +60861,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q288">
         <v>3.5</v>
@@ -61052,7 +61067,7 @@
         <v>278</v>
       </c>
       <c r="P289" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q289">
         <v>2.88</v>
@@ -61258,7 +61273,7 @@
         <v>279</v>
       </c>
       <c r="P290" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q290">
         <v>2.63</v>
@@ -61415,6 +61430,1036 @@
       </c>
       <c r="BP290">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7492110</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45787.4375</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H291" t="s">
+        <v>73</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>280</v>
+      </c>
+      <c r="P291" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q291">
+        <v>3.4</v>
+      </c>
+      <c r="R291">
+        <v>2.4</v>
+      </c>
+      <c r="S291">
+        <v>2.63</v>
+      </c>
+      <c r="T291">
+        <v>1.25</v>
+      </c>
+      <c r="U291">
+        <v>3.75</v>
+      </c>
+      <c r="V291">
+        <v>2.2</v>
+      </c>
+      <c r="W291">
+        <v>1.62</v>
+      </c>
+      <c r="X291">
+        <v>5</v>
+      </c>
+      <c r="Y291">
+        <v>1.17</v>
+      </c>
+      <c r="Z291">
+        <v>3.19</v>
+      </c>
+      <c r="AA291">
+        <v>3.66</v>
+      </c>
+      <c r="AB291">
+        <v>2.07</v>
+      </c>
+      <c r="AC291">
+        <v>1.04</v>
+      </c>
+      <c r="AD291">
+        <v>10</v>
+      </c>
+      <c r="AE291">
+        <v>1.18</v>
+      </c>
+      <c r="AF291">
+        <v>4.75</v>
+      </c>
+      <c r="AG291">
+        <v>1.55</v>
+      </c>
+      <c r="AH291">
+        <v>2.37</v>
+      </c>
+      <c r="AI291">
+        <v>1.5</v>
+      </c>
+      <c r="AJ291">
+        <v>2.5</v>
+      </c>
+      <c r="AK291">
+        <v>1.7</v>
+      </c>
+      <c r="AL291">
+        <v>1.27</v>
+      </c>
+      <c r="AM291">
+        <v>1.34</v>
+      </c>
+      <c r="AN291">
+        <v>0.88</v>
+      </c>
+      <c r="AO291">
+        <v>1.38</v>
+      </c>
+      <c r="AP291">
+        <v>0.82</v>
+      </c>
+      <c r="AQ291">
+        <v>1.47</v>
+      </c>
+      <c r="AR291">
+        <v>1.28</v>
+      </c>
+      <c r="AS291">
+        <v>1.33</v>
+      </c>
+      <c r="AT291">
+        <v>2.61</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>5</v>
+      </c>
+      <c r="AW291">
+        <v>12</v>
+      </c>
+      <c r="AX291">
+        <v>5</v>
+      </c>
+      <c r="AY291">
+        <v>19</v>
+      </c>
+      <c r="AZ291">
+        <v>12</v>
+      </c>
+      <c r="BA291">
+        <v>2</v>
+      </c>
+      <c r="BB291">
+        <v>5</v>
+      </c>
+      <c r="BC291">
+        <v>7</v>
+      </c>
+      <c r="BD291">
+        <v>2.56</v>
+      </c>
+      <c r="BE291">
+        <v>8.5</v>
+      </c>
+      <c r="BF291">
+        <v>1.73</v>
+      </c>
+      <c r="BG291">
+        <v>1.28</v>
+      </c>
+      <c r="BH291">
+        <v>3.05</v>
+      </c>
+      <c r="BI291">
+        <v>1.55</v>
+      </c>
+      <c r="BJ291">
+        <v>2.23</v>
+      </c>
+      <c r="BK291">
+        <v>1.96</v>
+      </c>
+      <c r="BL291">
+        <v>1.75</v>
+      </c>
+      <c r="BM291">
+        <v>2.57</v>
+      </c>
+      <c r="BN291">
+        <v>1.42</v>
+      </c>
+      <c r="BO291">
+        <v>3.48</v>
+      </c>
+      <c r="BP291">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7492109</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45787.4375</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H292" t="s">
+        <v>75</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>4</v>
+      </c>
+      <c r="N292">
+        <v>5</v>
+      </c>
+      <c r="O292" t="s">
+        <v>199</v>
+      </c>
+      <c r="P292" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q292">
+        <v>3.4</v>
+      </c>
+      <c r="R292">
+        <v>2.38</v>
+      </c>
+      <c r="S292">
+        <v>2.88</v>
+      </c>
+      <c r="T292">
+        <v>1.3</v>
+      </c>
+      <c r="U292">
+        <v>3.4</v>
+      </c>
+      <c r="V292">
+        <v>2.38</v>
+      </c>
+      <c r="W292">
+        <v>1.53</v>
+      </c>
+      <c r="X292">
+        <v>6</v>
+      </c>
+      <c r="Y292">
+        <v>1.13</v>
+      </c>
+      <c r="Z292">
+        <v>3.06</v>
+      </c>
+      <c r="AA292">
+        <v>3.53</v>
+      </c>
+      <c r="AB292">
+        <v>2.17</v>
+      </c>
+      <c r="AC292">
+        <v>1.04</v>
+      </c>
+      <c r="AD292">
+        <v>10</v>
+      </c>
+      <c r="AE292">
+        <v>1.22</v>
+      </c>
+      <c r="AF292">
+        <v>4.2</v>
+      </c>
+      <c r="AG292">
+        <v>1.65</v>
+      </c>
+      <c r="AH292">
+        <v>2.15</v>
+      </c>
+      <c r="AI292">
+        <v>1.53</v>
+      </c>
+      <c r="AJ292">
+        <v>2.38</v>
+      </c>
+      <c r="AK292">
+        <v>1.63</v>
+      </c>
+      <c r="AL292">
+        <v>1.27</v>
+      </c>
+      <c r="AM292">
+        <v>1.39</v>
+      </c>
+      <c r="AN292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO292">
+        <v>1.44</v>
+      </c>
+      <c r="AP292">
+        <v>0.76</v>
+      </c>
+      <c r="AQ292">
+        <v>1.53</v>
+      </c>
+      <c r="AR292">
+        <v>1.5</v>
+      </c>
+      <c r="AS292">
+        <v>1.29</v>
+      </c>
+      <c r="AT292">
+        <v>2.79</v>
+      </c>
+      <c r="AU292">
+        <v>7</v>
+      </c>
+      <c r="AV292">
+        <v>9</v>
+      </c>
+      <c r="AW292">
+        <v>5</v>
+      </c>
+      <c r="AX292">
+        <v>14</v>
+      </c>
+      <c r="AY292">
+        <v>13</v>
+      </c>
+      <c r="AZ292">
+        <v>28</v>
+      </c>
+      <c r="BA292">
+        <v>6</v>
+      </c>
+      <c r="BB292">
+        <v>6</v>
+      </c>
+      <c r="BC292">
+        <v>12</v>
+      </c>
+      <c r="BD292">
+        <v>2.09</v>
+      </c>
+      <c r="BE292">
+        <v>6.55</v>
+      </c>
+      <c r="BF292">
+        <v>2.19</v>
+      </c>
+      <c r="BG292">
+        <v>1.19</v>
+      </c>
+      <c r="BH292">
+        <v>3.75</v>
+      </c>
+      <c r="BI292">
+        <v>1.4</v>
+      </c>
+      <c r="BJ292">
+        <v>2.64</v>
+      </c>
+      <c r="BK292">
+        <v>1.72</v>
+      </c>
+      <c r="BL292">
+        <v>2</v>
+      </c>
+      <c r="BM292">
+        <v>2.15</v>
+      </c>
+      <c r="BN292">
+        <v>1.59</v>
+      </c>
+      <c r="BO292">
+        <v>2.83</v>
+      </c>
+      <c r="BP292">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7492106</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45787.4375</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>84</v>
+      </c>
+      <c r="H293" t="s">
+        <v>71</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293" t="s">
+        <v>96</v>
+      </c>
+      <c r="P293" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q293">
+        <v>2.75</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>3.2</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.2</v>
+      </c>
+      <c r="W293">
+        <v>1.62</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>2.36</v>
+      </c>
+      <c r="AA293">
+        <v>3.58</v>
+      </c>
+      <c r="AB293">
+        <v>2.73</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>13</v>
+      </c>
+      <c r="AE293">
+        <v>1.18</v>
+      </c>
+      <c r="AF293">
+        <v>4.75</v>
+      </c>
+      <c r="AG293">
+        <v>1.47</v>
+      </c>
+      <c r="AH293">
+        <v>2.57</v>
+      </c>
+      <c r="AI293">
+        <v>1.44</v>
+      </c>
+      <c r="AJ293">
+        <v>2.63</v>
+      </c>
+      <c r="AK293">
+        <v>1.44</v>
+      </c>
+      <c r="AL293">
+        <v>1.27</v>
+      </c>
+      <c r="AM293">
+        <v>1.55</v>
+      </c>
+      <c r="AN293">
+        <v>1.25</v>
+      </c>
+      <c r="AO293">
+        <v>1.25</v>
+      </c>
+      <c r="AP293">
+        <v>1.24</v>
+      </c>
+      <c r="AQ293">
+        <v>1.24</v>
+      </c>
+      <c r="AR293">
+        <v>1.48</v>
+      </c>
+      <c r="AS293">
+        <v>1.28</v>
+      </c>
+      <c r="AT293">
+        <v>2.76</v>
+      </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>5</v>
+      </c>
+      <c r="AX293">
+        <v>6</v>
+      </c>
+      <c r="AY293">
+        <v>22</v>
+      </c>
+      <c r="AZ293">
+        <v>17</v>
+      </c>
+      <c r="BA293">
+        <v>11</v>
+      </c>
+      <c r="BB293">
+        <v>4</v>
+      </c>
+      <c r="BC293">
+        <v>15</v>
+      </c>
+      <c r="BD293">
+        <v>1.94</v>
+      </c>
+      <c r="BE293">
+        <v>6.6</v>
+      </c>
+      <c r="BF293">
+        <v>2.38</v>
+      </c>
+      <c r="BG293">
+        <v>1.22</v>
+      </c>
+      <c r="BH293">
+        <v>3.5</v>
+      </c>
+      <c r="BI293">
+        <v>1.44</v>
+      </c>
+      <c r="BJ293">
+        <v>2.51</v>
+      </c>
+      <c r="BK293">
+        <v>1.78</v>
+      </c>
+      <c r="BL293">
+        <v>1.93</v>
+      </c>
+      <c r="BM293">
+        <v>2.25</v>
+      </c>
+      <c r="BN293">
+        <v>1.54</v>
+      </c>
+      <c r="BO293">
+        <v>2.97</v>
+      </c>
+      <c r="BP293">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7492108</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45787.4375</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>79</v>
+      </c>
+      <c r="H294" t="s">
+        <v>86</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="s">
+        <v>96</v>
+      </c>
+      <c r="P294" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q294">
+        <v>2.75</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>3.75</v>
+      </c>
+      <c r="T294">
+        <v>1.36</v>
+      </c>
+      <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>2.75</v>
+      </c>
+      <c r="W294">
+        <v>1.4</v>
+      </c>
+      <c r="X294">
+        <v>7</v>
+      </c>
+      <c r="Y294">
+        <v>1.1</v>
+      </c>
+      <c r="Z294">
+        <v>2.07</v>
+      </c>
+      <c r="AA294">
+        <v>3.45</v>
+      </c>
+      <c r="AB294">
+        <v>3.36</v>
+      </c>
+      <c r="AC294">
+        <v>1.05</v>
+      </c>
+      <c r="AD294">
+        <v>9</v>
+      </c>
+      <c r="AE294">
+        <v>1.3</v>
+      </c>
+      <c r="AF294">
+        <v>3.45</v>
+      </c>
+      <c r="AG294">
+        <v>1.89</v>
+      </c>
+      <c r="AH294">
+        <v>1.85</v>
+      </c>
+      <c r="AI294">
+        <v>1.7</v>
+      </c>
+      <c r="AJ294">
+        <v>2.05</v>
+      </c>
+      <c r="AK294">
+        <v>1.33</v>
+      </c>
+      <c r="AL294">
+        <v>1.3</v>
+      </c>
+      <c r="AM294">
+        <v>1.66</v>
+      </c>
+      <c r="AN294">
+        <v>1.38</v>
+      </c>
+      <c r="AO294">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP294">
+        <v>1.29</v>
+      </c>
+      <c r="AQ294">
+        <v>1.06</v>
+      </c>
+      <c r="AR294">
+        <v>1.53</v>
+      </c>
+      <c r="AS294">
+        <v>1.3</v>
+      </c>
+      <c r="AT294">
+        <v>2.83</v>
+      </c>
+      <c r="AU294">
+        <v>3</v>
+      </c>
+      <c r="AV294">
+        <v>3</v>
+      </c>
+      <c r="AW294">
+        <v>9</v>
+      </c>
+      <c r="AX294">
+        <v>4</v>
+      </c>
+      <c r="AY294">
+        <v>13</v>
+      </c>
+      <c r="AZ294">
+        <v>8</v>
+      </c>
+      <c r="BA294">
+        <v>1</v>
+      </c>
+      <c r="BB294">
+        <v>2</v>
+      </c>
+      <c r="BC294">
+        <v>3</v>
+      </c>
+      <c r="BD294">
+        <v>1.71</v>
+      </c>
+      <c r="BE294">
+        <v>8.6</v>
+      </c>
+      <c r="BF294">
+        <v>2.59</v>
+      </c>
+      <c r="BG294">
+        <v>1.23</v>
+      </c>
+      <c r="BH294">
+        <v>3.42</v>
+      </c>
+      <c r="BI294">
+        <v>1.46</v>
+      </c>
+      <c r="BJ294">
+        <v>2.45</v>
+      </c>
+      <c r="BK294">
+        <v>1.82</v>
+      </c>
+      <c r="BL294">
+        <v>1.88</v>
+      </c>
+      <c r="BM294">
+        <v>2.32</v>
+      </c>
+      <c r="BN294">
+        <v>1.51</v>
+      </c>
+      <c r="BO294">
+        <v>3.08</v>
+      </c>
+      <c r="BP294">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7492104</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45787.5625</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>87</v>
+      </c>
+      <c r="H295" t="s">
+        <v>70</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>281</v>
+      </c>
+      <c r="P295" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q295">
+        <v>1.44</v>
+      </c>
+      <c r="R295">
+        <v>3.75</v>
+      </c>
+      <c r="S295">
+        <v>9.5</v>
+      </c>
+      <c r="T295">
+        <v>1.11</v>
+      </c>
+      <c r="U295">
+        <v>6.5</v>
+      </c>
+      <c r="V295">
+        <v>1.57</v>
+      </c>
+      <c r="W295">
+        <v>2.25</v>
+      </c>
+      <c r="X295">
+        <v>2.75</v>
+      </c>
+      <c r="Y295">
+        <v>1.4</v>
+      </c>
+      <c r="Z295">
+        <v>1.09</v>
+      </c>
+      <c r="AA295">
+        <v>11</v>
+      </c>
+      <c r="AB295">
+        <v>17</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>1.01</v>
+      </c>
+      <c r="AF295">
+        <v>11</v>
+      </c>
+      <c r="AG295">
+        <v>1.18</v>
+      </c>
+      <c r="AH295">
+        <v>4.5</v>
+      </c>
+      <c r="AI295">
+        <v>1.57</v>
+      </c>
+      <c r="AJ295">
+        <v>2.25</v>
+      </c>
+      <c r="AK295">
+        <v>1.03</v>
+      </c>
+      <c r="AL295">
+        <v>1.06</v>
+      </c>
+      <c r="AM295">
+        <v>5.5</v>
+      </c>
+      <c r="AN295">
+        <v>2.56</v>
+      </c>
+      <c r="AO295">
+        <v>1.31</v>
+      </c>
+      <c r="AP295">
+        <v>2.59</v>
+      </c>
+      <c r="AQ295">
+        <v>1.24</v>
+      </c>
+      <c r="AR295">
+        <v>2.48</v>
+      </c>
+      <c r="AS295">
+        <v>1.37</v>
+      </c>
+      <c r="AT295">
+        <v>3.85</v>
+      </c>
+      <c r="AU295">
+        <v>10</v>
+      </c>
+      <c r="AV295">
+        <v>7</v>
+      </c>
+      <c r="AW295">
+        <v>15</v>
+      </c>
+      <c r="AX295">
+        <v>10</v>
+      </c>
+      <c r="AY295">
+        <v>28</v>
+      </c>
+      <c r="AZ295">
+        <v>19</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>9</v>
+      </c>
+      <c r="BC295">
+        <v>13</v>
+      </c>
+      <c r="BD295">
+        <v>1.06</v>
+      </c>
+      <c r="BE295">
+        <v>16.75</v>
+      </c>
+      <c r="BF295">
+        <v>11.25</v>
+      </c>
+      <c r="BG295">
+        <v>1.15</v>
+      </c>
+      <c r="BH295">
+        <v>4.3</v>
+      </c>
+      <c r="BI295">
+        <v>1.31</v>
+      </c>
+      <c r="BJ295">
+        <v>2.92</v>
+      </c>
+      <c r="BK295">
+        <v>1.57</v>
+      </c>
+      <c r="BL295">
+        <v>2.19</v>
+      </c>
+      <c r="BM295">
+        <v>1.96</v>
+      </c>
+      <c r="BN295">
+        <v>1.75</v>
+      </c>
+      <c r="BO295">
+        <v>2.51</v>
+      </c>
+      <c r="BP295">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -61578,16 +61578,16 @@
         <v>5</v>
       </c>
       <c r="AW291">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX291">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY291">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ291">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA291">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="441">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,6 +862,12 @@
     <t>['31', '90']</t>
   </si>
   <si>
+    <t>['30', '90+2']</t>
+  </si>
+  <si>
+    <t>['1', '71']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1326,6 +1332,12 @@
   <si>
     <t>['12', '56', '73']</t>
   </si>
+  <si>
+    <t>['33', '43', '73', '77']</t>
+  </si>
+  <si>
+    <t>['4', '15']</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1945,7 +1957,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2357,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2563,7 +2575,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2769,7 +2781,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -3387,7 +3399,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3593,7 +3605,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4005,7 +4017,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4211,7 +4223,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4417,7 +4429,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4495,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -4623,7 +4635,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4910,7 +4922,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5035,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5113,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.24</v>
@@ -5653,7 +5665,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -6065,7 +6077,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6477,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6683,7 +6695,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6889,7 +6901,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -7301,7 +7313,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7507,7 +7519,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7713,7 +7725,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7919,7 +7931,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8125,7 +8137,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8331,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8615,7 +8627,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.24</v>
@@ -8743,7 +8755,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8821,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -9030,7 +9042,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -9361,7 +9373,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9773,7 +9785,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9979,7 +9991,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10185,7 +10197,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10597,7 +10609,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10803,7 +10815,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -11009,7 +11021,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11421,7 +11433,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11499,7 +11511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.6899999999999999</v>
@@ -11833,7 +11845,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11914,7 +11926,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -12039,7 +12051,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12245,7 +12257,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12657,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12735,7 +12747,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>2.19</v>
@@ -12863,7 +12875,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -13275,7 +13287,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13353,7 +13365,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13687,7 +13699,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13893,7 +13905,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14099,7 +14111,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14511,7 +14523,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14717,7 +14729,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -15129,7 +15141,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15210,7 +15222,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15541,7 +15553,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15953,7 +15965,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16159,7 +16171,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16855,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -17189,7 +17201,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17267,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.44</v>
@@ -17395,7 +17407,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -18837,7 +18849,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19249,7 +19261,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19330,7 +19342,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19455,7 +19467,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -20073,7 +20085,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20279,7 +20291,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20691,7 +20703,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20769,7 +20781,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -21309,7 +21321,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21799,7 +21811,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.69</v>
@@ -21927,7 +21939,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22339,7 +22351,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22545,7 +22557,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22751,7 +22763,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -23163,7 +23175,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23369,7 +23381,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23987,7 +23999,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24193,7 +24205,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24399,7 +24411,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24811,7 +24823,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24889,7 +24901,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -25017,7 +25029,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25301,7 +25313,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25429,7 +25441,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25510,7 +25522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
         <v>1.64</v>
@@ -25635,7 +25647,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26047,7 +26059,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26253,7 +26265,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26459,7 +26471,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26665,7 +26677,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -27077,7 +27089,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27283,7 +27295,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27489,7 +27501,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27695,7 +27707,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27901,7 +27913,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28107,7 +28119,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28519,7 +28531,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28597,7 +28609,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
         <v>1.53</v>
@@ -28725,7 +28737,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28931,7 +28943,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29215,7 +29227,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>1.47</v>
@@ -29549,7 +29561,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29630,7 +29642,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29755,7 +29767,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -30373,7 +30385,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30785,7 +30797,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31197,7 +31209,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31403,7 +31415,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31609,7 +31621,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31690,7 +31702,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31893,7 +31905,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -32305,7 +32317,7 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
         <v>1.53</v>
@@ -32639,7 +32651,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -33051,7 +33063,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33257,7 +33269,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33541,10 +33553,10 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR155">
         <v>1.87</v>
@@ -33669,7 +33681,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33875,7 +33887,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34081,7 +34093,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34493,7 +34505,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34699,7 +34711,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34777,7 +34789,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
         <v>1.24</v>
@@ -34905,7 +34917,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35111,7 +35123,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35317,7 +35329,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35935,7 +35947,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36141,7 +36153,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36347,7 +36359,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36759,7 +36771,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -37377,7 +37389,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37583,7 +37595,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37789,7 +37801,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37870,7 +37882,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -38613,7 +38625,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38691,7 +38703,7 @@
         <v>1.78</v>
       </c>
       <c r="AP180">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ180">
         <v>1.5</v>
@@ -38819,7 +38831,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -38897,7 +38909,7 @@
         <v>0.78</v>
       </c>
       <c r="AP181">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>0.88</v>
@@ -39437,7 +39449,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39643,7 +39655,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -40261,7 +40273,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40467,7 +40479,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -41085,7 +41097,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41291,7 +41303,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41578,7 +41590,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ194">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41987,7 +41999,7 @@
         <v>2.3</v>
       </c>
       <c r="AP196">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ196">
         <v>2.19</v>
@@ -42115,7 +42127,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42399,7 +42411,7 @@
         <v>0.3</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>0.6899999999999999</v>
@@ -42527,7 +42539,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42939,7 +42951,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43145,7 +43157,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43969,7 +43981,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44381,7 +44393,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44587,7 +44599,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44793,7 +44805,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44999,7 +45011,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45080,7 +45092,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ211">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR211">
         <v>1.27</v>
@@ -45411,7 +45423,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45617,7 +45629,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45823,7 +45835,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -45901,7 +45913,7 @@
         <v>2.09</v>
       </c>
       <c r="AP215">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ215">
         <v>2.13</v>
@@ -46029,7 +46041,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46441,7 +46453,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46647,7 +46659,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46725,7 +46737,7 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
         <v>1.69</v>
@@ -46853,7 +46865,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47059,7 +47071,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47471,7 +47483,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47883,7 +47895,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47961,7 +47973,7 @@
         <v>0.67</v>
       </c>
       <c r="AP225">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ225">
         <v>1</v>
@@ -48089,7 +48101,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48501,7 +48513,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -49119,7 +49131,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49406,7 +49418,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ232">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR232">
         <v>1.52</v>
@@ -49531,7 +49543,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49737,7 +49749,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49943,7 +49955,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50227,7 +50239,7 @@
         <v>0.46</v>
       </c>
       <c r="AP236">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ236">
         <v>0.44</v>
@@ -50355,7 +50367,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50767,7 +50779,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51179,7 +51191,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51463,7 +51475,7 @@
         <v>1.42</v>
       </c>
       <c r="AP242">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ242">
         <v>1.5</v>
@@ -51591,7 +51603,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -52003,7 +52015,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52209,7 +52221,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52415,7 +52427,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52621,7 +52633,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52702,7 +52714,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ248">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR248">
         <v>1.45</v>
@@ -53033,7 +53045,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53445,7 +53457,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53857,7 +53869,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54063,7 +54075,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54347,7 +54359,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ256">
         <v>1</v>
@@ -54681,7 +54693,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54887,7 +54899,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55093,7 +55105,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55174,7 +55186,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ260">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR260">
         <v>2.48</v>
@@ -55299,7 +55311,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55583,7 +55595,7 @@
         <v>0.86</v>
       </c>
       <c r="AP262">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ262">
         <v>1.06</v>
@@ -55711,7 +55723,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56123,7 +56135,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56329,7 +56341,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56535,7 +56547,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56741,7 +56753,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -57153,7 +57165,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57359,7 +57371,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57849,7 +57861,7 @@
         <v>1.33</v>
       </c>
       <c r="AP273">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ273">
         <v>1.25</v>
@@ -58183,7 +58195,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58264,7 +58276,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ275">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR275">
         <v>1.73</v>
@@ -58595,7 +58607,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58879,7 +58891,7 @@
         <v>1.33</v>
       </c>
       <c r="AP278">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ278">
         <v>1.24</v>
@@ -59625,7 +59637,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59831,7 +59843,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60243,7 +60255,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60655,7 +60667,7 @@
         <v>234</v>
       </c>
       <c r="P287" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60861,7 +60873,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q288">
         <v>3.5</v>
@@ -61067,7 +61079,7 @@
         <v>278</v>
       </c>
       <c r="P289" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q289">
         <v>2.88</v>
@@ -61273,7 +61285,7 @@
         <v>279</v>
       </c>
       <c r="P290" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q290">
         <v>2.63</v>
@@ -61479,7 +61491,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q291">
         <v>3.4</v>
@@ -61685,7 +61697,7 @@
         <v>199</v>
       </c>
       <c r="P292" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62097,7 +62109,7 @@
         <v>96</v>
       </c>
       <c r="P294" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q294">
         <v>2.75</v>
@@ -62460,6 +62472,418 @@
       </c>
       <c r="BP295">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7492102</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45788.4375</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>85</v>
+      </c>
+      <c r="H296" t="s">
+        <v>76</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>3</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>4</v>
+      </c>
+      <c r="N296">
+        <v>6</v>
+      </c>
+      <c r="O296" t="s">
+        <v>282</v>
+      </c>
+      <c r="P296" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q296">
+        <v>3</v>
+      </c>
+      <c r="R296">
+        <v>2.5</v>
+      </c>
+      <c r="S296">
+        <v>2.88</v>
+      </c>
+      <c r="T296">
+        <v>1.25</v>
+      </c>
+      <c r="U296">
+        <v>3.75</v>
+      </c>
+      <c r="V296">
+        <v>2.1</v>
+      </c>
+      <c r="W296">
+        <v>1.67</v>
+      </c>
+      <c r="X296">
+        <v>4.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.18</v>
+      </c>
+      <c r="Z296">
+        <v>2.49</v>
+      </c>
+      <c r="AA296">
+        <v>3.86</v>
+      </c>
+      <c r="AB296">
+        <v>2.44</v>
+      </c>
+      <c r="AC296">
+        <v>1.01</v>
+      </c>
+      <c r="AD296">
+        <v>13</v>
+      </c>
+      <c r="AE296">
+        <v>1.15</v>
+      </c>
+      <c r="AF296">
+        <v>5.25</v>
+      </c>
+      <c r="AG296">
+        <v>1.43</v>
+      </c>
+      <c r="AH296">
+        <v>2.7</v>
+      </c>
+      <c r="AI296">
+        <v>1.44</v>
+      </c>
+      <c r="AJ296">
+        <v>2.63</v>
+      </c>
+      <c r="AK296">
+        <v>1.51</v>
+      </c>
+      <c r="AL296">
+        <v>1.26</v>
+      </c>
+      <c r="AM296">
+        <v>1.5</v>
+      </c>
+      <c r="AN296">
+        <v>2.13</v>
+      </c>
+      <c r="AO296">
+        <v>1.13</v>
+      </c>
+      <c r="AP296">
+        <v>2</v>
+      </c>
+      <c r="AQ296">
+        <v>1.24</v>
+      </c>
+      <c r="AR296">
+        <v>2.02</v>
+      </c>
+      <c r="AS296">
+        <v>1.57</v>
+      </c>
+      <c r="AT296">
+        <v>3.59</v>
+      </c>
+      <c r="AU296">
+        <v>11</v>
+      </c>
+      <c r="AV296">
+        <v>6</v>
+      </c>
+      <c r="AW296">
+        <v>9</v>
+      </c>
+      <c r="AX296">
+        <v>4</v>
+      </c>
+      <c r="AY296">
+        <v>26</v>
+      </c>
+      <c r="AZ296">
+        <v>10</v>
+      </c>
+      <c r="BA296">
+        <v>12</v>
+      </c>
+      <c r="BB296">
+        <v>0</v>
+      </c>
+      <c r="BC296">
+        <v>12</v>
+      </c>
+      <c r="BD296">
+        <v>1.87</v>
+      </c>
+      <c r="BE296">
+        <v>8.6</v>
+      </c>
+      <c r="BF296">
+        <v>2.29</v>
+      </c>
+      <c r="BG296">
+        <v>1.24</v>
+      </c>
+      <c r="BH296">
+        <v>3.34</v>
+      </c>
+      <c r="BI296">
+        <v>1.47</v>
+      </c>
+      <c r="BJ296">
+        <v>2.42</v>
+      </c>
+      <c r="BK296">
+        <v>1.84</v>
+      </c>
+      <c r="BL296">
+        <v>1.86</v>
+      </c>
+      <c r="BM296">
+        <v>2.34</v>
+      </c>
+      <c r="BN296">
+        <v>1.5</v>
+      </c>
+      <c r="BO296">
+        <v>3.14</v>
+      </c>
+      <c r="BP296">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7492105</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>82</v>
+      </c>
+      <c r="H297" t="s">
+        <v>78</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>2</v>
+      </c>
+      <c r="K297">
+        <v>3</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>283</v>
+      </c>
+      <c r="P297" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q297">
+        <v>2</v>
+      </c>
+      <c r="R297">
+        <v>2.4</v>
+      </c>
+      <c r="S297">
+        <v>6</v>
+      </c>
+      <c r="T297">
+        <v>1.3</v>
+      </c>
+      <c r="U297">
+        <v>3.4</v>
+      </c>
+      <c r="V297">
+        <v>2.5</v>
+      </c>
+      <c r="W297">
+        <v>1.5</v>
+      </c>
+      <c r="X297">
+        <v>6</v>
+      </c>
+      <c r="Y297">
+        <v>1.13</v>
+      </c>
+      <c r="Z297">
+        <v>1.5</v>
+      </c>
+      <c r="AA297">
+        <v>4.33</v>
+      </c>
+      <c r="AB297">
+        <v>5.7</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>10</v>
+      </c>
+      <c r="AE297">
+        <v>1.22</v>
+      </c>
+      <c r="AF297">
+        <v>4.2</v>
+      </c>
+      <c r="AG297">
+        <v>1.7</v>
+      </c>
+      <c r="AH297">
+        <v>2.05</v>
+      </c>
+      <c r="AI297">
+        <v>1.8</v>
+      </c>
+      <c r="AJ297">
+        <v>1.95</v>
+      </c>
+      <c r="AK297">
+        <v>1.14</v>
+      </c>
+      <c r="AL297">
+        <v>1.22</v>
+      </c>
+      <c r="AM297">
+        <v>2.4</v>
+      </c>
+      <c r="AN297">
+        <v>2.06</v>
+      </c>
+      <c r="AO297">
+        <v>1.06</v>
+      </c>
+      <c r="AP297">
+        <v>2</v>
+      </c>
+      <c r="AQ297">
+        <v>1.06</v>
+      </c>
+      <c r="AR297">
+        <v>1.81</v>
+      </c>
+      <c r="AS297">
+        <v>1.24</v>
+      </c>
+      <c r="AT297">
+        <v>3.05</v>
+      </c>
+      <c r="AU297">
+        <v>-1</v>
+      </c>
+      <c r="AV297">
+        <v>-1</v>
+      </c>
+      <c r="AW297">
+        <v>-1</v>
+      </c>
+      <c r="AX297">
+        <v>-1</v>
+      </c>
+      <c r="AY297">
+        <v>-1</v>
+      </c>
+      <c r="AZ297">
+        <v>-1</v>
+      </c>
+      <c r="BA297">
+        <v>-1</v>
+      </c>
+      <c r="BB297">
+        <v>-1</v>
+      </c>
+      <c r="BC297">
+        <v>-1</v>
+      </c>
+      <c r="BD297">
+        <v>1.6</v>
+      </c>
+      <c r="BE297">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF297">
+        <v>2.88</v>
+      </c>
+      <c r="BG297">
+        <v>1.25</v>
+      </c>
+      <c r="BH297">
+        <v>3.28</v>
+      </c>
+      <c r="BI297">
+        <v>1.49</v>
+      </c>
+      <c r="BJ297">
+        <v>2.38</v>
+      </c>
+      <c r="BK297">
+        <v>1.86</v>
+      </c>
+      <c r="BL297">
+        <v>1.84</v>
+      </c>
+      <c r="BM297">
+        <v>2.4</v>
+      </c>
+      <c r="BN297">
+        <v>1.48</v>
+      </c>
+      <c r="BO297">
+        <v>3.2</v>
+      </c>
+      <c r="BP297">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="442">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -868,6 +868,9 @@
     <t>['1', '71']</t>
   </si>
   <si>
+    <t>['8', '51', '80', '87']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1698,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1957,7 +1960,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2369,7 +2372,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2575,7 +2578,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2781,7 +2784,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -3399,7 +3402,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3605,7 +3608,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4017,7 +4020,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ12">
         <v>1.53</v>
@@ -4223,7 +4226,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4429,7 +4432,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4635,7 +4638,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -5047,7 +5050,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5334,7 +5337,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5665,7 +5668,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -6077,7 +6080,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6489,7 +6492,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6695,7 +6698,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6901,7 +6904,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -7313,7 +7316,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7519,7 +7522,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7725,7 +7728,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7931,7 +7934,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8137,7 +8140,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8343,7 +8346,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8755,7 +8758,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9039,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ36">
         <v>1.24</v>
@@ -9373,7 +9376,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9785,7 +9788,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9991,7 +9994,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10197,7 +10200,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10484,7 +10487,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
         <v>1.14</v>
@@ -10609,7 +10612,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10815,7 +10818,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -11021,7 +11024,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11433,7 +11436,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11845,7 +11848,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12051,7 +12054,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12257,7 +12260,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12669,7 +12672,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12875,7 +12878,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12953,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -13287,7 +13290,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13699,7 +13702,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13780,7 +13783,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13905,7 +13908,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14111,7 +14114,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14523,7 +14526,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14729,7 +14732,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -15141,7 +15144,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15553,7 +15556,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15837,7 +15840,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ69">
         <v>0.6899999999999999</v>
@@ -15965,7 +15968,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16171,7 +16174,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -17201,7 +17204,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17407,7 +17410,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17900,7 +17903,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -18849,7 +18852,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -19261,7 +19264,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19467,7 +19470,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -20085,7 +20088,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20163,7 +20166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ90">
         <v>1.44</v>
@@ -20291,7 +20294,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20578,7 +20581,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR92">
         <v>1.83</v>
@@ -20703,7 +20706,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20987,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ94">
         <v>0.44</v>
@@ -21321,7 +21324,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21939,7 +21942,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22351,7 +22354,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22557,7 +22560,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22763,7 +22766,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -23175,7 +23178,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23381,7 +23384,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23999,7 +24002,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24205,7 +24208,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24283,7 +24286,7 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24411,7 +24414,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24823,7 +24826,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24904,7 +24907,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR113">
         <v>1.55</v>
@@ -25029,7 +25032,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25441,7 +25444,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25647,7 +25650,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26059,7 +26062,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26265,7 +26268,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26471,7 +26474,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26677,7 +26680,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -27089,7 +27092,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27295,7 +27298,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27501,7 +27504,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27707,7 +27710,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27913,7 +27916,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28119,7 +28122,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28200,7 +28203,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.19</v>
@@ -28403,7 +28406,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ130">
         <v>1.06</v>
@@ -28531,7 +28534,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28737,7 +28740,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28943,7 +28946,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29561,7 +29564,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29767,7 +29770,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -30385,7 +30388,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30797,7 +30800,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31209,7 +31212,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31415,7 +31418,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31621,7 +31624,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32651,7 +32654,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32729,7 +32732,7 @@
         <v>1.63</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ151">
         <v>1.24</v>
@@ -33063,7 +33066,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33269,7 +33272,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33350,7 +33353,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33681,7 +33684,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33887,7 +33890,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34093,7 +34096,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34377,7 +34380,7 @@
         <v>0.89</v>
       </c>
       <c r="AP159">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ159">
         <v>1.47</v>
@@ -34505,7 +34508,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34711,7 +34714,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34917,7 +34920,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35123,7 +35126,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35204,7 +35207,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR163">
         <v>1.3</v>
@@ -35329,7 +35332,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35947,7 +35950,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36153,7 +36156,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36359,7 +36362,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36771,7 +36774,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -37389,7 +37392,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37467,7 +37470,7 @@
         <v>0.89</v>
       </c>
       <c r="AP174">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ174">
         <v>1.24</v>
@@ -37595,7 +37598,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37801,7 +37804,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -38294,7 +38297,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ178">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38625,7 +38628,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38831,7 +38834,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39449,7 +39452,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39655,7 +39658,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -40148,7 +40151,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ187">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.47</v>
@@ -40273,7 +40276,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40479,7 +40482,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -41097,7 +41100,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41175,7 +41178,7 @@
         <v>1.7</v>
       </c>
       <c r="AP192">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ192">
         <v>1.5</v>
@@ -41303,7 +41306,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -42127,7 +42130,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42539,7 +42542,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42951,7 +42954,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43157,7 +43160,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43238,7 +43241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43981,7 +43984,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44393,7 +44396,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44599,7 +44602,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44677,7 +44680,7 @@
         <v>2.18</v>
       </c>
       <c r="AP209">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ209">
         <v>2.19</v>
@@ -44805,7 +44808,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -45011,7 +45014,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45423,7 +45426,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45629,7 +45632,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45835,7 +45838,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -46041,7 +46044,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46453,7 +46456,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46659,7 +46662,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46865,7 +46868,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47071,7 +47074,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47152,7 +47155,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ221">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR221">
         <v>1.67</v>
@@ -47483,7 +47486,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47895,7 +47898,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48101,7 +48104,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48513,7 +48516,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -49131,7 +49134,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49543,7 +49546,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49749,7 +49752,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49955,7 +49958,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50033,7 +50036,7 @@
         <v>2.17</v>
       </c>
       <c r="AP235">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ235">
         <v>2.13</v>
@@ -50367,7 +50370,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50654,7 +50657,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR238">
         <v>1.78</v>
@@ -50779,7 +50782,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51191,7 +51194,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51603,7 +51606,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -52015,7 +52018,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52221,7 +52224,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52427,7 +52430,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52633,7 +52636,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -53045,7 +53048,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53457,7 +53460,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53869,7 +53872,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54075,7 +54078,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54156,7 +54159,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ255">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR255">
         <v>1.43</v>
@@ -54693,7 +54696,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54899,7 +54902,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55105,7 +55108,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55311,7 +55314,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55389,7 +55392,7 @@
         <v>1.64</v>
       </c>
       <c r="AP261">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ261">
         <v>1.69</v>
@@ -55723,7 +55726,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56135,7 +56138,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56341,7 +56344,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56547,7 +56550,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56753,7 +56756,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -57165,7 +57168,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57371,7 +57374,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57655,7 +57658,7 @@
         <v>0.8</v>
       </c>
       <c r="AP272">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ272">
         <v>1.06</v>
@@ -57864,7 +57867,7 @@
         <v>2</v>
       </c>
       <c r="AQ273">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR273">
         <v>2.04</v>
@@ -58195,7 +58198,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58607,7 +58610,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -59637,7 +59640,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59843,7 +59846,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60255,7 +60258,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60667,7 +60670,7 @@
         <v>234</v>
       </c>
       <c r="P287" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60873,7 +60876,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q288">
         <v>3.5</v>
@@ -61079,7 +61082,7 @@
         <v>278</v>
       </c>
       <c r="P289" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q289">
         <v>2.88</v>
@@ -61285,7 +61288,7 @@
         <v>279</v>
       </c>
       <c r="P290" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q290">
         <v>2.63</v>
@@ -61491,7 +61494,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q291">
         <v>3.4</v>
@@ -61697,7 +61700,7 @@
         <v>199</v>
       </c>
       <c r="P292" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62109,7 +62112,7 @@
         <v>96</v>
       </c>
       <c r="P294" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q294">
         <v>2.75</v>
@@ -62521,7 +62524,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -62727,7 +62730,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q297">
         <v>2</v>
@@ -62820,31 +62823,31 @@
         <v>3.05</v>
       </c>
       <c r="AU297">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV297">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW297">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX297">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY297">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ297">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA297">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC297">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD297">
         <v>1.6</v>
@@ -62884,6 +62887,212 @@
       </c>
       <c r="BP297">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7492103</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45788.60416666666</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>80</v>
+      </c>
+      <c r="H298" t="s">
+        <v>74</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>4</v>
+      </c>
+      <c r="O298" t="s">
+        <v>284</v>
+      </c>
+      <c r="P298" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q298">
+        <v>2</v>
+      </c>
+      <c r="R298">
+        <v>2.5</v>
+      </c>
+      <c r="S298">
+        <v>5.5</v>
+      </c>
+      <c r="T298">
+        <v>1.25</v>
+      </c>
+      <c r="U298">
+        <v>3.75</v>
+      </c>
+      <c r="V298">
+        <v>2.2</v>
+      </c>
+      <c r="W298">
+        <v>1.62</v>
+      </c>
+      <c r="X298">
+        <v>5</v>
+      </c>
+      <c r="Y298">
+        <v>1.17</v>
+      </c>
+      <c r="Z298">
+        <v>1.57</v>
+      </c>
+      <c r="AA298">
+        <v>4.2</v>
+      </c>
+      <c r="AB298">
+        <v>5.1</v>
+      </c>
+      <c r="AC298">
+        <v>1.03</v>
+      </c>
+      <c r="AD298">
+        <v>11</v>
+      </c>
+      <c r="AE298">
+        <v>1.18</v>
+      </c>
+      <c r="AF298">
+        <v>4.75</v>
+      </c>
+      <c r="AG298">
+        <v>1.6</v>
+      </c>
+      <c r="AH298">
+        <v>2.25</v>
+      </c>
+      <c r="AI298">
+        <v>1.62</v>
+      </c>
+      <c r="AJ298">
+        <v>2.2</v>
+      </c>
+      <c r="AK298">
+        <v>1.15</v>
+      </c>
+      <c r="AL298">
+        <v>1.21</v>
+      </c>
+      <c r="AM298">
+        <v>2.35</v>
+      </c>
+      <c r="AN298">
+        <v>1.25</v>
+      </c>
+      <c r="AO298">
+        <v>1.25</v>
+      </c>
+      <c r="AP298">
+        <v>1.35</v>
+      </c>
+      <c r="AQ298">
+        <v>1.18</v>
+      </c>
+      <c r="AR298">
+        <v>1.79</v>
+      </c>
+      <c r="AS298">
+        <v>1.1</v>
+      </c>
+      <c r="AT298">
+        <v>2.89</v>
+      </c>
+      <c r="AU298">
+        <v>12</v>
+      </c>
+      <c r="AV298">
+        <v>0</v>
+      </c>
+      <c r="AW298">
+        <v>18</v>
+      </c>
+      <c r="AX298">
+        <v>8</v>
+      </c>
+      <c r="AY298">
+        <v>32</v>
+      </c>
+      <c r="AZ298">
+        <v>10</v>
+      </c>
+      <c r="BA298">
+        <v>11</v>
+      </c>
+      <c r="BB298">
+        <v>2</v>
+      </c>
+      <c r="BC298">
+        <v>13</v>
+      </c>
+      <c r="BD298">
+        <v>1.47</v>
+      </c>
+      <c r="BE298">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF298">
+        <v>3.34</v>
+      </c>
+      <c r="BG298">
+        <v>1.21</v>
+      </c>
+      <c r="BH298">
+        <v>3.58</v>
+      </c>
+      <c r="BI298">
+        <v>1.43</v>
+      </c>
+      <c r="BJ298">
+        <v>2.54</v>
+      </c>
+      <c r="BK298">
+        <v>1.76</v>
+      </c>
+      <c r="BL298">
+        <v>1.95</v>
+      </c>
+      <c r="BM298">
+        <v>2.23</v>
+      </c>
+      <c r="BN298">
+        <v>1.55</v>
+      </c>
+      <c r="BO298">
+        <v>2.92</v>
+      </c>
+      <c r="BP298">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -62623,13 +62623,13 @@
         <v>6</v>
       </c>
       <c r="AW296">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY296">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ296">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="449">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,12 @@
     <t>['8', '51', '80', '87']</t>
   </si>
   <si>
+    <t>['8', '44']</t>
+  </si>
+  <si>
+    <t>['3', '47', '72']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -1341,6 +1347,21 @@
   <si>
     <t>['4', '15']</t>
   </si>
+  <si>
+    <t>['23', '57', '78']</t>
+  </si>
+  <si>
+    <t>['33', '53', '80', '86']</t>
+  </si>
+  <si>
+    <t>['14', '33', '66', '86']</t>
+  </si>
+  <si>
+    <t>['45+4', '61', '63']</t>
+  </si>
+  <si>
+    <t>['68', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1701,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,7 +1981,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -2244,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ3">
         <v>0.44</v>
@@ -2372,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2450,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2578,7 +2599,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2656,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2784,7 +2805,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2862,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ6">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3071,7 +3092,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3274,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ8">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3402,7 +3423,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3483,7 +3504,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ9">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3608,7 +3629,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4020,7 +4041,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4226,7 +4247,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4432,7 +4453,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4638,7 +4659,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -5050,7 +5071,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5334,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ18">
         <v>1.18</v>
@@ -5668,7 +5689,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5746,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ20">
         <v>1.06</v>
@@ -5952,10 +5973,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR21">
         <v>1.16</v>
@@ -6080,7 +6101,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -6158,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -6364,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
         <v>0.44</v>
@@ -6492,7 +6513,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6573,7 +6594,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -6698,7 +6719,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6779,7 +6800,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6904,7 +6925,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6985,7 +7006,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ26">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -7188,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -7316,7 +7337,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7397,7 +7418,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -7522,7 +7543,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7600,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ29">
         <v>1.53</v>
@@ -7728,7 +7749,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7806,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ30">
         <v>1.47</v>
@@ -7934,7 +7955,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8015,7 +8036,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ31">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR31">
         <v>0.65</v>
@@ -8140,7 +8161,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8346,7 +8367,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8427,7 +8448,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ33">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -8758,7 +8779,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -9376,7 +9397,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9454,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ38">
         <v>0.44</v>
@@ -9663,7 +9684,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9788,7 +9809,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9994,7 +10015,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10075,7 +10096,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR41">
         <v>1.28</v>
@@ -10200,7 +10221,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10278,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10484,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>1.18</v>
@@ -10612,7 +10633,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10818,7 +10839,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10899,7 +10920,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -11024,7 +11045,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -11102,10 +11123,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -11308,7 +11329,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ47">
         <v>1.24</v>
@@ -11436,7 +11457,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11517,7 +11538,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -11848,7 +11869,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12054,7 +12075,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12260,7 +12281,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12544,7 +12565,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ53">
         <v>1.24</v>
@@ -12672,7 +12693,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12753,7 +12774,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12878,7 +12899,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -13162,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13290,7 +13311,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13371,7 +13392,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13574,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.44</v>
@@ -13702,7 +13723,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13780,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ59">
         <v>1.18</v>
@@ -13908,7 +13929,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -14114,7 +14135,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14401,7 +14422,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR62">
         <v>1.47</v>
@@ -14526,7 +14547,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14607,7 +14628,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR63">
         <v>1.07</v>
@@ -14732,7 +14753,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14813,7 +14834,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -15144,7 +15165,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15222,7 +15243,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ66">
         <v>1.24</v>
@@ -15556,7 +15577,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15634,7 +15655,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>1.47</v>
@@ -15843,7 +15864,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR69">
         <v>2.2</v>
@@ -15968,7 +15989,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -16174,7 +16195,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16255,7 +16276,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ71">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR71">
         <v>1.42</v>
@@ -16461,7 +16482,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16664,7 +16685,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16873,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR74">
         <v>2.41</v>
@@ -17079,7 +17100,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR75">
         <v>1.82</v>
@@ -17204,7 +17225,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17410,7 +17431,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17488,7 +17509,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.06</v>
@@ -18106,7 +18127,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ80">
         <v>1.24</v>
@@ -18312,7 +18333,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ81">
         <v>1.53</v>
@@ -18521,7 +18542,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18852,7 +18873,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18933,7 +18954,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -19139,7 +19160,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ85">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR85">
         <v>0.97</v>
@@ -19264,7 +19285,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19470,7 +19491,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19754,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ88">
         <v>1.24</v>
@@ -19960,7 +19981,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -20088,7 +20109,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -20169,7 +20190,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR90">
         <v>2.13</v>
@@ -20294,7 +20315,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20372,7 +20393,7 @@
         <v>1.75</v>
       </c>
       <c r="AP91">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20706,7 +20727,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -21196,7 +21217,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ95">
         <v>1.47</v>
@@ -21324,7 +21345,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21402,7 +21423,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.24</v>
@@ -21611,7 +21632,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR97">
         <v>1.25</v>
@@ -21817,7 +21838,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR98">
         <v>1.59</v>
@@ -21942,7 +21963,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22354,7 +22375,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22435,7 +22456,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR101">
         <v>1.26</v>
@@ -22560,7 +22581,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22766,7 +22787,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22844,7 +22865,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ103">
         <v>1.24</v>
@@ -23050,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ104">
         <v>0.44</v>
@@ -23178,7 +23199,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -23256,7 +23277,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23384,7 +23405,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23465,7 +23486,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR106">
         <v>1.1</v>
@@ -23668,10 +23689,10 @@
         <v>2.67</v>
       </c>
       <c r="AP107">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ107">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR107">
         <v>1.93</v>
@@ -24002,7 +24023,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24080,10 +24101,10 @@
         <v>1.67</v>
       </c>
       <c r="AP109">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24208,7 +24229,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24289,7 +24310,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR110">
         <v>2.1</v>
@@ -24414,7 +24435,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24701,7 +24722,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ112">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR112">
         <v>1.23</v>
@@ -24826,7 +24847,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -25032,7 +25053,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -25444,7 +25465,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25650,7 +25671,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25934,7 +25955,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.47</v>
@@ -26062,7 +26083,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26140,7 +26161,7 @@
         <v>2.17</v>
       </c>
       <c r="AP119">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
         <v>1.5</v>
@@ -26268,7 +26289,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26474,7 +26495,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26555,7 +26576,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ121">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -26680,7 +26701,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26758,7 +26779,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ122">
         <v>2.13</v>
@@ -26967,7 +26988,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -27092,7 +27113,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27173,7 +27194,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ124">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27298,7 +27319,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27376,10 +27397,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ125">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR125">
         <v>1.33</v>
@@ -27504,7 +27525,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27582,7 +27603,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ126">
         <v>0.88</v>
@@ -27710,7 +27731,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27788,10 +27809,10 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR127">
         <v>1.42</v>
@@ -27916,7 +27937,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -28122,7 +28143,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28534,7 +28555,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28740,7 +28761,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28818,7 +28839,7 @@
         <v>0.83</v>
       </c>
       <c r="AP132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>1.24</v>
@@ -28946,7 +28967,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29027,7 +29048,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR133">
         <v>1.24</v>
@@ -29564,7 +29585,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29770,7 +29791,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q137">
         <v>3.2</v>
@@ -29848,7 +29869,7 @@
         <v>2.14</v>
       </c>
       <c r="AP137">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ137">
         <v>2.13</v>
@@ -30054,7 +30075,7 @@
         <v>1.86</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>1.5</v>
@@ -30260,10 +30281,10 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR139">
         <v>1.27</v>
@@ -30388,7 +30409,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30466,10 +30487,10 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30800,7 +30821,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30881,7 +30902,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.26</v>
@@ -31087,7 +31108,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR143">
         <v>1.59</v>
@@ -31212,7 +31233,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31290,10 +31311,10 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ144">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31418,7 +31439,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31496,10 +31517,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31624,7 +31645,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32654,7 +32675,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -33066,7 +33087,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33272,7 +33293,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q154">
         <v>2.6</v>
@@ -33684,7 +33705,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33890,7 +33911,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34096,7 +34117,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34174,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34508,7 +34529,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q160">
         <v>1.53</v>
@@ -34714,7 +34735,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>1.73</v>
@@ -34920,7 +34941,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -35126,7 +35147,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35332,7 +35353,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35413,7 +35434,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ164">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR164">
         <v>1.34</v>
@@ -35619,7 +35640,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR165">
         <v>1.46</v>
@@ -35822,7 +35843,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ166">
         <v>1.06</v>
@@ -35950,7 +35971,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -36028,10 +36049,10 @@
         <v>2.22</v>
       </c>
       <c r="AP167">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ167">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR167">
         <v>1.56</v>
@@ -36156,7 +36177,7 @@
         <v>209</v>
       </c>
       <c r="P168" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q168">
         <v>2.1</v>
@@ -36234,10 +36255,10 @@
         <v>1.78</v>
       </c>
       <c r="AP168">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ168">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36362,7 +36383,7 @@
         <v>210</v>
       </c>
       <c r="P169" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36440,7 +36461,7 @@
         <v>2.25</v>
       </c>
       <c r="AP169">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ169">
         <v>2.13</v>
@@ -36774,7 +36795,7 @@
         <v>212</v>
       </c>
       <c r="P171" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q171">
         <v>3.5</v>
@@ -36852,10 +36873,10 @@
         <v>1.78</v>
       </c>
       <c r="AP171">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR171">
         <v>1.74</v>
@@ -37061,7 +37082,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -37392,7 +37413,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37598,7 +37619,7 @@
         <v>216</v>
       </c>
       <c r="P175" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q175">
         <v>1.25</v>
@@ -37679,7 +37700,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ175">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR175">
         <v>2.37</v>
@@ -37804,7 +37825,7 @@
         <v>151</v>
       </c>
       <c r="P176" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37882,7 +37903,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP176">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ176">
         <v>1.24</v>
@@ -38628,7 +38649,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38834,7 +38855,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q181">
         <v>1.62</v>
@@ -39121,7 +39142,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ182">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR182">
         <v>2.47</v>
@@ -39452,7 +39473,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39530,10 +39551,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR184">
         <v>1.55</v>
@@ -39658,7 +39679,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39736,10 +39757,10 @@
         <v>0.5</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR185">
         <v>1.84</v>
@@ -39942,7 +39963,7 @@
         <v>0.7</v>
       </c>
       <c r="AP186">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ186">
         <v>1.06</v>
@@ -40276,7 +40297,7 @@
         <v>222</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40357,7 +40378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR188">
         <v>1.5</v>
@@ -40482,7 +40503,7 @@
         <v>223</v>
       </c>
       <c r="P189" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -40766,7 +40787,7 @@
         <v>1.2</v>
       </c>
       <c r="AP190">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ190">
         <v>1.06</v>
@@ -40972,7 +40993,7 @@
         <v>1.36</v>
       </c>
       <c r="AP191">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ191">
         <v>1.24</v>
@@ -41100,7 +41121,7 @@
         <v>126</v>
       </c>
       <c r="P192" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41306,7 +41327,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -42005,7 +42026,7 @@
         <v>2</v>
       </c>
       <c r="AQ196">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR196">
         <v>2.06</v>
@@ -42130,7 +42151,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -42417,7 +42438,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR198">
         <v>1.84</v>
@@ -42542,7 +42563,7 @@
         <v>96</v>
       </c>
       <c r="P199" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -42620,7 +42641,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ199">
         <v>1.53</v>
@@ -42826,10 +42847,10 @@
         <v>1.55</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ200">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR200">
         <v>1.47</v>
@@ -42954,7 +42975,7 @@
         <v>96</v>
       </c>
       <c r="P201" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q201">
         <v>8.5</v>
@@ -43160,7 +43181,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43856,10 +43877,10 @@
         <v>0.73</v>
       </c>
       <c r="AP205">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR205">
         <v>1.58</v>
@@ -43984,7 +44005,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44062,7 +44083,7 @@
         <v>0.64</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44271,7 +44292,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ207">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR207">
         <v>2.52</v>
@@ -44396,7 +44417,7 @@
         <v>233</v>
       </c>
       <c r="P208" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q208">
         <v>3.75</v>
@@ -44474,10 +44495,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR208">
         <v>1.84</v>
@@ -44602,7 +44623,7 @@
         <v>97</v>
       </c>
       <c r="P209" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44683,7 +44704,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ209">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR209">
         <v>1.85</v>
@@ -44808,7 +44829,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -45014,7 +45035,7 @@
         <v>96</v>
       </c>
       <c r="P211" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45426,7 +45447,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q213">
         <v>3.4</v>
@@ -45504,7 +45525,7 @@
         <v>1.27</v>
       </c>
       <c r="AP213">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ213">
         <v>1.24</v>
@@ -45632,7 +45653,7 @@
         <v>235</v>
       </c>
       <c r="P214" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45710,7 +45731,7 @@
         <v>1.55</v>
       </c>
       <c r="AP214">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ214">
         <v>1.53</v>
@@ -45838,7 +45859,7 @@
         <v>104</v>
       </c>
       <c r="P215" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q215">
         <v>4.75</v>
@@ -46044,7 +46065,7 @@
         <v>96</v>
       </c>
       <c r="P216" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46125,7 +46146,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ216">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR216">
         <v>1.5</v>
@@ -46328,7 +46349,7 @@
         <v>1.17</v>
       </c>
       <c r="AP217">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ217">
         <v>1.47</v>
@@ -46456,7 +46477,7 @@
         <v>171</v>
       </c>
       <c r="P218" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46662,7 +46683,7 @@
         <v>96</v>
       </c>
       <c r="P219" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q219">
         <v>1.67</v>
@@ -46743,7 +46764,7 @@
         <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR219">
         <v>2.05</v>
@@ -46868,7 +46889,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q220">
         <v>1.4</v>
@@ -47074,7 +47095,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -47152,7 +47173,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ221">
         <v>1.18</v>
@@ -47486,7 +47507,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q223">
         <v>5.5</v>
@@ -47567,7 +47588,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ223">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR223">
         <v>1.19</v>
@@ -47770,7 +47791,7 @@
         <v>1.33</v>
       </c>
       <c r="AP224">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ224">
         <v>1.24</v>
@@ -47898,7 +47919,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47979,7 +48000,7 @@
         <v>2</v>
       </c>
       <c r="AQ225">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR225">
         <v>1.82</v>
@@ -48104,7 +48125,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q226">
         <v>2.3</v>
@@ -48182,7 +48203,7 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ226">
         <v>1.06</v>
@@ -48516,7 +48537,7 @@
         <v>241</v>
       </c>
       <c r="P228" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q228">
         <v>2.63</v>
@@ -48800,7 +48821,7 @@
         <v>1.92</v>
       </c>
       <c r="AP229">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ229">
         <v>1.5</v>
@@ -49009,7 +49030,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ230">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR230">
         <v>1.53</v>
@@ -49134,7 +49155,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49418,7 +49439,7 @@
         <v>0.92</v>
       </c>
       <c r="AP232">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ232">
         <v>1.24</v>
@@ -49546,7 +49567,7 @@
         <v>171</v>
       </c>
       <c r="P233" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q233">
         <v>3.5</v>
@@ -49627,7 +49648,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ233">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR233">
         <v>1.41</v>
@@ -49752,7 +49773,7 @@
         <v>245</v>
       </c>
       <c r="P234" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q234">
         <v>2.63</v>
@@ -49830,10 +49851,10 @@
         <v>0.5</v>
       </c>
       <c r="AP234">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ234">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR234">
         <v>1.43</v>
@@ -49958,7 +49979,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q235">
         <v>3.5</v>
@@ -50370,7 +50391,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q237">
         <v>1.5</v>
@@ -50654,7 +50675,7 @@
         <v>1.23</v>
       </c>
       <c r="AP238">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ238">
         <v>1.18</v>
@@ -50782,7 +50803,7 @@
         <v>96</v>
       </c>
       <c r="P239" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q239">
         <v>2.2</v>
@@ -51194,7 +51215,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51275,7 +51296,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ241">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR241">
         <v>1.25</v>
@@ -51481,7 +51502,7 @@
         <v>2</v>
       </c>
       <c r="AQ242">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR242">
         <v>1.79</v>
@@ -51606,7 +51627,7 @@
         <v>161</v>
       </c>
       <c r="P243" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q243">
         <v>2.63</v>
@@ -51684,10 +51705,10 @@
         <v>0.85</v>
       </c>
       <c r="AP243">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR243">
         <v>1.46</v>
@@ -51890,7 +51911,7 @@
         <v>1.77</v>
       </c>
       <c r="AP244">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ244">
         <v>1.53</v>
@@ -52018,7 +52039,7 @@
         <v>221</v>
       </c>
       <c r="P245" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q245">
         <v>6.5</v>
@@ -52096,10 +52117,10 @@
         <v>2.15</v>
       </c>
       <c r="AP245">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ245">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR245">
         <v>1.52</v>
@@ -52224,7 +52245,7 @@
         <v>251</v>
       </c>
       <c r="P246" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52302,7 +52323,7 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ246">
         <v>0.88</v>
@@ -52430,7 +52451,7 @@
         <v>96</v>
       </c>
       <c r="P247" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q247">
         <v>6.5</v>
@@ -52508,7 +52529,7 @@
         <v>2.23</v>
       </c>
       <c r="AP247">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ247">
         <v>2.13</v>
@@ -52636,7 +52657,7 @@
         <v>252</v>
       </c>
       <c r="P248" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52714,7 +52735,7 @@
         <v>0.85</v>
       </c>
       <c r="AP248">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ248">
         <v>1.24</v>
@@ -52923,7 +52944,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ249">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR249">
         <v>1.43</v>
@@ -53048,7 +53069,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53129,7 +53150,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ250">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR250">
         <v>1.48</v>
@@ -53335,7 +53356,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ251">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR251">
         <v>1.51</v>
@@ -53460,7 +53481,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q252">
         <v>3.2</v>
@@ -53872,7 +53893,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q254">
         <v>3.1</v>
@@ -54078,7 +54099,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54365,7 +54386,7 @@
         <v>2</v>
       </c>
       <c r="AQ256">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR256">
         <v>2.03</v>
@@ -54568,7 +54589,7 @@
         <v>1.64</v>
       </c>
       <c r="AP257">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
         <v>1.53</v>
@@ -54696,7 +54717,7 @@
         <v>214</v>
       </c>
       <c r="P258" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54902,7 +54923,7 @@
         <v>258</v>
       </c>
       <c r="P259" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q259">
         <v>3.5</v>
@@ -55108,7 +55129,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q260">
         <v>1.83</v>
@@ -55314,7 +55335,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q261">
         <v>2.1</v>
@@ -55395,7 +55416,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ261">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR261">
         <v>1.8</v>
@@ -55726,7 +55747,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55804,7 +55825,7 @@
         <v>0.93</v>
       </c>
       <c r="AP263">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ263">
         <v>0.88</v>
@@ -56138,7 +56159,7 @@
         <v>264</v>
       </c>
       <c r="P265" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q265">
         <v>2.63</v>
@@ -56344,7 +56365,7 @@
         <v>233</v>
       </c>
       <c r="P266" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q266">
         <v>1.73</v>
@@ -56422,10 +56443,10 @@
         <v>0.5</v>
       </c>
       <c r="AP266">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ266">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56550,7 +56571,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q267">
         <v>7.5</v>
@@ -56628,10 +56649,10 @@
         <v>2.21</v>
       </c>
       <c r="AP267">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ267">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR267">
         <v>1.44</v>
@@ -56756,7 +56777,7 @@
         <v>265</v>
       </c>
       <c r="P268" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56837,7 +56858,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ268">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR268">
         <v>1.49</v>
@@ -57040,10 +57061,10 @@
         <v>1.5</v>
       </c>
       <c r="AP269">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ269">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR269">
         <v>1.48</v>
@@ -57168,7 +57189,7 @@
         <v>266</v>
       </c>
       <c r="P270" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q270">
         <v>1.83</v>
@@ -57246,7 +57267,7 @@
         <v>1.5</v>
       </c>
       <c r="AP270">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ270">
         <v>1.24</v>
@@ -57374,7 +57395,7 @@
         <v>267</v>
       </c>
       <c r="P271" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -58198,7 +58219,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58276,7 +58297,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ275">
         <v>1.24</v>
@@ -58610,7 +58631,7 @@
         <v>271</v>
       </c>
       <c r="P277" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -59103,7 +59124,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ279">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR279">
         <v>1.5</v>
@@ -59512,7 +59533,7 @@
         <v>0.4</v>
       </c>
       <c r="AP281">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ281">
         <v>0.44</v>
@@ -59640,7 +59661,7 @@
         <v>273</v>
       </c>
       <c r="P282" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q282">
         <v>3.25</v>
@@ -59721,7 +59742,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ282">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR282">
         <v>1.5</v>
@@ -59846,7 +59867,7 @@
         <v>274</v>
       </c>
       <c r="P283" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60133,7 +60154,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ284">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR284">
         <v>1.39</v>
@@ -60258,7 +60279,7 @@
         <v>275</v>
       </c>
       <c r="P285" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q285">
         <v>4.33</v>
@@ -60336,10 +60357,10 @@
         <v>2.27</v>
       </c>
       <c r="AP285">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ285">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR285">
         <v>1.55</v>
@@ -60542,7 +60563,7 @@
         <v>1.6</v>
       </c>
       <c r="AP286">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ286">
         <v>1.5</v>
@@ -60670,7 +60691,7 @@
         <v>234</v>
       </c>
       <c r="P287" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60748,10 +60769,10 @@
         <v>0.53</v>
       </c>
       <c r="AP287">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ287">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR287">
         <v>1.47</v>
@@ -60876,7 +60897,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q288">
         <v>3.5</v>
@@ -60954,7 +60975,7 @@
         <v>2.2</v>
       </c>
       <c r="AP288">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ288">
         <v>2.13</v>
@@ -61082,7 +61103,7 @@
         <v>278</v>
       </c>
       <c r="P289" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q289">
         <v>2.88</v>
@@ -61163,7 +61184,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ289">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR289">
         <v>1.49</v>
@@ -61288,7 +61309,7 @@
         <v>279</v>
       </c>
       <c r="P290" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q290">
         <v>2.63</v>
@@ -61494,7 +61515,7 @@
         <v>280</v>
       </c>
       <c r="P291" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q291">
         <v>3.4</v>
@@ -61700,7 +61721,7 @@
         <v>199</v>
       </c>
       <c r="P292" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62112,7 +62133,7 @@
         <v>96</v>
       </c>
       <c r="P294" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q294">
         <v>2.75</v>
@@ -62524,7 +62545,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -62730,7 +62751,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q297">
         <v>2</v>
@@ -63093,6 +63114,1242 @@
       </c>
       <c r="BP298">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7492111</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>71</v>
+      </c>
+      <c r="H299" t="s">
+        <v>80</v>
+      </c>
+      <c r="I299">
+        <v>2</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>3</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>3</v>
+      </c>
+      <c r="N299">
+        <v>5</v>
+      </c>
+      <c r="O299" t="s">
+        <v>285</v>
+      </c>
+      <c r="P299" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q299">
+        <v>2.5</v>
+      </c>
+      <c r="R299">
+        <v>2.63</v>
+      </c>
+      <c r="S299">
+        <v>3.25</v>
+      </c>
+      <c r="T299">
+        <v>1.2</v>
+      </c>
+      <c r="U299">
+        <v>4.33</v>
+      </c>
+      <c r="V299">
+        <v>1.91</v>
+      </c>
+      <c r="W299">
+        <v>1.8</v>
+      </c>
+      <c r="X299">
+        <v>4</v>
+      </c>
+      <c r="Y299">
+        <v>1.22</v>
+      </c>
+      <c r="Z299">
+        <v>1.82</v>
+      </c>
+      <c r="AA299">
+        <v>4.2</v>
+      </c>
+      <c r="AB299">
+        <v>3.56</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>23</v>
+      </c>
+      <c r="AE299">
+        <v>1.11</v>
+      </c>
+      <c r="AF299">
+        <v>6.25</v>
+      </c>
+      <c r="AG299">
+        <v>1.34</v>
+      </c>
+      <c r="AH299">
+        <v>3.09</v>
+      </c>
+      <c r="AI299">
+        <v>1.33</v>
+      </c>
+      <c r="AJ299">
+        <v>3.25</v>
+      </c>
+      <c r="AK299">
+        <v>1.38</v>
+      </c>
+      <c r="AL299">
+        <v>1.18</v>
+      </c>
+      <c r="AM299">
+        <v>1.73</v>
+      </c>
+      <c r="AN299">
+        <v>1.88</v>
+      </c>
+      <c r="AO299">
+        <v>1.5</v>
+      </c>
+      <c r="AP299">
+        <v>1.76</v>
+      </c>
+      <c r="AQ299">
+        <v>1.59</v>
+      </c>
+      <c r="AR299">
+        <v>1.53</v>
+      </c>
+      <c r="AS299">
+        <v>1.36</v>
+      </c>
+      <c r="AT299">
+        <v>2.89</v>
+      </c>
+      <c r="AU299">
+        <v>6</v>
+      </c>
+      <c r="AV299">
+        <v>7</v>
+      </c>
+      <c r="AW299">
+        <v>3</v>
+      </c>
+      <c r="AX299">
+        <v>8</v>
+      </c>
+      <c r="AY299">
+        <v>10</v>
+      </c>
+      <c r="AZ299">
+        <v>15</v>
+      </c>
+      <c r="BA299">
+        <v>5</v>
+      </c>
+      <c r="BB299">
+        <v>8</v>
+      </c>
+      <c r="BC299">
+        <v>13</v>
+      </c>
+      <c r="BD299">
+        <v>1.72</v>
+      </c>
+      <c r="BE299">
+        <v>6.5</v>
+      </c>
+      <c r="BF299">
+        <v>2.35</v>
+      </c>
+      <c r="BG299">
+        <v>1.21</v>
+      </c>
+      <c r="BH299">
+        <v>3.8</v>
+      </c>
+      <c r="BI299">
+        <v>1.38</v>
+      </c>
+      <c r="BJ299">
+        <v>2.75</v>
+      </c>
+      <c r="BK299">
+        <v>1.62</v>
+      </c>
+      <c r="BL299">
+        <v>2.12</v>
+      </c>
+      <c r="BM299">
+        <v>1.98</v>
+      </c>
+      <c r="BN299">
+        <v>1.72</v>
+      </c>
+      <c r="BO299">
+        <v>2.48</v>
+      </c>
+      <c r="BP299">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7492112</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>76</v>
+      </c>
+      <c r="H300" t="s">
+        <v>81</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>3</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300" t="s">
+        <v>286</v>
+      </c>
+      <c r="P300" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q300">
+        <v>1.33</v>
+      </c>
+      <c r="R300">
+        <v>4</v>
+      </c>
+      <c r="S300">
+        <v>12</v>
+      </c>
+      <c r="T300">
+        <v>1.11</v>
+      </c>
+      <c r="U300">
+        <v>6.5</v>
+      </c>
+      <c r="V300">
+        <v>1.53</v>
+      </c>
+      <c r="W300">
+        <v>2.38</v>
+      </c>
+      <c r="X300">
+        <v>2.63</v>
+      </c>
+      <c r="Y300">
+        <v>1.44</v>
+      </c>
+      <c r="Z300">
+        <v>1.14</v>
+      </c>
+      <c r="AA300">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB300">
+        <v>13</v>
+      </c>
+      <c r="AC300">
+        <v>1.01</v>
+      </c>
+      <c r="AD300">
+        <v>41</v>
+      </c>
+      <c r="AE300">
+        <v>1.01</v>
+      </c>
+      <c r="AF300">
+        <v>11</v>
+      </c>
+      <c r="AG300">
+        <v>1.15</v>
+      </c>
+      <c r="AH300">
+        <v>5</v>
+      </c>
+      <c r="AI300">
+        <v>1.7</v>
+      </c>
+      <c r="AJ300">
+        <v>2.05</v>
+      </c>
+      <c r="AK300">
+        <v>1.02</v>
+      </c>
+      <c r="AL300">
+        <v>1.05</v>
+      </c>
+      <c r="AM300">
+        <v>6.5</v>
+      </c>
+      <c r="AN300">
+        <v>2.06</v>
+      </c>
+      <c r="AO300">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP300">
+        <v>2.12</v>
+      </c>
+      <c r="AQ300">
+        <v>0.65</v>
+      </c>
+      <c r="AR300">
+        <v>1.69</v>
+      </c>
+      <c r="AS300">
+        <v>1.22</v>
+      </c>
+      <c r="AT300">
+        <v>2.91</v>
+      </c>
+      <c r="AU300">
+        <v>7</v>
+      </c>
+      <c r="AV300">
+        <v>3</v>
+      </c>
+      <c r="AW300">
+        <v>13</v>
+      </c>
+      <c r="AX300">
+        <v>2</v>
+      </c>
+      <c r="AY300">
+        <v>23</v>
+      </c>
+      <c r="AZ300">
+        <v>7</v>
+      </c>
+      <c r="BA300">
+        <v>7</v>
+      </c>
+      <c r="BB300">
+        <v>1</v>
+      </c>
+      <c r="BC300">
+        <v>8</v>
+      </c>
+      <c r="BD300">
+        <v>1.12</v>
+      </c>
+      <c r="BE300">
+        <v>10.5</v>
+      </c>
+      <c r="BF300">
+        <v>6.4</v>
+      </c>
+      <c r="BG300">
+        <v>1.2</v>
+      </c>
+      <c r="BH300">
+        <v>3.9</v>
+      </c>
+      <c r="BI300">
+        <v>1.37</v>
+      </c>
+      <c r="BJ300">
+        <v>2.8</v>
+      </c>
+      <c r="BK300">
+        <v>1.6</v>
+      </c>
+      <c r="BL300">
+        <v>2.17</v>
+      </c>
+      <c r="BM300">
+        <v>1.96</v>
+      </c>
+      <c r="BN300">
+        <v>1.74</v>
+      </c>
+      <c r="BO300">
+        <v>2.43</v>
+      </c>
+      <c r="BP300">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7492113</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>72</v>
+      </c>
+      <c r="H301" t="s">
+        <v>87</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>4</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>96</v>
+      </c>
+      <c r="P301" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q301">
+        <v>4.75</v>
+      </c>
+      <c r="R301">
+        <v>3</v>
+      </c>
+      <c r="S301">
+        <v>1.91</v>
+      </c>
+      <c r="T301">
+        <v>1.14</v>
+      </c>
+      <c r="U301">
+        <v>5.5</v>
+      </c>
+      <c r="V301">
+        <v>1.73</v>
+      </c>
+      <c r="W301">
+        <v>2</v>
+      </c>
+      <c r="X301">
+        <v>3.4</v>
+      </c>
+      <c r="Y301">
+        <v>1.3</v>
+      </c>
+      <c r="Z301">
+        <v>6.2</v>
+      </c>
+      <c r="AA301">
+        <v>5.6</v>
+      </c>
+      <c r="AB301">
+        <v>1.37</v>
+      </c>
+      <c r="AC301">
+        <v>1.01</v>
+      </c>
+      <c r="AD301">
+        <v>36</v>
+      </c>
+      <c r="AE301">
+        <v>1.06</v>
+      </c>
+      <c r="AF301">
+        <v>8.5</v>
+      </c>
+      <c r="AG301">
+        <v>1.25</v>
+      </c>
+      <c r="AH301">
+        <v>3.71</v>
+      </c>
+      <c r="AI301">
+        <v>1.36</v>
+      </c>
+      <c r="AJ301">
+        <v>3</v>
+      </c>
+      <c r="AK301">
+        <v>2.6</v>
+      </c>
+      <c r="AL301">
+        <v>1.12</v>
+      </c>
+      <c r="AM301">
+        <v>1.15</v>
+      </c>
+      <c r="AN301">
+        <v>1.06</v>
+      </c>
+      <c r="AO301">
+        <v>2.19</v>
+      </c>
+      <c r="AP301">
+        <v>1</v>
+      </c>
+      <c r="AQ301">
+        <v>2.24</v>
+      </c>
+      <c r="AR301">
+        <v>1.71</v>
+      </c>
+      <c r="AS301">
+        <v>1.89</v>
+      </c>
+      <c r="AT301">
+        <v>3.6</v>
+      </c>
+      <c r="AU301">
+        <v>3</v>
+      </c>
+      <c r="AV301">
+        <v>6</v>
+      </c>
+      <c r="AW301">
+        <v>4</v>
+      </c>
+      <c r="AX301">
+        <v>9</v>
+      </c>
+      <c r="AY301">
+        <v>8</v>
+      </c>
+      <c r="AZ301">
+        <v>17</v>
+      </c>
+      <c r="BA301">
+        <v>1</v>
+      </c>
+      <c r="BB301">
+        <v>4</v>
+      </c>
+      <c r="BC301">
+        <v>5</v>
+      </c>
+      <c r="BD301">
+        <v>3.95</v>
+      </c>
+      <c r="BE301">
+        <v>7.5</v>
+      </c>
+      <c r="BF301">
+        <v>1.28</v>
+      </c>
+      <c r="BG301">
+        <v>1.23</v>
+      </c>
+      <c r="BH301">
+        <v>3.65</v>
+      </c>
+      <c r="BI301">
+        <v>1.41</v>
+      </c>
+      <c r="BJ301">
+        <v>2.65</v>
+      </c>
+      <c r="BK301">
+        <v>1.67</v>
+      </c>
+      <c r="BL301">
+        <v>2.05</v>
+      </c>
+      <c r="BM301">
+        <v>2.05</v>
+      </c>
+      <c r="BN301">
+        <v>1.67</v>
+      </c>
+      <c r="BO301">
+        <v>2.6</v>
+      </c>
+      <c r="BP301">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7492114</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>86</v>
+      </c>
+      <c r="H302" t="s">
+        <v>84</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>2</v>
+      </c>
+      <c r="K302">
+        <v>2</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>4</v>
+      </c>
+      <c r="N302">
+        <v>5</v>
+      </c>
+      <c r="O302" t="s">
+        <v>263</v>
+      </c>
+      <c r="P302" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q302">
+        <v>3</v>
+      </c>
+      <c r="R302">
+        <v>2.4</v>
+      </c>
+      <c r="S302">
+        <v>3</v>
+      </c>
+      <c r="T302">
+        <v>1.25</v>
+      </c>
+      <c r="U302">
+        <v>3.75</v>
+      </c>
+      <c r="V302">
+        <v>2.2</v>
+      </c>
+      <c r="W302">
+        <v>1.62</v>
+      </c>
+      <c r="X302">
+        <v>5</v>
+      </c>
+      <c r="Y302">
+        <v>1.17</v>
+      </c>
+      <c r="Z302">
+        <v>2.5</v>
+      </c>
+      <c r="AA302">
+        <v>3.47</v>
+      </c>
+      <c r="AB302">
+        <v>2.62</v>
+      </c>
+      <c r="AC302">
+        <v>1.04</v>
+      </c>
+      <c r="AD302">
+        <v>10</v>
+      </c>
+      <c r="AE302">
+        <v>1.17</v>
+      </c>
+      <c r="AF302">
+        <v>5</v>
+      </c>
+      <c r="AG302">
+        <v>1.55</v>
+      </c>
+      <c r="AH302">
+        <v>2.3</v>
+      </c>
+      <c r="AI302">
+        <v>1.44</v>
+      </c>
+      <c r="AJ302">
+        <v>2.63</v>
+      </c>
+      <c r="AK302">
+        <v>1.48</v>
+      </c>
+      <c r="AL302">
+        <v>1.22</v>
+      </c>
+      <c r="AM302">
+        <v>1.5</v>
+      </c>
+      <c r="AN302">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO302">
+        <v>1.69</v>
+      </c>
+      <c r="AP302">
+        <v>0.65</v>
+      </c>
+      <c r="AQ302">
+        <v>1.76</v>
+      </c>
+      <c r="AR302">
+        <v>1.38</v>
+      </c>
+      <c r="AS302">
+        <v>1.32</v>
+      </c>
+      <c r="AT302">
+        <v>2.7</v>
+      </c>
+      <c r="AU302">
+        <v>9</v>
+      </c>
+      <c r="AV302">
+        <v>8</v>
+      </c>
+      <c r="AW302">
+        <v>13</v>
+      </c>
+      <c r="AX302">
+        <v>6</v>
+      </c>
+      <c r="AY302">
+        <v>26</v>
+      </c>
+      <c r="AZ302">
+        <v>16</v>
+      </c>
+      <c r="BA302">
+        <v>6</v>
+      </c>
+      <c r="BB302">
+        <v>4</v>
+      </c>
+      <c r="BC302">
+        <v>10</v>
+      </c>
+      <c r="BD302">
+        <v>1.82</v>
+      </c>
+      <c r="BE302">
+        <v>6.4</v>
+      </c>
+      <c r="BF302">
+        <v>2.18</v>
+      </c>
+      <c r="BG302">
+        <v>1.26</v>
+      </c>
+      <c r="BH302">
+        <v>3.4</v>
+      </c>
+      <c r="BI302">
+        <v>1.46</v>
+      </c>
+      <c r="BJ302">
+        <v>2.5</v>
+      </c>
+      <c r="BK302">
+        <v>1.74</v>
+      </c>
+      <c r="BL302">
+        <v>1.95</v>
+      </c>
+      <c r="BM302">
+        <v>2.17</v>
+      </c>
+      <c r="BN302">
+        <v>1.6</v>
+      </c>
+      <c r="BO302">
+        <v>2.8</v>
+      </c>
+      <c r="BP302">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7492115</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>73</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>3</v>
+      </c>
+      <c r="N303">
+        <v>4</v>
+      </c>
+      <c r="O303" t="s">
+        <v>107</v>
+      </c>
+      <c r="P303" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q303">
+        <v>2.75</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>3.2</v>
+      </c>
+      <c r="T303">
+        <v>1.25</v>
+      </c>
+      <c r="U303">
+        <v>3.75</v>
+      </c>
+      <c r="V303">
+        <v>2.2</v>
+      </c>
+      <c r="W303">
+        <v>1.62</v>
+      </c>
+      <c r="X303">
+        <v>5</v>
+      </c>
+      <c r="Y303">
+        <v>1.17</v>
+      </c>
+      <c r="Z303">
+        <v>2.24</v>
+      </c>
+      <c r="AA303">
+        <v>3.6</v>
+      </c>
+      <c r="AB303">
+        <v>2.89</v>
+      </c>
+      <c r="AC303">
+        <v>1.01</v>
+      </c>
+      <c r="AD303">
+        <v>17</v>
+      </c>
+      <c r="AE303">
+        <v>1.18</v>
+      </c>
+      <c r="AF303">
+        <v>4.75</v>
+      </c>
+      <c r="AG303">
+        <v>1.51</v>
+      </c>
+      <c r="AH303">
+        <v>2.46</v>
+      </c>
+      <c r="AI303">
+        <v>1.44</v>
+      </c>
+      <c r="AJ303">
+        <v>2.63</v>
+      </c>
+      <c r="AK303">
+        <v>1.42</v>
+      </c>
+      <c r="AL303">
+        <v>1.22</v>
+      </c>
+      <c r="AM303">
+        <v>1.57</v>
+      </c>
+      <c r="AN303">
+        <v>1.88</v>
+      </c>
+      <c r="AO303">
+        <v>1.44</v>
+      </c>
+      <c r="AP303">
+        <v>1.76</v>
+      </c>
+      <c r="AQ303">
+        <v>1.53</v>
+      </c>
+      <c r="AR303">
+        <v>1.42</v>
+      </c>
+      <c r="AS303">
+        <v>1.41</v>
+      </c>
+      <c r="AT303">
+        <v>2.83</v>
+      </c>
+      <c r="AU303">
+        <v>2</v>
+      </c>
+      <c r="AV303">
+        <v>7</v>
+      </c>
+      <c r="AW303">
+        <v>7</v>
+      </c>
+      <c r="AX303">
+        <v>5</v>
+      </c>
+      <c r="AY303">
+        <v>9</v>
+      </c>
+      <c r="AZ303">
+        <v>13</v>
+      </c>
+      <c r="BA303">
+        <v>4</v>
+      </c>
+      <c r="BB303">
+        <v>7</v>
+      </c>
+      <c r="BC303">
+        <v>11</v>
+      </c>
+      <c r="BD303">
+        <v>1.74</v>
+      </c>
+      <c r="BE303">
+        <v>6.4</v>
+      </c>
+      <c r="BF303">
+        <v>2.33</v>
+      </c>
+      <c r="BG303">
+        <v>1.3</v>
+      </c>
+      <c r="BH303">
+        <v>3.05</v>
+      </c>
+      <c r="BI303">
+        <v>1.54</v>
+      </c>
+      <c r="BJ303">
+        <v>2.28</v>
+      </c>
+      <c r="BK303">
+        <v>1.89</v>
+      </c>
+      <c r="BL303">
+        <v>1.8</v>
+      </c>
+      <c r="BM303">
+        <v>2.38</v>
+      </c>
+      <c r="BN303">
+        <v>1.5</v>
+      </c>
+      <c r="BO303">
+        <v>3.05</v>
+      </c>
+      <c r="BP303">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7492116</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>74</v>
+      </c>
+      <c r="H304" t="s">
+        <v>79</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="s">
+        <v>176</v>
+      </c>
+      <c r="P304" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q304">
+        <v>2.5</v>
+      </c>
+      <c r="R304">
+        <v>2.4</v>
+      </c>
+      <c r="S304">
+        <v>3.75</v>
+      </c>
+      <c r="T304">
+        <v>1.29</v>
+      </c>
+      <c r="U304">
+        <v>3.5</v>
+      </c>
+      <c r="V304">
+        <v>2.25</v>
+      </c>
+      <c r="W304">
+        <v>1.57</v>
+      </c>
+      <c r="X304">
+        <v>5.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.14</v>
+      </c>
+      <c r="Z304">
+        <v>2.12</v>
+      </c>
+      <c r="AA304">
+        <v>3.17</v>
+      </c>
+      <c r="AB304">
+        <v>3.55</v>
+      </c>
+      <c r="AC304">
+        <v>1.04</v>
+      </c>
+      <c r="AD304">
+        <v>10</v>
+      </c>
+      <c r="AE304">
+        <v>1.2</v>
+      </c>
+      <c r="AF304">
+        <v>4.33</v>
+      </c>
+      <c r="AG304">
+        <v>1.77</v>
+      </c>
+      <c r="AH304">
+        <v>1.98</v>
+      </c>
+      <c r="AI304">
+        <v>1.53</v>
+      </c>
+      <c r="AJ304">
+        <v>2.38</v>
+      </c>
+      <c r="AK304">
+        <v>1.3</v>
+      </c>
+      <c r="AL304">
+        <v>1.25</v>
+      </c>
+      <c r="AM304">
+        <v>1.73</v>
+      </c>
+      <c r="AN304">
+        <v>1.44</v>
+      </c>
+      <c r="AO304">
+        <v>1</v>
+      </c>
+      <c r="AP304">
+        <v>1.35</v>
+      </c>
+      <c r="AQ304">
+        <v>1.12</v>
+      </c>
+      <c r="AR304">
+        <v>1.58</v>
+      </c>
+      <c r="AS304">
+        <v>1.23</v>
+      </c>
+      <c r="AT304">
+        <v>2.81</v>
+      </c>
+      <c r="AU304">
+        <v>5</v>
+      </c>
+      <c r="AV304">
+        <v>4</v>
+      </c>
+      <c r="AW304">
+        <v>15</v>
+      </c>
+      <c r="AX304">
+        <v>2</v>
+      </c>
+      <c r="AY304">
+        <v>22</v>
+      </c>
+      <c r="AZ304">
+        <v>6</v>
+      </c>
+      <c r="BA304">
+        <v>4</v>
+      </c>
+      <c r="BB304">
+        <v>0</v>
+      </c>
+      <c r="BC304">
+        <v>4</v>
+      </c>
+      <c r="BD304">
+        <v>1.63</v>
+      </c>
+      <c r="BE304">
+        <v>6.75</v>
+      </c>
+      <c r="BF304">
+        <v>2.5</v>
+      </c>
+      <c r="BG304">
+        <v>1.2</v>
+      </c>
+      <c r="BH304">
+        <v>3.9</v>
+      </c>
+      <c r="BI304">
+        <v>1.37</v>
+      </c>
+      <c r="BJ304">
+        <v>2.8</v>
+      </c>
+      <c r="BK304">
+        <v>1.62</v>
+      </c>
+      <c r="BL304">
+        <v>2.14</v>
+      </c>
+      <c r="BM304">
+        <v>1.97</v>
+      </c>
+      <c r="BN304">
+        <v>1.72</v>
+      </c>
+      <c r="BO304">
+        <v>2.48</v>
+      </c>
+      <c r="BP304">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="452">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1363,10 +1363,13 @@
     <t>['45+4', '61', '63']</t>
   </si>
   <si>
-    <t>['68', '90+4']</t>
+    <t>['69', '90+4']</t>
   </si>
   <si>
     <t>['49', '54']</t>
+  </si>
+  <si>
+    <t>['10', '66']</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2274,7 +2277,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3713,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ10">
         <v>1.06</v>
@@ -6394,7 +6397,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ23">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR23">
         <v>1.5</v>
@@ -9275,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ37">
         <v>1.24</v>
@@ -9484,7 +9487,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ38">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -12365,7 +12368,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52">
         <v>1.53</v>
@@ -13604,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -15455,7 +15458,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ67">
         <v>1.59</v>
@@ -17312,7 +17315,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -18957,7 +18960,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ84">
         <v>2.24</v>
@@ -21020,7 +21023,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR94">
         <v>2.18</v>
@@ -22459,7 +22462,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ101">
         <v>0.65</v>
@@ -23080,7 +23083,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -26376,7 +26379,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR120">
         <v>1.27</v>
@@ -27197,7 +27200,7 @@
         <v>1.86</v>
       </c>
       <c r="AP124">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ124">
         <v>1.76</v>
@@ -30702,7 +30705,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ141">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -30905,7 +30908,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ142">
         <v>1.53</v>
@@ -36676,7 +36679,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ170">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR170">
         <v>1.47</v>
@@ -37085,7 +37088,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ172">
         <v>1.12</v>
@@ -38321,7 +38324,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ178">
         <v>1.18</v>
@@ -40590,7 +40593,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ189">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -41823,7 +41826,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ195">
         <v>1.47</v>
@@ -43680,7 +43683,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ204">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR204">
         <v>1.47</v>
@@ -45119,7 +45122,7 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ211">
         <v>1.24</v>
@@ -46976,7 +46979,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ220">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR220">
         <v>2.53</v>
@@ -48415,7 +48418,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ227">
         <v>0.88</v>
@@ -50272,7 +50275,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR236">
         <v>2.04</v>
@@ -53565,7 +53568,7 @@
         <v>1.54</v>
       </c>
       <c r="AP252">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ252">
         <v>1.24</v>
@@ -56040,7 +56043,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ264">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR264">
         <v>1.5</v>
@@ -57479,7 +57482,7 @@
         <v>2.29</v>
       </c>
       <c r="AP271">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ271">
         <v>2.06</v>
@@ -59542,7 +59545,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ281">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR281">
         <v>1.38</v>
@@ -60157,7 +60160,7 @@
         <v>1.4</v>
       </c>
       <c r="AP284">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ284">
         <v>1.59</v>
@@ -64768,6 +64771,212 @@
       </c>
       <c r="BP306">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7492119</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45794.4375</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>78</v>
+      </c>
+      <c r="H307" t="s">
+        <v>83</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" t="s">
+        <v>96</v>
+      </c>
+      <c r="P307" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q307">
+        <v>2.1</v>
+      </c>
+      <c r="R307">
+        <v>2.5</v>
+      </c>
+      <c r="S307">
+        <v>5</v>
+      </c>
+      <c r="T307">
+        <v>1.29</v>
+      </c>
+      <c r="U307">
+        <v>3.5</v>
+      </c>
+      <c r="V307">
+        <v>2.38</v>
+      </c>
+      <c r="W307">
+        <v>1.53</v>
+      </c>
+      <c r="X307">
+        <v>5.5</v>
+      </c>
+      <c r="Y307">
+        <v>1.14</v>
+      </c>
+      <c r="Z307">
+        <v>1.74</v>
+      </c>
+      <c r="AA307">
+        <v>3.87</v>
+      </c>
+      <c r="AB307">
+        <v>4.2</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>11</v>
+      </c>
+      <c r="AE307">
+        <v>1.2</v>
+      </c>
+      <c r="AF307">
+        <v>4.5</v>
+      </c>
+      <c r="AG307">
+        <v>1.65</v>
+      </c>
+      <c r="AH307">
+        <v>2.15</v>
+      </c>
+      <c r="AI307">
+        <v>1.67</v>
+      </c>
+      <c r="AJ307">
+        <v>2.1</v>
+      </c>
+      <c r="AK307">
+        <v>1.18</v>
+      </c>
+      <c r="AL307">
+        <v>1.18</v>
+      </c>
+      <c r="AM307">
+        <v>2.2</v>
+      </c>
+      <c r="AN307">
+        <v>0.88</v>
+      </c>
+      <c r="AO307">
+        <v>0.44</v>
+      </c>
+      <c r="AP307">
+        <v>0.82</v>
+      </c>
+      <c r="AQ307">
+        <v>0.59</v>
+      </c>
+      <c r="AR307">
+        <v>1.35</v>
+      </c>
+      <c r="AS307">
+        <v>1.29</v>
+      </c>
+      <c r="AT307">
+        <v>2.64</v>
+      </c>
+      <c r="AU307">
+        <v>3</v>
+      </c>
+      <c r="AV307">
+        <v>7</v>
+      </c>
+      <c r="AW307">
+        <v>8</v>
+      </c>
+      <c r="AX307">
+        <v>3</v>
+      </c>
+      <c r="AY307">
+        <v>14</v>
+      </c>
+      <c r="AZ307">
+        <v>10</v>
+      </c>
+      <c r="BA307">
+        <v>7</v>
+      </c>
+      <c r="BB307">
+        <v>4</v>
+      </c>
+      <c r="BC307">
+        <v>11</v>
+      </c>
+      <c r="BD307">
+        <v>1.48</v>
+      </c>
+      <c r="BE307">
+        <v>7</v>
+      </c>
+      <c r="BF307">
+        <v>2.9</v>
+      </c>
+      <c r="BG307">
+        <v>1.23</v>
+      </c>
+      <c r="BH307">
+        <v>3.65</v>
+      </c>
+      <c r="BI307">
+        <v>1.41</v>
+      </c>
+      <c r="BJ307">
+        <v>2.65</v>
+      </c>
+      <c r="BK307">
+        <v>1.67</v>
+      </c>
+      <c r="BL307">
+        <v>2.04</v>
+      </c>
+      <c r="BM307">
+        <v>2.05</v>
+      </c>
+      <c r="BN307">
+        <v>1.66</v>
+      </c>
+      <c r="BO307">
+        <v>2.55</v>
+      </c>
+      <c r="BP307">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
